--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -8,27 +8,27 @@
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Médias" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Máximas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Totais" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="24">
   <si>
     <t>One client process</t>
   </si>
   <si>
-    <t>Five client process</t>
+    <t>Five client processes</t>
   </si>
   <si>
-    <t>Ten client process</t>
+    <t>Ten client processes</t>
   </si>
   <si>
-    <t>Fifteen client process</t>
+    <t>Fifteen client processes</t>
   </si>
   <si>
     <t>Run 1</t>
@@ -64,6 +64,12 @@
     <t>Pre Allocated</t>
   </si>
   <si>
+    <t>Five processes</t>
+  </si>
+  <si>
+    <t>Ten processes</t>
+  </si>
+  <si>
     <t>Setup</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>Cliente (VM)</t>
   </si>
   <si>
+    <t>Virtualbox Ubuntu 64, RAM 4GB</t>
+  </si>
+  <si>
     <t>Host</t>
   </si>
   <si>
@@ -86,8 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -128,7 +138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -152,20 +162,27 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -175,187 +192,983 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0014314889907837</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.0015480637550354</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.0021039724349976</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.0059571576118469</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.0065603828430176</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.018043019771576</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.011732988357544</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.010993567705154</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.01124730348587</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.01706546386083</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.016357367833455</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.018675497372945</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>0.0052937984466553</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.005248236656189</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.0053282499313354</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.028295629024505</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.023424656391144</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.02336040019989</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.05214789390564</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.049582679271698</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.04833864569664</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.075992599328359</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.078677759965261</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.077314221858978</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>0.096774446964264</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.080126941204071</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.081580448150635</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.42243172168731</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.40363832950592</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.3905458188057</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0.83044283986092</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.7926518535614</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.79061448216438</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1.1617534240087</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1.184148367246</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>1.2018860816956</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="3" t="n">
+        <v>0.54079600572586</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.50757834911346</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.52631659507751</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>2.3419808125496</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>2.3268855214119</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>2.2600233316421</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>4.7239044475555</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>4.580838047266</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>4.5409740936756</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>7.0976135993004</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>7.4384954476357</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>7.2649534829458</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="3" t="n">
+        <v>8.9372336387634</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>8.8908143758774</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>8.8247224569321</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>39.989624052048</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>39.160101234913</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>39.330635688305</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="3" t="n">
+        <v>0.011092734336853</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.010453903675079</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.010729396343231</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.048883850574494</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.047141370773316</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.046527798175812</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.094557257890701</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.096854348182678</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.098737652301788</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.13909464359283</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.1446737742424</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.13628300666809</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="3" t="n">
+        <v>0.020497751235962</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.019641864299774</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.019841349124908</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.08239785194397</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.080024123191834</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.080256638526917</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.13808512806892</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.14780307650566</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.14866646289825</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.21419168790181</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.21193301518758</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.20444893519084</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="3" t="n">
+        <v>0.10351920127869</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.10134074687958</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.10104925632477</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.42700060129166</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.4219576048851</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.40732970237732</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0.73813594698906</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0.74352227687836</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.76027686834335</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1.2384808452924</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1.4442740766207</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1.250464776357</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="3" t="n">
+        <v>0.76854524612427</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.76273882389069</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.77157107591629</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>3.464377322197</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>3.3437757754326</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>3.2827260613442</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>6.5403406131268</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>6.4307137799263</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>6.2527921497822</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>9.660263311863</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>10.297345153491</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>9.9281050960223</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="3" t="n">
+        <v>9.7782281160355</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>9.8242827534676</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>9.9103976964951</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>46.598385419846</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>45.270132610798</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>44.744133553505</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C15" s="3" t="n">
+        <v>0.0016363620758057</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.0015945434570312</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.0018693089485168</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.0068293523788452</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.0057006764411926</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0.005537645816803</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0.015425872802734</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.014411270618439</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0.013256870508194</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0.019928598403931</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.02051505724589</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0.018711342811584</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C16" s="3" t="n">
+        <v>0.0062947154045105</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.0063360452651978</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.0067602038383484</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.027417945861817</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.02701979637146</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.025766286849976</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.048534736633301</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.04919308423996</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0.046975312232971</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0.070586326122284</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.086491499741872</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0.07536677757899</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C17" s="3" t="n">
+        <v>0.07107115983963</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.068565058708191</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.072012400627136</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.26593747138977</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.26884125232697</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.26608824968338</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0.52250066995621</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0.5441382265091</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.49347644805908</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0.79085032304128</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0.79578838586807</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0.80515870094299</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C18" s="3" t="n">
+        <v>0.54750174283981</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.54565908908844</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.5392781496048</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2.3400007390976</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>2.2978602719307</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>2.320175242424</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>4.5642453157902</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>4.6499361646175</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>4.3088773608208</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>6.7723919526736</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>7.0252479306857</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>6.7403890665372</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.0017413854598999</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.0022881984710693</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.0019649028778076</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.0057175612449646</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.0054580068588257</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.0072121524810791</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.011682239770889</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.013195636272431</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0.011768789291382</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.019460439682007</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.018259693781535</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.017330631415049</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.0060477614402771</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.0065787434577942</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.0065038442611694</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.027889678478241</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.026308827400208</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0.031436080932617</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0.055970176458359</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0.065652630329132</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.047767397165299</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.072505015532176</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.074697585105896</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.080517635345459</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.077894556522369</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.082943093776703</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.087105810642242</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.2924641919136</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.29269207715988</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0.30437308073044</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0.61388147592545</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0.55080269932747</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0.54690699338913</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.75176377932231</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.78768475453059</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0.84885949611664</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0.55652589797974</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.57265315055847</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.55273129940033</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>2.2740010142327</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>2.2856835031509</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>2.2894560313225</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>4.6694439303875</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>4.5749511063099</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>4.5856848680973</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>7.6153397981326</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>6.8482379635175</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>6.5544489558538</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="B23" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="B24" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -380,16 +1193,992 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.0072529315948486</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.0072181224822998</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.011953115463257</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.035267019271851</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.043829584121704</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.26657886505127</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.065957403182983</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.063758063316345</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.063716888427734</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.10858422915141</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.11337777773539</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.1147606531779</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.023689985275269</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.024049997329712</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.02374792098999</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.13800163269043</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.10595703125</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.10407118797302</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.25194811820984</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.24391353130341</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.21619493961334</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.37704892158508</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.38762256304423</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.38960140546163</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.57281708717346</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.33039093017578</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.33272790908813</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1.8746539115906</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1.7866715908051</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1.6307839870453</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>4.0690225601196</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>3.3074926376343</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>3.3108070135117</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>4.8273777961731</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>4.952952559789</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>5.1045025189718</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2.7736988067627</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>2.4599299430847</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>2.4499311447144</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>10.80013756752</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>10.270339775085</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>9.8035129547118</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>22.995408773422</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>19.68551299572</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>19.79792239666</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>30.346943807602</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>36.315698464711</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>34.170119746526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>36.395166873932</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>36.015284776688</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>35.772108078003</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>164.53409862518</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>162.02532038689</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>161.61526856423</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.047950029373169</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.044583082199097</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.044539928436279</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.21065196990967</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.20160684585571</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.20028495788574</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0.40006971359253</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.42880916595459</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.41465699672699</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.59108333587646</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.61449319521586</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.5699603398641</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.089298009872437</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.087839126586914</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.091475963592529</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.41370339393616</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.36026096343994</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.35251493453979</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.59704129695892</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.64298689365387</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.65656580924988</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0.91969916025798</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.9302799542745</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.8886040687561</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.46341013908386</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.42142009735107</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.42274618148804</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1.8653461933136</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1.8447131156921</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1.8550609588623</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>3.1129492044449</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>3.1052729129791</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>3.3289674043655</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>6.9738423665364</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>8.0030083497365</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>5.7749861558278</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>3.459223985672</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3.4055318832397</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>3.4218561649323</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>18.312743711472</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>16.547928762436</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>15.521381235123</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>33.630316114426</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>32.721774148941</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>31.199522995949</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>46.234833796819</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>47.887095514933</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>55.29489924113</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>39.94206404686</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>39.89732003212</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>40.802585124969</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>206.99452590943</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>208.1982372284</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>204.47934961319</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.0078480243682861</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.0078988075256348</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.010045051574707</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.050973653793335</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.030906105041504</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0.029773759841919</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0.12633295059204</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.11819014549255</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0.088585734367371</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0.11665954589844</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.15495767593384</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0.13692493438721</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.028334140777588</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.027240037918091</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.031787157058716</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.12788996696472</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.13751921653747</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.1271363735199</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.25247685909271</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.25813038349152</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0.22794213294983</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0.35138460795085</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.40709544817607</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0.36049739519755</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.28946495056152</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.29322409629822</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.29872417449951</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1.1922716140747</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1.1498569965362</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1.1194800376892</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>2.193200802803</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>2.3419580936432</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>2.0660638093948</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>3.3252289930979</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>3.2887267589569</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>3.5162612597148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>2.5863378047943</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>2.5435888767242</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>2.5681610107422</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>11.233117055893</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>11.431131076813</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>11.202819633484</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>25.306958389282</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>22.278060340881</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>21.07271630764</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>31.822139803568</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>31.112723811467</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>31.022836780548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.0082938671112061</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.019883871078491</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.010454893112183</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.032240056991577</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.029556608200073</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.042261219024658</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.07095410823822</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.07520055770874</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0.066626048088074</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.11761468251546</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.11127301851908</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.10422490437826</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.026512145996094</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.031292915344238</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.03071403503418</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.13429083824158</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.13121619224548</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0.16669764518738</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0.31163783073425</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0.55145773887635</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.24426610469818</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0.37040146191915</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.35832185745239</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0.45862773259481</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.36653804779053</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.41377687454224</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.60754418373108</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1.3559296131134</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1.2252017498016</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1.3626742362976</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>2.7777417898178</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>2.4877586364746</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>2.3611316919327</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>3.3741455872854</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>3.3618197441101</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>3.8807011763255</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2.5659189224243</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>2.5739328861237</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>2.5189740657806</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>10.921091556549</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>11.353821754456</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>11.35698094368</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>23.484414839744</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>22.550415802002</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>23.329129576683</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>34.786128282547</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>34.930746475856</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>31.795294602712</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -405,16 +2194,992 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.028629779815674</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.030961275100708</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.042079448699951</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.11914315223694</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.13120765686035</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.36086039543152</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.23465976715088</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.21987135410309</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.22494606971741</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.34130927721659</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.32714735666911</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.3735099474589</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.10587596893311</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.10496473312378</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.10656499862671</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.56591258049011</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.46849312782288</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.4672080039978</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.0429578781128</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.99165358543396</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.9667729139328</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1.5198519865672</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>1.5735551993052</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>1.5462844371796</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1.9354889392853</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1.6025388240814</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1.6316089630127</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>8.4486344337463</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>8.0727665901184</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>7.8109163761139</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>16.608856797218</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>15.853037071228</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>15.812289643288</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>23.235068480174</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>23.68296734492</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>24.037721633911</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10.815920114517</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>10.151566982269</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>10.52633190155</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>46.839616250992</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>46.537710428238</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45.200466632843</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>94.478088951111</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>91.61676094532</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>90.819481873512</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>141.95227198601</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>148.76990895271</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>145.29906965892</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>178.74467277527</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>177.81628751755</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>176.49444913864</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>799.79248104095</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>783.20202469826</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>786.6127137661</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.22185468673706</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.20907807350159</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.21458792686462</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.97767701148987</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.94282741546631</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.93055596351623</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.891145157814</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1.9370869636536</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.9747530460358</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>2.7818928718567</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>2.893475484848</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>2.7256601333618</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.40995502471924</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.39283728599548</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.39682698249817</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1.6479570388794</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1.6004824638367</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1.6051327705383</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>2.7617025613785</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>2.9560615301132</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>2.9733292579651</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>4.2838337580363</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>4.2386603037516</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>4.0889787038167</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2.0703840255737</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>2.0268149375916</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>2.0209851264954</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>8.5400120258332</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>8.439152097702</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>8.1465940475464</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>14.762718939781</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>14.870445537567</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>15.205537366867</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>24.769616905848</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>28.885481532415</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>25.00929552714</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>15.370904922485</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>15.254776477814</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>15.431421518326</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>69.287546443939</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>66.875515508652</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>65.654521226883</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>130.80681226253</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>128.61427559853</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>125.05584299564</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>193.20526623726</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>205.94690306981</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>198.56210192045</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>195.56456232071</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>196.48565506935</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>198.2079539299</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>931.96770839691</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>905.40265221596</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>894.8826710701</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.032727241516113</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.031890869140625</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.037386178970337</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.1365870475769</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.11401352882385</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0.11075291633606</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0.30851745605469</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.28822541236877</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0.26513741016388</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0.39857196807861</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.41030114491781</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0.37422685623169</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.12589430809021</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.12672090530396</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.13520407676697</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.54835891723633</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.5403959274292</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.51532573699951</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.97069473266602</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.98386168479919</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0.93950624465943</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>1.4117265224457</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>1.7298299948374</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>1.5073355515798</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1.4214231967926</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1.3713011741638</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1.4402480125427</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>5.3187494277954</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>5.3768250465393</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>5.3217649936676</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>10.450013399124</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>10.882764530182</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>9.8695289611816</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>15.817006460826</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>15.915767717361</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>16.10317401886</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>10.950034856796</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>10.913181781769</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>10.785562992096</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>46.800014781952</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>45.957205438614</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>46.40350484848</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>91.284906315804</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>92.998723292351</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>86.177547216415</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>135.44783905347</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>140.50495861371</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>134.80778133074</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.034827709197998</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.045763969421387</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.039298057556152</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.11435122489929</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.10916013717651</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.14424304962158</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.23364479541778</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0.26391272544861</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0.23537578582764</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.38920879364014</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.3651938756307</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.34661262830099</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.12095522880554</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.13157486915588</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.13007688522339</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.55779356956482</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.52617654800415</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0.62872161865235</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1.1194035291672</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1.3130526065826</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.95534794330597</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>1.4501003106435</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>1.4939517021179</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>1.6103527069092</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1.5578911304474</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1.6588618755341</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1.7421162128448</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>5.8492838382721</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>5.8538415431976</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>6.0874616146088</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>12.277629518509</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>11.016053986549</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>10.938139867782</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>15.035275586446</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>15.753695090612</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>16.977189922333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>11.130517959595</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>11.453063011169</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>11.054625988007</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>45.480020284653</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>45.713670063019</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45.78912062645</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>93.38887860775</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>91.499022126198</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>91.713697361946</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>152.30679596265</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>136.96475927035</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>131.08897911708</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>

--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Máximas" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Totais" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
   <si>
     <t>One client process</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Run 3</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
   <si>
     <t>Monoprocessed</t>
@@ -95,11 +98,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
+    <numFmt formatCode="0.0000" numFmtId="166"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -118,6 +122,32 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -162,18 +192,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -182,9 +215,81 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00878787"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00BE4B48"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="004A7EBB"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0098B855"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="007D5FA0"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -192,39 +297,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="19" style="1" width="11.7686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="C2" s="1" t="s">
@@ -236,947 +353,1219 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>0.0014314889907837</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.0015480637550354</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.0021039724349976</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5" t="n">
+        <f aca="false">SUM(C3:E3)/COUNT(C3:E3)</f>
+        <v>0.00169450839360557</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.0059571576118469</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.0065603828430176</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.018043019771576</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="5" t="n">
+        <f aca="false">SUM(G3:I3)/COUNT(G3:I3)</f>
+        <v>0.0101868534088135</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.011732988357544</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>0.010993567705154</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>0.01124730348587</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="N3" s="5" t="n">
+        <f aca="false">SUM(K3:M3)/COUNT(K3:M3)</f>
+        <v>0.0113246198495227</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.01706546386083</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.016357367833455</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0.018675497372945</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <f aca="false">SUM(O3:Q3)/COUNT(O3:Q3)</f>
+        <v>0.0173661096890767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.0052937984466553</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.005248236656189</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.0053282499313354</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="5" t="n">
+        <f aca="false">SUM(C4:E4)/COUNT(C4:E4)</f>
+        <v>0.00529009501139323</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>0.028295629024505</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.023424656391144</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.02336040019989</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="5" t="n">
+        <f aca="false">SUM(G4:I4)/COUNT(G4:I4)</f>
+        <v>0.0250268952051797</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.05214789390564</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.049582679271698</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>0.04833864569664</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="N4" s="5" t="n">
+        <f aca="false">SUM(K4:M4)/COUNT(K4:M4)</f>
+        <v>0.0500230729579927</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0.075992599328359</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>0.078677759965261</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>0.077314221858978</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <f aca="false">SUM(O4:Q4)/COUNT(O4:Q4)</f>
+        <v>0.0773281937175327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>0.096774446964264</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.080126941204071</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.081580448150635</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="5" t="n">
+        <f aca="false">SUM(C5:E5)/COUNT(C5:E5)</f>
+        <v>0.0861606121063234</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.42243172168731</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.40363832950592</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.3905458188057</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="5" t="n">
+        <f aca="false">SUM(G5:I5)/COUNT(G5:I5)</f>
+        <v>0.405538623332977</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>0.83044283986092</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>0.7926518535614</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="M5" s="4" t="n">
         <v>0.79061448216438</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="N5" s="5" t="n">
+        <f aca="false">SUM(K5:M5)/COUNT(K5:M5)</f>
+        <v>0.804569725195567</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>1.1617534240087</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="P5" s="4" t="n">
         <v>1.184148367246</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <v>1.2018860816956</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <f aca="false">SUM(O5:Q5)/COUNT(O5:Q5)</f>
+        <v>1.1825959576501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>0.54079600572586</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.50757834911346</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>0.52631659507751</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="5" t="n">
+        <f aca="false">SUM(C6:E6)/COUNT(C6:E6)</f>
+        <v>0.52489698330561</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>2.3419808125496</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>2.3268855214119</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>2.2600233316421</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="5" t="n">
+        <f aca="false">SUM(G6:I6)/COUNT(G6:I6)</f>
+        <v>2.30962988853453</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>4.7239044475555</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>4.580838047266</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>4.5409740936756</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="N6" s="5" t="n">
+        <f aca="false">SUM(K6:M6)/COUNT(K6:M6)</f>
+        <v>4.61523886283237</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>7.0976135993004</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="P6" s="4" t="n">
         <v>7.4384954476357</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <v>7.2649534829458</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <f aca="false">SUM(O6:Q6)/COUNT(O6:Q6)</f>
+        <v>7.26702084329397</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>8.9372336387634</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>8.8908143758774</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>8.8247224569321</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
+        <f aca="false">SUM(C7:E7)/COUNT(C7:E7)</f>
+        <v>8.88425682385763</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>39.989624052048</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>39.160101234913</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>39.330635688305</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">SUM(G7:I7)/COUNT(G7:I7)</f>
+        <v>39.493453658422</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>0.011092734336853</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.010453903675079</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.010729396343231</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="5" t="n">
+        <f aca="false">SUM(C9:E9)/COUNT(C9:E9)</f>
+        <v>0.0107586781183877</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0.048883850574494</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.047141370773316</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.046527798175812</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="5" t="n">
+        <f aca="false">SUM(G9:I9)/COUNT(G9:I9)</f>
+        <v>0.0475176731745407</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>0.094557257890701</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>0.096854348182678</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="M9" s="4" t="n">
         <v>0.098737652301788</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="N9" s="5" t="n">
+        <f aca="false">SUM(K9:M9)/COUNT(K9:M9)</f>
+        <v>0.096716419458389</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>0.13909464359283</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>0.1446737742424</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>0.13628300666809</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <f aca="false">SUM(O9:Q9)/COUNT(O9:Q9)</f>
+        <v>0.140017141501107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>0.020497751235962</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.019641864299774</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.019841349124908</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="5" t="n">
+        <f aca="false">SUM(C10:E10)/COUNT(C10:E10)</f>
+        <v>0.0199936548868813</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>0.08239785194397</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.080024123191834</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.080256638526917</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="5" t="n">
+        <f aca="false">SUM(G10:I10)/COUNT(G10:I10)</f>
+        <v>0.080892871220907</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>0.13808512806892</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>0.14780307650566</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>0.14866646289825</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="N10" s="5" t="n">
+        <f aca="false">SUM(K10:M10)/COUNT(K10:M10)</f>
+        <v>0.144851555824277</v>
+      </c>
+      <c r="O10" s="4" t="n">
         <v>0.21419168790181</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <v>0.21193301518758</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>0.20444893519084</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <f aca="false">SUM(O10:Q10)/COUNT(O10:Q10)</f>
+        <v>0.210191212760077</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>0.10351920127869</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.10134074687958</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.10104925632477</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="5" t="n">
+        <f aca="false">SUM(C11:E11)/COUNT(C11:E11)</f>
+        <v>0.10196973482768</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>0.42700060129166</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.4219576048851</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.40732970237732</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="5" t="n">
+        <f aca="false">SUM(G11:I11)/COUNT(G11:I11)</f>
+        <v>0.418762636184693</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>0.73813594698906</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>0.74352227687836</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>0.76027686834335</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="N11" s="5" t="n">
+        <f aca="false">SUM(K11:M11)/COUNT(K11:M11)</f>
+        <v>0.74731169740359</v>
+      </c>
+      <c r="O11" s="4" t="n">
         <v>1.2384808452924</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>1.4442740766207</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>1.250464776357</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <f aca="false">SUM(O11:Q11)/COUNT(O11:Q11)</f>
+        <v>1.3110732327567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>0.76854524612427</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>0.76273882389069</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.77157107591629</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="5" t="n">
+        <f aca="false">SUM(C12:E12)/COUNT(C12:E12)</f>
+        <v>0.767618381977083</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>3.464377322197</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>3.3437757754326</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>3.2827260613442</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="5" t="n">
+        <f aca="false">SUM(G12:I12)/COUNT(G12:I12)</f>
+        <v>3.3636263863246</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>6.5403406131268</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <v>6.4307137799263</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>6.2527921497822</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="N12" s="5" t="n">
+        <f aca="false">SUM(K12:M12)/COUNT(K12:M12)</f>
+        <v>6.40794884761177</v>
+      </c>
+      <c r="O12" s="4" t="n">
         <v>9.660263311863</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <v>10.297345153491</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <v>9.9281050960223</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <f aca="false">SUM(O12:Q12)/COUNT(O12:Q12)</f>
+        <v>9.96190452045877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>9.7782281160355</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>9.8242827534676</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>9.9103976964951</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="5" t="n">
+        <f aca="false">SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>9.83763618866607</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>46.598385419846</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>45.270132610798</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>44.744133553505</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>45.5375505280497</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>0.0016363620758057</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.0015945434570312</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.0018693089485168</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="5" t="n">
+        <f aca="false">SUM(C15:E15)/COUNT(C15:E15)</f>
+        <v>0.00170007149378457</v>
+      </c>
+      <c r="G15" s="4" t="n">
         <v>0.0068293523788452</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.0057006764411926</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.005537645816803</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="5" t="n">
+        <f aca="false">SUM(G15:I15)/COUNT(G15:I15)</f>
+        <v>0.00602255821228027</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <v>0.015425872802734</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>0.014411270618439</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>0.013256870508194</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="N15" s="5" t="n">
+        <f aca="false">SUM(K15:M15)/COUNT(K15:M15)</f>
+        <v>0.014364671309789</v>
+      </c>
+      <c r="O15" s="4" t="n">
         <v>0.019928598403931</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="P15" s="4" t="n">
         <v>0.02051505724589</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <v>0.018711342811584</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <f aca="false">SUM(O15:Q15)/COUNT(O15:Q15)</f>
+        <v>0.0197183328204683</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>0.0062947154045105</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.0063360452651978</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.0067602038383484</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="5" t="n">
+        <f aca="false">SUM(C16:E16)/COUNT(C16:E16)</f>
+        <v>0.0064636548360189</v>
+      </c>
+      <c r="G16" s="4" t="n">
         <v>0.027417945861817</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.02701979637146</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.025766286849976</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="5" t="n">
+        <f aca="false">SUM(G16:I16)/COUNT(G16:I16)</f>
+        <v>0.0267346763610843</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.048534736633301</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>0.04919308423996</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>0.046975312232971</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="N16" s="5" t="n">
+        <f aca="false">SUM(K16:M16)/COUNT(K16:M16)</f>
+        <v>0.0482343777020773</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.070586326122284</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>0.086491499741872</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>0.07536677757899</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <f aca="false">SUM(O16:Q16)/COUNT(O16:Q16)</f>
+        <v>0.0774815344810487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>0.07107115983963</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>0.068565058708191</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.072012400627136</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="5" t="n">
+        <f aca="false">SUM(C17:E17)/COUNT(C17:E17)</f>
+        <v>0.0705495397249857</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <v>0.26593747138977</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.26884125232697</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.26608824968338</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="J17" s="5" t="n">
+        <f aca="false">SUM(G17:I17)/COUNT(G17:I17)</f>
+        <v>0.26695565780004</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>0.52250066995621</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>0.5441382265091</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>0.49347644805908</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="N17" s="5" t="n">
+        <f aca="false">SUM(K17:M17)/COUNT(K17:M17)</f>
+        <v>0.520038448174797</v>
+      </c>
+      <c r="O17" s="4" t="n">
         <v>0.79085032304128</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>0.79578838586807</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>0.80515870094299</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <f aca="false">SUM(O17:Q17)/COUNT(O17:Q17)</f>
+        <v>0.797265803284113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>0.54750174283981</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>0.54565908908844</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>0.5392781496048</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="5" t="n">
+        <f aca="false">SUM(C18:E18)/COUNT(C18:E18)</f>
+        <v>0.544146327177683</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>2.3400007390976</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="H18" s="4" t="n">
         <v>2.2978602719307</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>2.320175242424</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="J18" s="5" t="n">
+        <f aca="false">SUM(G18:I18)/COUNT(G18:I18)</f>
+        <v>2.31934541781743</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>4.5642453157902</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>4.6499361646175</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>4.3088773608208</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="N18" s="5" t="n">
+        <f aca="false">SUM(K18:M18)/COUNT(K18:M18)</f>
+        <v>4.5076862804095</v>
+      </c>
+      <c r="O18" s="4" t="n">
         <v>6.7723919526736</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>7.0252479306857</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>6.7403890665372</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <f aca="false">SUM(O18:Q18)/COUNT(O18:Q18)</f>
+        <v>6.8460096499655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>11.678508663177</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>9.6371009588242</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>9.661698102951</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">SUM(C19:E19)/COUNT(C19:E19)</f>
+        <v>10.3257692416507</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>44.064142446518</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>45.345670368671</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>45.287153987885</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">SUM(G19:I19)/COUNT(G19:I19)</f>
+        <v>44.898988934358</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>0.0017413854598999</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.0022881984710693</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.0019649028778076</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="5" t="n">
+        <f aca="false">SUM(C21:E21)/COUNT(C21:E21)</f>
+        <v>0.00199816226959227</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>0.0057175612449646</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.0054580068588257</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.0072121524810791</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="J21" s="5" t="n">
+        <f aca="false">SUM(G21:I21)/COUNT(G21:I21)</f>
+        <v>0.00612924019495647</v>
+      </c>
+      <c r="K21" s="4" t="n">
         <v>0.011682239770889</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.013195636272431</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>0.011768789291382</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="N21" s="5" t="n">
+        <f aca="false">SUM(K21:M21)/COUNT(K21:M21)</f>
+        <v>0.0122155551115673</v>
+      </c>
+      <c r="O21" s="4" t="n">
         <v>0.019460439682007</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <v>0.018259693781535</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <v>0.017330631415049</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <f aca="false">SUM(O21:Q21)/COUNT(O21:Q21)</f>
+        <v>0.0183502549595303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>0.0060477614402771</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.0065787434577942</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.0065038442611694</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="5" t="n">
+        <f aca="false">SUM(C22:E22)/COUNT(C22:E22)</f>
+        <v>0.00637678305308023</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0.027889678478241</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.026308827400208</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.031436080932617</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="J22" s="5" t="n">
+        <f aca="false">SUM(G22:I22)/COUNT(G22:I22)</f>
+        <v>0.0285448622703553</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>0.055970176458359</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="L22" s="4" t="n">
         <v>0.065652630329132</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>0.047767397165299</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="N22" s="5" t="n">
+        <f aca="false">SUM(K22:M22)/COUNT(K22:M22)</f>
+        <v>0.0564634013175967</v>
+      </c>
+      <c r="O22" s="4" t="n">
         <v>0.072505015532176</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="P22" s="4" t="n">
         <v>0.074697585105896</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="Q22" s="4" t="n">
         <v>0.080517635345459</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <f aca="false">SUM(O22:Q22)/COUNT(O22:Q22)</f>
+        <v>0.0759067453278437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <v>0.077894556522369</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>0.082943093776703</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.087105810642242</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="5" t="n">
+        <f aca="false">SUM(C23:E23)/COUNT(C23:E23)</f>
+        <v>0.0826478203137713</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>0.2924641919136</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.29269207715988</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="I23" s="4" t="n">
         <v>0.30437308073044</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="J23" s="5" t="n">
+        <f aca="false">SUM(G23:I23)/COUNT(G23:I23)</f>
+        <v>0.296509783267973</v>
+      </c>
+      <c r="K23" s="4" t="n">
         <v>0.61388147592545</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="L23" s="4" t="n">
         <v>0.55080269932747</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>0.54690699338913</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="N23" s="5" t="n">
+        <f aca="false">SUM(K23:M23)/COUNT(K23:M23)</f>
+        <v>0.57053038954735</v>
+      </c>
+      <c r="O23" s="4" t="n">
         <v>0.75176377932231</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="P23" s="4" t="n">
         <v>0.78768475453059</v>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="Q23" s="4" t="n">
         <v>0.84885949611664</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <f aca="false">SUM(O23:Q23)/COUNT(O23:Q23)</f>
+        <v>0.796102676656513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>0.55652589797974</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>0.57265315055847</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.55273129940033</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="5" t="n">
+        <f aca="false">SUM(C24:E24)/COUNT(C24:E24)</f>
+        <v>0.56063678264618</v>
+      </c>
+      <c r="G24" s="4" t="n">
         <v>2.2740010142327</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="H24" s="4" t="n">
         <v>2.2856835031509</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="I24" s="4" t="n">
         <v>2.2894560313225</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="J24" s="5" t="n">
+        <f aca="false">SUM(G24:I24)/COUNT(G24:I24)</f>
+        <v>2.2830468495687</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>4.6694439303875</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="L24" s="4" t="n">
         <v>4.5749511063099</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>4.5856848680973</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="N24" s="5" t="n">
+        <f aca="false">SUM(K24:M24)/COUNT(K24:M24)</f>
+        <v>4.61002663493157</v>
+      </c>
+      <c r="O24" s="4" t="n">
         <v>7.6153397981326</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="P24" s="4" t="n">
         <v>6.8482379635175</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="Q24" s="4" t="n">
         <v>6.5544489558538</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <f aca="false">SUM(O24:Q24)/COUNT(O24:Q24)</f>
+        <v>7.00600890583463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>9.9382291555405</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>9.703283393383</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>9.6119048953056</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">SUM(C25:E25)/COUNT(C25:E25)</f>
+        <v>9.75113914807637</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>44.869167962074</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>45.47093080759</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>43.973211901188</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">SUM(G25:I25)/COUNT(G25:I25)</f>
+        <v>44.7711035569507</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1185,6 +1574,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1193,39 +1583,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="15" style="1" width="11.7686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="C2" s="1" t="s">
@@ -1237,955 +1637,1228 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>0.0072529315948486</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.0072181224822998</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.011953115463257</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5" t="n">
+        <f aca="false">SUM(C3:E3)/COUNT(C3:E3)</f>
+        <v>0.00880805651346847</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.035267019271851</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.043829584121704</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.26657886505127</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="5" t="n">
+        <f aca="false">SUM(G3:I3)/COUNT(G3:I3)</f>
+        <v>0.115225156148275</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.065957403182983</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>0.063758063316345</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>0.063716888427734</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="N3" s="5" t="n">
+        <f aca="false">SUM(K3:M3)/COUNT(K3:M3)</f>
+        <v>0.064477451642354</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.10858422915141</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.11337777773539</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0.1147606531779</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <f aca="false">SUM(O3:Q3)/COUNT(O3:Q3)</f>
+        <v>0.112240886688233</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.023689985275269</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.024049997329712</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.02374792098999</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="5" t="n">
+        <f aca="false">SUM(C4:E4)/COUNT(C4:E4)</f>
+        <v>0.0238293011983237</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>0.13800163269043</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.10595703125</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.10407118797302</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="5" t="n">
+        <f aca="false">SUM(G4:I4)/COUNT(G4:I4)</f>
+        <v>0.116009950637817</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.25194811820984</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.24391353130341</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>0.21619493961334</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="N4" s="5" t="n">
+        <f aca="false">SUM(K4:M4)/COUNT(K4:M4)</f>
+        <v>0.23735219637553</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0.37704892158508</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>0.38762256304423</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>0.38960140546163</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <f aca="false">SUM(O4:Q4)/COUNT(O4:Q4)</f>
+        <v>0.384757630030313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>0.57281708717346</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.33039093017578</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.33272790908813</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="5" t="n">
+        <f aca="false">SUM(C5:E5)/COUNT(C5:E5)</f>
+        <v>0.41197864214579</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>1.8746539115906</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>1.7866715908051</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>1.6307839870453</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="5" t="n">
+        <f aca="false">SUM(G5:I5)/COUNT(G5:I5)</f>
+        <v>1.76403649648033</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>4.0690225601196</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>3.3074926376343</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="M5" s="4" t="n">
         <v>3.3108070135117</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="N5" s="5" t="n">
+        <f aca="false">SUM(K5:M5)/COUNT(K5:M5)</f>
+        <v>3.56244073708853</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>4.8273777961731</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="P5" s="4" t="n">
         <v>4.952952559789</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <v>5.1045025189718</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <f aca="false">SUM(O5:Q5)/COUNT(O5:Q5)</f>
+        <v>4.9616109583113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>2.7736988067627</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>2.4599299430847</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>2.4499311447144</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="5" t="n">
+        <f aca="false">SUM(C6:E6)/COUNT(C6:E6)</f>
+        <v>2.5611866315206</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>10.80013756752</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>10.270339775085</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>9.8035129547118</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="5" t="n">
+        <f aca="false">SUM(G6:I6)/COUNT(G6:I6)</f>
+        <v>10.2913300991056</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>22.995408773422</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>19.68551299572</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>19.79792239666</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="N6" s="5" t="n">
+        <f aca="false">SUM(K6:M6)/COUNT(K6:M6)</f>
+        <v>20.8262813886007</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>30.346943807602</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="P6" s="4" t="n">
         <v>36.315698464711</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <v>34.170119746526</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <f aca="false">SUM(O6:Q6)/COUNT(O6:Q6)</f>
+        <v>33.6109206729463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>36.395166873932</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>36.015284776688</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>35.772108078003</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
+        <f aca="false">SUM(C7:E7)/COUNT(C7:E7)</f>
+        <v>36.0608532428743</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>164.53409862518</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>162.02532038689</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>161.61526856423</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">SUM(G7:I7)/COUNT(G7:I7)</f>
+        <v>162.724895858767</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>0.047950029373169</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.044583082199097</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.044539928436279</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="5" t="n">
+        <f aca="false">SUM(C9:E9)/COUNT(C9:E9)</f>
+        <v>0.0456910133361817</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0.21065196990967</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.20160684585571</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.20028495788574</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="5" t="n">
+        <f aca="false">SUM(G9:I9)/COUNT(G9:I9)</f>
+        <v>0.204181257883707</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>0.40006971359253</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>0.42880916595459</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="M9" s="4" t="n">
         <v>0.41465699672699</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="N9" s="5" t="n">
+        <f aca="false">SUM(K9:M9)/COUNT(K9:M9)</f>
+        <v>0.414511958758037</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>0.59108333587646</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>0.61449319521586</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>0.5699603398641</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <f aca="false">SUM(O9:Q9)/COUNT(O9:Q9)</f>
+        <v>0.59184562365214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>0.089298009872437</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.087839126586914</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.091475963592529</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="5" t="n">
+        <f aca="false">SUM(C10:E10)/COUNT(C10:E10)</f>
+        <v>0.0895377000172933</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>0.41370339393616</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.36026096343994</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.35251493453979</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="5" t="n">
+        <f aca="false">SUM(G10:I10)/COUNT(G10:I10)</f>
+        <v>0.375493097305297</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>0.59704129695892</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>0.64298689365387</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>0.65656580924988</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="N10" s="5" t="n">
+        <f aca="false">SUM(K10:M10)/COUNT(K10:M10)</f>
+        <v>0.632197999954223</v>
+      </c>
+      <c r="O10" s="4" t="n">
         <v>0.91969916025798</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <v>0.9302799542745</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>0.8886040687561</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <f aca="false">SUM(O10:Q10)/COUNT(O10:Q10)</f>
+        <v>0.912861061096193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>0.46341013908386</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.42142009735107</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.42274618148804</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="5" t="n">
+        <f aca="false">SUM(C11:E11)/COUNT(C11:E11)</f>
+        <v>0.435858805974323</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>1.8653461933136</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>1.8447131156921</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>1.8550609588623</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="5" t="n">
+        <f aca="false">SUM(G11:I11)/COUNT(G11:I11)</f>
+        <v>1.85504008928933</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>3.1129492044449</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>3.1052729129791</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>3.3289674043655</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="N11" s="5" t="n">
+        <f aca="false">SUM(K11:M11)/COUNT(K11:M11)</f>
+        <v>3.18239650726317</v>
+      </c>
+      <c r="O11" s="4" t="n">
         <v>6.9738423665364</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>8.0030083497365</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>5.7749861558278</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <f aca="false">SUM(O11:Q11)/COUNT(O11:Q11)</f>
+        <v>6.9172789573669</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>3.459223985672</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>3.4055318832397</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>3.4218561649323</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="5" t="n">
+        <f aca="false">SUM(C12:E12)/COUNT(C12:E12)</f>
+        <v>3.428870677948</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>18.312743711472</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>16.547928762436</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>15.521381235123</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="5" t="n">
+        <f aca="false">SUM(G12:I12)/COUNT(G12:I12)</f>
+        <v>16.7940179030103</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>33.630316114426</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <v>32.721774148941</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>31.199522995949</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="N12" s="5" t="n">
+        <f aca="false">SUM(K12:M12)/COUNT(K12:M12)</f>
+        <v>32.517204419772</v>
+      </c>
+      <c r="O12" s="4" t="n">
         <v>46.234833796819</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <v>47.887095514933</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <v>55.29489924113</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <f aca="false">SUM(O12:Q12)/COUNT(O12:Q12)</f>
+        <v>49.8056095176273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>39.94206404686</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>39.89732003212</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>40.802585124969</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="5" t="n">
+        <f aca="false">SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>40.2139897346497</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>206.99452590943</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>208.1982372284</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>204.47934961319</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>206.557370917007</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>0.0078480243682861</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.0078988075256348</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.010045051574707</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="5" t="n">
+        <f aca="false">SUM(C15:E15)/COUNT(C15:E15)</f>
+        <v>0.00859729448954263</v>
+      </c>
+      <c r="G15" s="4" t="n">
         <v>0.050973653793335</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.030906105041504</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.029773759841919</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="5" t="n">
+        <f aca="false">SUM(G15:I15)/COUNT(G15:I15)</f>
+        <v>0.0372178395589193</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <v>0.12633295059204</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>0.11819014549255</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>0.088585734367371</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="N15" s="5" t="n">
+        <f aca="false">SUM(K15:M15)/COUNT(K15:M15)</f>
+        <v>0.11103627681732</v>
+      </c>
+      <c r="O15" s="4" t="n">
         <v>0.11665954589844</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="P15" s="4" t="n">
         <v>0.15495767593384</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <v>0.13692493438721</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <f aca="false">SUM(O15:Q15)/COUNT(O15:Q15)</f>
+        <v>0.13618071873983</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>0.028334140777588</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.027240037918091</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.031787157058716</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="5" t="n">
+        <f aca="false">SUM(C16:E16)/COUNT(C16:E16)</f>
+        <v>0.029120445251465</v>
+      </c>
+      <c r="G16" s="4" t="n">
         <v>0.12788996696472</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.13751921653747</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.1271363735199</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="5" t="n">
+        <f aca="false">SUM(G16:I16)/COUNT(G16:I16)</f>
+        <v>0.130848519007363</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.25247685909271</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>0.25813038349152</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>0.22794213294983</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="N16" s="5" t="n">
+        <f aca="false">SUM(K16:M16)/COUNT(K16:M16)</f>
+        <v>0.24618312517802</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.35138460795085</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>0.40709544817607</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>0.36049739519755</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <f aca="false">SUM(O16:Q16)/COUNT(O16:Q16)</f>
+        <v>0.372992483774823</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>0.28946495056152</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>0.29322409629822</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.29872417449951</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="5" t="n">
+        <f aca="false">SUM(C17:E17)/COUNT(C17:E17)</f>
+        <v>0.29380440711975</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <v>1.1922716140747</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>1.1498569965362</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>1.1194800376892</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="J17" s="5" t="n">
+        <f aca="false">SUM(G17:I17)/COUNT(G17:I17)</f>
+        <v>1.15386954943337</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>2.193200802803</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>2.3419580936432</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>2.0660638093948</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="N17" s="5" t="n">
+        <f aca="false">SUM(K17:M17)/COUNT(K17:M17)</f>
+        <v>2.20040756861367</v>
+      </c>
+      <c r="O17" s="4" t="n">
         <v>3.3252289930979</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>3.2887267589569</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>3.5162612597148</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <f aca="false">SUM(O17:Q17)/COUNT(O17:Q17)</f>
+        <v>3.3767390039232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>2.5863378047943</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>2.5435888767242</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>2.5681610107422</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="5" t="n">
+        <f aca="false">SUM(C18:E18)/COUNT(C18:E18)</f>
+        <v>2.56602923075357</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>11.233117055893</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="H18" s="4" t="n">
         <v>11.431131076813</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>11.202819633484</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="J18" s="5" t="n">
+        <f aca="false">SUM(G18:I18)/COUNT(G18:I18)</f>
+        <v>11.28902258873</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>25.306958389282</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>22.278060340881</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>21.07271630764</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="N18" s="5" t="n">
+        <f aca="false">SUM(K18:M18)/COUNT(K18:M18)</f>
+        <v>22.8859116792677</v>
+      </c>
+      <c r="O18" s="4" t="n">
         <v>31.822139803568</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>31.112723811467</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>31.022836780548</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <f aca="false">SUM(O18:Q18)/COUNT(O18:Q18)</f>
+        <v>31.3192334651943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>79.294433116913</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>38.984266042709</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>38.904347896576</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">SUM(C19:E19)/COUNT(C19:E19)</f>
+        <v>52.3943490187327</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>189.88638706207</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>203.97909016609</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>198.63712701798</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">SUM(G19:I19)/COUNT(G19:I19)</f>
+        <v>197.500868082047</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>0.0082938671112061</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.019883871078491</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.010454893112183</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="5" t="n">
+        <f aca="false">SUM(C21:E21)/COUNT(C21:E21)</f>
+        <v>0.0128775437672934</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>0.032240056991577</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.029556608200073</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.042261219024658</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="J21" s="5" t="n">
+        <f aca="false">SUM(G21:I21)/COUNT(G21:I21)</f>
+        <v>0.034685961405436</v>
+      </c>
+      <c r="K21" s="4" t="n">
         <v>0.07095410823822</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.07520055770874</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>0.066626048088074</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="N21" s="5" t="n">
+        <f aca="false">SUM(K21:M21)/COUNT(K21:M21)</f>
+        <v>0.0709269046783447</v>
+      </c>
+      <c r="O21" s="4" t="n">
         <v>0.11761468251546</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <v>0.11127301851908</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <v>0.10422490437826</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <f aca="false">SUM(O21:Q21)/COUNT(O21:Q21)</f>
+        <v>0.1110375351376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>0.026512145996094</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.031292915344238</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.03071403503418</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="5" t="n">
+        <f aca="false">SUM(C22:E22)/COUNT(C22:E22)</f>
+        <v>0.0295063654581707</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0.13429083824158</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.13121619224548</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.16669764518738</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="J22" s="5" t="n">
+        <f aca="false">SUM(G22:I22)/COUNT(G22:I22)</f>
+        <v>0.144068225224813</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>0.31163783073425</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="L22" s="4" t="n">
         <v>0.55145773887635</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>0.24426610469818</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="N22" s="5" t="n">
+        <f aca="false">SUM(K22:M22)/COUNT(K22:M22)</f>
+        <v>0.369120558102927</v>
+      </c>
+      <c r="O22" s="4" t="n">
         <v>0.37040146191915</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="P22" s="4" t="n">
         <v>0.35832185745239</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="Q22" s="4" t="n">
         <v>0.45862773259481</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <f aca="false">SUM(O22:Q22)/COUNT(O22:Q22)</f>
+        <v>0.395783683988783</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <v>0.36653804779053</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>0.41377687454224</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.60754418373108</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="5" t="n">
+        <f aca="false">SUM(C23:E23)/COUNT(C23:E23)</f>
+        <v>0.462619702021283</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>1.3559296131134</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="H23" s="4" t="n">
         <v>1.2252017498016</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="I23" s="4" t="n">
         <v>1.3626742362976</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="J23" s="5" t="n">
+        <f aca="false">SUM(G23:I23)/COUNT(G23:I23)</f>
+        <v>1.3146018664042</v>
+      </c>
+      <c r="K23" s="4" t="n">
         <v>2.7777417898178</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="L23" s="4" t="n">
         <v>2.4877586364746</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>2.3611316919327</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="N23" s="5" t="n">
+        <f aca="false">SUM(K23:M23)/COUNT(K23:M23)</f>
+        <v>2.54221070607503</v>
+      </c>
+      <c r="O23" s="4" t="n">
         <v>3.3741455872854</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="P23" s="4" t="n">
         <v>3.3618197441101</v>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="Q23" s="4" t="n">
         <v>3.8807011763255</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <f aca="false">SUM(O23:Q23)/COUNT(O23:Q23)</f>
+        <v>3.538888835907</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>2.5659189224243</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>2.5739328861237</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>2.5189740657806</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="5" t="n">
+        <f aca="false">SUM(C24:E24)/COUNT(C24:E24)</f>
+        <v>2.55294195810953</v>
+      </c>
+      <c r="G24" s="4" t="n">
         <v>10.921091556549</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="H24" s="4" t="n">
         <v>11.353821754456</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="I24" s="4" t="n">
         <v>11.35698094368</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="J24" s="5" t="n">
+        <f aca="false">SUM(G24:I24)/COUNT(G24:I24)</f>
+        <v>11.2106314182283</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>23.484414839744</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="L24" s="4" t="n">
         <v>22.550415802002</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>23.329129576683</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="N24" s="5" t="n">
+        <f aca="false">SUM(K24:M24)/COUNT(K24:M24)</f>
+        <v>23.1213200728097</v>
+      </c>
+      <c r="O24" s="4" t="n">
         <v>34.786128282547</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="P24" s="4" t="n">
         <v>34.930746475856</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="Q24" s="4" t="n">
         <v>31.795294602712</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <f aca="false">SUM(O24:Q24)/COUNT(O24:Q24)</f>
+        <v>33.8373897870383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>44.711110115051</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>39.505669116974</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>38.628494977951</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">SUM(C25:E25)/COUNT(C25:E25)</f>
+        <v>40.9484247366587</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>205.50356354713</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>211.71452279091</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>199.37117462158</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">SUM(G25:I25)/COUNT(G25:I25)</f>
+        <v>205.529753653207</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2194,39 +2867,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.7686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.3372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="15" style="1" width="11.7686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="C2" s="1" t="s">
@@ -2238,954 +2921,1227 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>0.028629779815674</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.030961275100708</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.042079448699951</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5" t="n">
+        <f aca="false">SUM(C3:E3)/COUNT(C3:E3)</f>
+        <v>0.033890167872111</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.11914315223694</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.13120765686035</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.36086039543152</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="5" t="n">
+        <f aca="false">SUM(G3:I3)/COUNT(G3:I3)</f>
+        <v>0.20373706817627</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.23465976715088</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>0.21987135410309</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>0.22494606971741</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="N3" s="5" t="n">
+        <f aca="false">SUM(K3:M3)/COUNT(K3:M3)</f>
+        <v>0.22649239699046</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.34130927721659</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.32714735666911</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0.3735099474589</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <f aca="false">SUM(O3:Q3)/COUNT(O3:Q3)</f>
+        <v>0.347322193781533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.10587596893311</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.10496473312378</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.10656499862671</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="5" t="n">
+        <f aca="false">SUM(C4:E4)/COUNT(C4:E4)</f>
+        <v>0.105801900227867</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>0.56591258049011</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.46849312782288</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.4672080039978</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="5" t="n">
+        <f aca="false">SUM(G4:I4)/COUNT(G4:I4)</f>
+        <v>0.500537904103597</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>1.0429578781128</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.99165358543396</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>0.9667729139328</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="N4" s="5" t="n">
+        <f aca="false">SUM(K4:M4)/COUNT(K4:M4)</f>
+        <v>1.00046145915985</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>1.5198519865672</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>1.5735551993052</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>1.5462844371796</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <f aca="false">SUM(O4:Q4)/COUNT(O4:Q4)</f>
+        <v>1.54656387435067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>1.9354889392853</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>1.6025388240814</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>1.6316089630127</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="5" t="n">
+        <f aca="false">SUM(C5:E5)/COUNT(C5:E5)</f>
+        <v>1.72321224212647</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>8.4486344337463</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>8.0727665901184</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>7.8109163761139</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="5" t="n">
+        <f aca="false">SUM(G5:I5)/COUNT(G5:I5)</f>
+        <v>8.11077246665953</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>16.608856797218</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>15.853037071228</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="M5" s="4" t="n">
         <v>15.812289643288</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="N5" s="5" t="n">
+        <f aca="false">SUM(K5:M5)/COUNT(K5:M5)</f>
+        <v>16.0913945039113</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>23.235068480174</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="P5" s="4" t="n">
         <v>23.68296734492</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <v>24.037721633911</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <f aca="false">SUM(O5:Q5)/COUNT(O5:Q5)</f>
+        <v>23.6519191530017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>10.815920114517</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>10.151566982269</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>10.52633190155</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="5" t="n">
+        <f aca="false">SUM(C6:E6)/COUNT(C6:E6)</f>
+        <v>10.497939666112</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>46.839616250992</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>46.537710428238</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>45.200466632843</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="5" t="n">
+        <f aca="false">SUM(G6:I6)/COUNT(G6:I6)</f>
+        <v>46.192597770691</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>94.478088951111</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="L6" s="4" t="n">
         <v>91.61676094532</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>90.819481873512</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="N6" s="5" t="n">
+        <f aca="false">SUM(K6:M6)/COUNT(K6:M6)</f>
+        <v>92.3047772566477</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>141.95227198601</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="P6" s="4" t="n">
         <v>148.76990895271</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <v>145.29906965892</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <f aca="false">SUM(O6:Q6)/COUNT(O6:Q6)</f>
+        <v>145.34041686588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>178.74467277527</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>177.81628751755</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>176.49444913864</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
+        <f aca="false">SUM(C7:E7)/COUNT(C7:E7)</f>
+        <v>177.685136477153</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>799.79248104095</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>783.20202469826</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>786.6127137661</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">SUM(G7:I7)/COUNT(G7:I7)</f>
+        <v>789.869073168437</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>0.22185468673706</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.20907807350159</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.21458792686462</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="5" t="n">
+        <f aca="false">SUM(C9:E9)/COUNT(C9:E9)</f>
+        <v>0.215173562367757</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0.97767701148987</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.94282741546631</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.93055596351623</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="5" t="n">
+        <f aca="false">SUM(G9:I9)/COUNT(G9:I9)</f>
+        <v>0.950353463490804</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>1.891145157814</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>1.9370869636536</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="M9" s="4" t="n">
         <v>1.9747530460358</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="N9" s="5" t="n">
+        <f aca="false">SUM(K9:M9)/COUNT(K9:M9)</f>
+        <v>1.9343283891678</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>2.7818928718567</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>2.893475484848</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>2.7256601333618</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <f aca="false">SUM(O9:Q9)/COUNT(O9:Q9)</f>
+        <v>2.80034283002217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>0.40995502471924</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.39283728599548</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.39682698249817</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="5" t="n">
+        <f aca="false">SUM(C10:E10)/COUNT(C10:E10)</f>
+        <v>0.39987309773763</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>1.6479570388794</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>1.6004824638367</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>1.6051327705383</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="5" t="n">
+        <f aca="false">SUM(G10:I10)/COUNT(G10:I10)</f>
+        <v>1.61785742441813</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>2.7617025613785</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="L10" s="4" t="n">
         <v>2.9560615301132</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>2.9733292579651</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="N10" s="5" t="n">
+        <f aca="false">SUM(K10:M10)/COUNT(K10:M10)</f>
+        <v>2.8970311164856</v>
+      </c>
+      <c r="O10" s="4" t="n">
         <v>4.2838337580363</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <v>4.2386603037516</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>4.0889787038167</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <f aca="false">SUM(O10:Q10)/COUNT(O10:Q10)</f>
+        <v>4.20382425520153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>2.0703840255737</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>2.0268149375916</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>2.0209851264954</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="5" t="n">
+        <f aca="false">SUM(C11:E11)/COUNT(C11:E11)</f>
+        <v>2.03939469655357</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>8.5400120258332</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>8.439152097702</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>8.1465940475464</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="5" t="n">
+        <f aca="false">SUM(G11:I11)/COUNT(G11:I11)</f>
+        <v>8.37525272369387</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>14.762718939781</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="L11" s="4" t="n">
         <v>14.870445537567</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>15.205537366867</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="N11" s="5" t="n">
+        <f aca="false">SUM(K11:M11)/COUNT(K11:M11)</f>
+        <v>14.9462339480717</v>
+      </c>
+      <c r="O11" s="4" t="n">
         <v>24.769616905848</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>28.885481532415</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>25.00929552714</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <f aca="false">SUM(O11:Q11)/COUNT(O11:Q11)</f>
+        <v>26.2214646551343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>15.370904922485</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>15.254776477814</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>15.431421518326</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="5" t="n">
+        <f aca="false">SUM(C12:E12)/COUNT(C12:E12)</f>
+        <v>15.3523676395417</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>69.287546443939</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>66.875515508652</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>65.654521226883</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="5" t="n">
+        <f aca="false">SUM(G12:I12)/COUNT(G12:I12)</f>
+        <v>67.2725277264913</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>130.80681226253</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="L12" s="4" t="n">
         <v>128.61427559853</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>125.05584299564</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="N12" s="5" t="n">
+        <f aca="false">SUM(K12:M12)/COUNT(K12:M12)</f>
+        <v>128.158976952233</v>
+      </c>
+      <c r="O12" s="4" t="n">
         <v>193.20526623726</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="P12" s="4" t="n">
         <v>205.94690306981</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="Q12" s="4" t="n">
         <v>198.56210192045</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <f aca="false">SUM(O12:Q12)/COUNT(O12:Q12)</f>
+        <v>199.238090409173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>195.56456232071</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>196.48565506935</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>198.2079539299</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="5" t="n">
+        <f aca="false">SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>196.75272377332</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>931.96770839691</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>905.40265221596</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>894.8826710701</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>910.75101056099</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>0.032727241516113</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.031890869140625</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.037386178970337</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="5" t="n">
+        <f aca="false">SUM(C15:E15)/COUNT(C15:E15)</f>
+        <v>0.0340014298756917</v>
+      </c>
+      <c r="G15" s="4" t="n">
         <v>0.1365870475769</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.11401352882385</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.11075291633606</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="5" t="n">
+        <f aca="false">SUM(G15:I15)/COUNT(G15:I15)</f>
+        <v>0.120451164245603</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <v>0.30851745605469</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="L15" s="4" t="n">
         <v>0.28822541236877</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>0.26513741016388</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="N15" s="5" t="n">
+        <f aca="false">SUM(K15:M15)/COUNT(K15:M15)</f>
+        <v>0.28729342619578</v>
+      </c>
+      <c r="O15" s="4" t="n">
         <v>0.39857196807861</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="P15" s="4" t="n">
         <v>0.41030114491781</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="Q15" s="4" t="n">
         <v>0.37422685623169</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <f aca="false">SUM(O15:Q15)/COUNT(O15:Q15)</f>
+        <v>0.39436665640937</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>0.12589430809021</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.12672090530396</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.13520407676697</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="5" t="n">
+        <f aca="false">SUM(C16:E16)/COUNT(C16:E16)</f>
+        <v>0.12927309672038</v>
+      </c>
+      <c r="G16" s="4" t="n">
         <v>0.54835891723633</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.5403959274292</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.51532573699951</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="5" t="n">
+        <f aca="false">SUM(G16:I16)/COUNT(G16:I16)</f>
+        <v>0.53469352722168</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.97069473266602</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="L16" s="4" t="n">
         <v>0.98386168479919</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>0.93950624465943</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="N16" s="5" t="n">
+        <f aca="false">SUM(K16:M16)/COUNT(K16:M16)</f>
+        <v>0.964687554041547</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>1.4117265224457</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>1.7298299948374</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>1.5073355515798</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <f aca="false">SUM(O16:Q16)/COUNT(O16:Q16)</f>
+        <v>1.54963068962097</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>1.4214231967926</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>1.3713011741638</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>1.4402480125427</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="5" t="n">
+        <f aca="false">SUM(C17:E17)/COUNT(C17:E17)</f>
+        <v>1.4109907944997</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <v>5.3187494277954</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>5.3768250465393</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>5.3217649936676</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="J17" s="5" t="n">
+        <f aca="false">SUM(G17:I17)/COUNT(G17:I17)</f>
+        <v>5.33911315600077</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>10.450013399124</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="L17" s="4" t="n">
         <v>10.882764530182</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>9.8695289611816</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="N17" s="5" t="n">
+        <f aca="false">SUM(K17:M17)/COUNT(K17:M17)</f>
+        <v>10.4007689634959</v>
+      </c>
+      <c r="O17" s="4" t="n">
         <v>15.817006460826</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>15.915767717361</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>16.10317401886</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <f aca="false">SUM(O17:Q17)/COUNT(O17:Q17)</f>
+        <v>15.9453160656823</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>10.950034856796</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>10.913181781769</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>10.785562992096</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="5" t="n">
+        <f aca="false">SUM(C18:E18)/COUNT(C18:E18)</f>
+        <v>10.8829265435537</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>46.800014781952</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="H18" s="4" t="n">
         <v>45.957205438614</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>46.40350484848</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="J18" s="5" t="n">
+        <f aca="false">SUM(G18:I18)/COUNT(G18:I18)</f>
+        <v>46.3869083563487</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>91.284906315804</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>92.998723292351</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>86.177547216415</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="N18" s="5" t="n">
+        <f aca="false">SUM(K18:M18)/COUNT(K18:M18)</f>
+        <v>90.15372560819</v>
+      </c>
+      <c r="O18" s="4" t="n">
         <v>135.44783905347</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>140.50495861371</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>134.80778133074</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <f aca="false">SUM(O18:Q18)/COUNT(O18:Q18)</f>
+        <v>136.920192999307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>233.57017326355</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>192.74201917648</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>193.23396205902</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">SUM(C19:E19)/COUNT(C19:E19)</f>
+        <v>206.515384833017</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>881.28284893036</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>906.91340737343</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>905.74307975769</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">SUM(G19:I19)/COUNT(G19:I19)</f>
+        <v>897.97977868716</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>0.034827709197998</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.045763969421387</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.039298057556152</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="5" t="n">
+        <f aca="false">SUM(C21:E21)/COUNT(C21:E21)</f>
+        <v>0.0399632453918457</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>0.11435122489929</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.10916013717651</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.14424304962158</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="J21" s="5" t="n">
+        <f aca="false">SUM(G21:I21)/COUNT(G21:I21)</f>
+        <v>0.122584803899127</v>
+      </c>
+      <c r="K21" s="4" t="n">
         <v>0.23364479541778</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.26391272544861</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>0.23537578582764</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="N21" s="5" t="n">
+        <f aca="false">SUM(K21:M21)/COUNT(K21:M21)</f>
+        <v>0.244311102231343</v>
+      </c>
+      <c r="O21" s="4" t="n">
         <v>0.38920879364014</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <v>0.3651938756307</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <v>0.34661262830099</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <f aca="false">SUM(O21:Q21)/COUNT(O21:Q21)</f>
+        <v>0.36700509919061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>0.12095522880554</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.13157486915588</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.13007688522339</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="5" t="n">
+        <f aca="false">SUM(C22:E22)/COUNT(C22:E22)</f>
+        <v>0.127535661061603</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0.55779356956482</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.52617654800415</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.62872161865235</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="J22" s="5" t="n">
+        <f aca="false">SUM(G22:I22)/COUNT(G22:I22)</f>
+        <v>0.570897245407107</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>1.1194035291672</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="L22" s="4" t="n">
         <v>1.3130526065826</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>0.95534794330597</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="N22" s="5" t="n">
+        <f aca="false">SUM(K22:M22)/COUNT(K22:M22)</f>
+        <v>1.12926802635192</v>
+      </c>
+      <c r="O22" s="4" t="n">
         <v>1.4501003106435</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="P22" s="4" t="n">
         <v>1.4939517021179</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="Q22" s="4" t="n">
         <v>1.6103527069092</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <f aca="false">SUM(O22:Q22)/COUNT(O22:Q22)</f>
+        <v>1.51813490655687</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <v>1.5578911304474</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>1.6588618755341</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>1.7421162128448</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="5" t="n">
+        <f aca="false">SUM(C23:E23)/COUNT(C23:E23)</f>
+        <v>1.65295640627543</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>5.8492838382721</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="H23" s="4" t="n">
         <v>5.8538415431976</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="I23" s="4" t="n">
         <v>6.0874616146088</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="J23" s="5" t="n">
+        <f aca="false">SUM(G23:I23)/COUNT(G23:I23)</f>
+        <v>5.9301956653595</v>
+      </c>
+      <c r="K23" s="4" t="n">
         <v>12.277629518509</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="L23" s="4" t="n">
         <v>11.016053986549</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>10.938139867782</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="N23" s="5" t="n">
+        <f aca="false">SUM(K23:M23)/COUNT(K23:M23)</f>
+        <v>11.4106077909467</v>
+      </c>
+      <c r="O23" s="4" t="n">
         <v>15.035275586446</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="P23" s="4" t="n">
         <v>15.753695090612</v>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="Q23" s="4" t="n">
         <v>16.977189922333</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <f aca="false">SUM(O23:Q23)/COUNT(O23:Q23)</f>
+        <v>15.9220535331303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>11.130517959595</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>11.453063011169</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>11.054625988007</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="5" t="n">
+        <f aca="false">SUM(C24:E24)/COUNT(C24:E24)</f>
+        <v>11.2127356529237</v>
+      </c>
+      <c r="G24" s="4" t="n">
         <v>45.480020284653</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="H24" s="4" t="n">
         <v>45.713670063019</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="I24" s="4" t="n">
         <v>45.78912062645</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="J24" s="5" t="n">
+        <f aca="false">SUM(G24:I24)/COUNT(G24:I24)</f>
+        <v>45.660936991374</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>93.38887860775</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="L24" s="4" t="n">
         <v>91.499022126198</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>91.713697361946</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="N24" s="5" t="n">
+        <f aca="false">SUM(K24:M24)/COUNT(K24:M24)</f>
+        <v>92.2005326986313</v>
+      </c>
+      <c r="O24" s="4" t="n">
         <v>152.30679596265</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="P24" s="4" t="n">
         <v>136.96475927035</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="Q24" s="4" t="n">
         <v>131.08897911708</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <f aca="false">SUM(O24:Q24)/COUNT(O24:Q24)</f>
+        <v>140.120178116693</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>198.76458311081</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>194.06566786766</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>192.23809790611</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">SUM(C25:E25)/COUNT(C25:E25)</f>
+        <v>195.022782961527</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>897.38335924149</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>909.41861615181</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>879.46423802376</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">SUM(G25:I25)/COUNT(G25:I25)</f>
+        <v>895.42207113902</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -141,18 +141,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,11 +497,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88584576"/>
-        <c:axId val="62563456"/>
+        <c:axId val="62713856"/>
+        <c:axId val="62716160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88584576"/>
+        <c:axId val="62713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,14 +525,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62563456"/>
+        <c:crossAx val="62716160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62563456"/>
+        <c:axId val="62716160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +558,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88584576"/>
+        <c:crossAx val="62713856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,7 +571,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,11 +847,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90294144"/>
-        <c:axId val="90300416"/>
+        <c:axId val="66392448"/>
+        <c:axId val="66394368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90294144"/>
+        <c:axId val="66392448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,14 +875,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90300416"/>
+        <c:crossAx val="66394368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90300416"/>
+        <c:axId val="66394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +908,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90294144"/>
+        <c:crossAx val="66392448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,7 +921,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1205,11 +1205,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92039424"/>
-        <c:axId val="92057984"/>
+        <c:axId val="67572096"/>
+        <c:axId val="67574016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92039424"/>
+        <c:axId val="67572096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,14 +1233,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92057984"/>
+        <c:crossAx val="67574016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92057984"/>
+        <c:axId val="67574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92039424"/>
+        <c:crossAx val="67572096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1563,11 +1563,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92090368"/>
-        <c:axId val="92092288"/>
+        <c:axId val="67617536"/>
+        <c:axId val="67619456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92090368"/>
+        <c:axId val="67617536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1591,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92092288"/>
+        <c:crossAx val="67619456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92092288"/>
+        <c:axId val="67619456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1624,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92090368"/>
+        <c:crossAx val="67617536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +1637,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1872,11 +1872,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92157056"/>
-        <c:axId val="92158976"/>
+        <c:axId val="67658880"/>
+        <c:axId val="67660800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92157056"/>
+        <c:axId val="67658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,14 +1900,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92158976"/>
+        <c:crossAx val="67660800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92158976"/>
+        <c:axId val="67660800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1933,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92157056"/>
+        <c:crossAx val="67658880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,7 +1946,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2181,11 +2181,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92202496"/>
-        <c:axId val="92204416"/>
+        <c:axId val="68040192"/>
+        <c:axId val="68042112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92202496"/>
+        <c:axId val="68040192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,14 +2209,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92204416"/>
+        <c:crossAx val="68042112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92204416"/>
+        <c:axId val="68042112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92202496"/>
+        <c:crossAx val="68040192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,7 +2255,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2478,11 +2478,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96782208"/>
-        <c:axId val="96788480"/>
+        <c:axId val="68085632"/>
+        <c:axId val="67964928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96782208"/>
+        <c:axId val="68085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,14 +2506,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96788480"/>
+        <c:crossAx val="67964928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96788480"/>
+        <c:axId val="67964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2539,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96782208"/>
+        <c:crossAx val="68085632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2552,7 +2552,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2775,11 +2775,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97085696"/>
-        <c:axId val="97096064"/>
+        <c:axId val="67991808"/>
+        <c:axId val="68010368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97085696"/>
+        <c:axId val="67991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,14 +2803,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97096064"/>
+        <c:crossAx val="68010368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97096064"/>
+        <c:axId val="68010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2836,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97085696"/>
+        <c:crossAx val="67991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,7 +2849,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3125,11 +3125,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142224000"/>
-        <c:axId val="142238464"/>
+        <c:axId val="68381696"/>
+        <c:axId val="68416640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142224000"/>
+        <c:axId val="68381696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3153,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142238464"/>
+        <c:crossAx val="68416640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142238464"/>
+        <c:axId val="68416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3186,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142224000"/>
+        <c:crossAx val="68381696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,7 +3199,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3475,11 +3475,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91491328"/>
-        <c:axId val="91501696"/>
+        <c:axId val="68435328"/>
+        <c:axId val="68457984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91491328"/>
+        <c:axId val="68435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,14 +3503,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91501696"/>
+        <c:crossAx val="68457984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91501696"/>
+        <c:axId val="68457984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3536,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91491328"/>
+        <c:crossAx val="68435328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3549,7 +3549,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3833,11 +3833,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91553152"/>
-        <c:axId val="110142976"/>
+        <c:axId val="68497408"/>
+        <c:axId val="68499328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91553152"/>
+        <c:axId val="68497408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,14 +3861,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110142976"/>
+        <c:crossAx val="68499328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110142976"/>
+        <c:axId val="68499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3894,7 +3894,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91553152"/>
+        <c:crossAx val="68497408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3907,7 +3907,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4183,11 +4183,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99035008"/>
-        <c:axId val="99037184"/>
+        <c:axId val="64553728"/>
+        <c:axId val="64555648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99035008"/>
+        <c:axId val="64553728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,14 +4211,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99037184"/>
+        <c:crossAx val="64555648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99037184"/>
+        <c:axId val="64555648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4244,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99035008"/>
+        <c:crossAx val="64553728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4257,7 +4257,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4541,11 +4541,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97046528"/>
-        <c:axId val="97048448"/>
+        <c:axId val="69599616"/>
+        <c:axId val="69601536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97046528"/>
+        <c:axId val="69599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,14 +4569,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97048448"/>
+        <c:crossAx val="69601536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97048448"/>
+        <c:axId val="69601536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4602,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97046528"/>
+        <c:crossAx val="69599616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4615,7 +4615,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4850,11 +4850,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97018624"/>
-        <c:axId val="97020544"/>
+        <c:axId val="69641344"/>
+        <c:axId val="69643264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97018624"/>
+        <c:axId val="69641344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,14 +4878,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97020544"/>
+        <c:crossAx val="69643264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97020544"/>
+        <c:axId val="69643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4911,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97018624"/>
+        <c:crossAx val="69641344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4924,7 +4924,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4961,7 +4961,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Máximas!$A$3</c:f>
+              <c:f>Totais!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4995,24 +4995,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Máximas!$J$3:$J$7</c:f>
+              <c:f>Totais!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.115225156148275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11600995063781666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7640364964803332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.2913300991056</c:v>
+                  <c:v>0.20373706817627002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50053790410359666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1107724666595331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.192597770691009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162.72489585876667</c:v>
+                  <c:v>789.86907316843656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5023,7 +5023,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Máximas!$A$9</c:f>
+              <c:f>Totais!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5057,24 +5057,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Máximas!$J$9:$J$13</c:f>
+              <c:f>Totais!$J$9:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20418125788370667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37549309730529662</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8550400892893333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.794017903010332</c:v>
+                  <c:v>0.9503534634908033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6178574244181334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3752527236938672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.272527726491333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.55737091700666</c:v>
+                  <c:v>910.75101056098993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,7 +5085,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Máximas!$A$15:$A$16</c:f>
+              <c:f>Totais!$A$15:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5096,24 +5096,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Máximas!$J$15:$J$19</c:f>
+              <c:f>Totais!$J$15:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7217839558919337E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13084851900736336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1538695494333668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.289022588729999</c:v>
+                  <c:v>0.12045116424560333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53469352722167995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3391131560007663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.38690835634867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197.50086808204665</c:v>
+                  <c:v>897.97977868715998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,7 +5124,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Máximas!$A$21:$A$22</c:f>
+              <c:f>Totais!$A$21:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5135,35 +5135,35 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Máximas!$J$21:$J$25</c:f>
+              <c:f>Totais!$J$21:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4685961405435999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14406822522481336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3146018664041998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.210631418228333</c:v>
+                  <c:v>0.12258480389912667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57089724540710662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9301956653594994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.660936991374001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.52975365320665</c:v>
+                  <c:v>895.42207113901998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96830592"/>
-        <c:axId val="96832512"/>
+        <c:axId val="69703168"/>
+        <c:axId val="69705088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96830592"/>
+        <c:axId val="69703168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,14 +5187,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96832512"/>
+        <c:crossAx val="69705088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96832512"/>
+        <c:axId val="69705088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5220,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96830592"/>
+        <c:crossAx val="69703168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5233,7 +5233,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5456,11 +5456,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100828672"/>
-        <c:axId val="100830592"/>
+        <c:axId val="69748608"/>
+        <c:axId val="69763072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100828672"/>
+        <c:axId val="69748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,14 +5484,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100830592"/>
+        <c:crossAx val="69763072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100830592"/>
+        <c:axId val="69763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5517,7 +5517,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100828672"/>
+        <c:crossAx val="69748608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5530,7 +5530,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5753,11 +5753,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100874112"/>
-        <c:axId val="100880384"/>
+        <c:axId val="69798144"/>
+        <c:axId val="69804416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100874112"/>
+        <c:axId val="69798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5781,14 +5781,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100880384"/>
+        <c:crossAx val="69804416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100880384"/>
+        <c:axId val="69804416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5814,7 +5814,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100874112"/>
+        <c:crossAx val="69798144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5827,7 +5827,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6111,11 +6111,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78846592"/>
-        <c:axId val="78877440"/>
+        <c:axId val="65668224"/>
+        <c:axId val="65670144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78846592"/>
+        <c:axId val="65668224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6139,14 +6139,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78877440"/>
+        <c:crossAx val="65670144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78877440"/>
+        <c:axId val="65670144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6172,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78846592"/>
+        <c:crossAx val="65668224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6185,7 +6185,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6469,11 +6469,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78888320"/>
-        <c:axId val="78902784"/>
+        <c:axId val="65713664"/>
+        <c:axId val="65715584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78888320"/>
+        <c:axId val="65713664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,14 +6497,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78902784"/>
+        <c:crossAx val="65715584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78902784"/>
+        <c:axId val="65715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6530,7 +6530,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78888320"/>
+        <c:crossAx val="65713664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6543,7 +6543,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6778,11 +6778,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78296192"/>
-        <c:axId val="78298112"/>
+        <c:axId val="65759488"/>
+        <c:axId val="65765760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78296192"/>
+        <c:axId val="65759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,14 +6806,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78298112"/>
+        <c:crossAx val="65765760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78298112"/>
+        <c:axId val="65765760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +6839,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78296192"/>
+        <c:crossAx val="65759488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6852,7 +6852,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7087,11 +7087,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80028032"/>
-        <c:axId val="80052608"/>
+        <c:axId val="65940096"/>
+        <c:axId val="65954560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80028032"/>
+        <c:axId val="65940096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7115,14 +7115,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80052608"/>
+        <c:crossAx val="65954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80052608"/>
+        <c:axId val="65954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7148,7 +7148,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80028032"/>
+        <c:crossAx val="65940096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,7 +7161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7384,11 +7384,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79047680"/>
-        <c:axId val="79058048"/>
+        <c:axId val="65981440"/>
+        <c:axId val="65991808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79047680"/>
+        <c:axId val="65981440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7412,14 +7412,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79058048"/>
+        <c:crossAx val="65991808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79058048"/>
+        <c:axId val="65991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7445,7 +7445,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79047680"/>
+        <c:crossAx val="65981440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7458,7 +7458,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7681,11 +7681,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89925888"/>
-        <c:axId val="79790464"/>
+        <c:axId val="65895808"/>
+        <c:axId val="65926656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89925888"/>
+        <c:axId val="65895808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,14 +7709,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79790464"/>
+        <c:crossAx val="65926656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79790464"/>
+        <c:axId val="65926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7742,7 +7742,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89925888"/>
+        <c:crossAx val="65895808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7755,7 +7755,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8031,11 +8031,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62571264"/>
-        <c:axId val="62573184"/>
+        <c:axId val="66473984"/>
+        <c:axId val="66475904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62571264"/>
+        <c:axId val="66473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,14 +8059,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62573184"/>
+        <c:crossAx val="66475904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62573184"/>
+        <c:axId val="66475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8092,7 +8092,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62571264"/>
+        <c:crossAx val="66473984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8105,7 +8105,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9133,1265 +9133,1265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2"/>
-    <col min="3" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="9" width="11.7109375" style="2"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="13" width="11.7109375" style="2"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="17" width="11.7109375" style="2"/>
-    <col min="18" max="18" width="11.7109375" style="3"/>
-    <col min="19" max="257" width="11.7109375" style="2"/>
+    <col min="1" max="1" width="14.5703125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1"/>
+    <col min="3" max="5" width="11.7109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="11.7109375" style="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="13" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="17" width="11.7109375" style="1"/>
+    <col min="18" max="18" width="11.7109375" style="2"/>
+    <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.4314889907836999E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.5480637550354E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.1039724349976E-3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>1.6945083936055667E-3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5.9571576118468998E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>6.5603828430176002E-3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>1.8043019771576001E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>1.0186853408813501E-2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1.1732988357543999E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>1.0993567705154E-2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>1.1247303485870001E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>1.1324619849522669E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>1.706546386083E-2</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>1.6357367833455001E-2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>1.8675497372945001E-2</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>1.7366109689076668E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.2937984466553002E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>5.2482366561889997E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5.3282499313353996E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>5.2900950113932326E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2.8295629024505001E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.3424656391144001E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>2.336040019989E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>2.5026895205179669E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>5.2147893905640001E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>4.9582679271698002E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>4.8338645696640002E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>5.0023072957992666E-2</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>7.5992599328359001E-2</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>7.8677759965260996E-2</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>7.7314221858978002E-2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>7.7328193717532676E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>9.6774446964264002E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8.0126941204071003E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8.1580448150635004E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>8.616061210632335E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.42243172168731002</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.40363832950591999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.3905458188057</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>0.40553862333297669</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.83044283986092005</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.7926518535614</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>0.79061448216438002</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>0.80456972519556669</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>1.1617534240087</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>1.184148367246</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>1.2018860816956001</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>1.1825959576500999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:18">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.54079600572585995</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.50757834911346</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.52631659507751005</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>0.52489698330560997</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>2.3419808125496</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.3268855214119002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>2.2600233316420999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>2.3096298885345332</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>4.7239044475555003</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>4.580838047266</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>4.5409740936756</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>4.6152388628323671</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>7.0976135993004004</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>7.4384954476356997</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>7.2649534829458</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>7.2670208432939667</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:18">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>8.9372336387634004</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>8.8908143758773992</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8.8247224569321006</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>8.8842568238576334</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>39.989624052048001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>39.160101234913</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>39.330635688305001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>39.493453658421998</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1.1092734336853E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.0453903675079E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1.0729396343231E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>1.0758678118387667E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>4.8883850574494001E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>4.7141370773316003E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>4.6527798175811999E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>4.7517673174540663E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>9.4557257890701005E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>9.6854348182678004E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>9.8737652301788006E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>9.6716419458389005E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.13909464359283</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.14467377424239999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>0.13628300666809001</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>0.14001714150110667</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2.0497751235962001E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1.9641864299773999E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.9841349124907998E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>1.9993654886881332E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>8.2397851943969994E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>8.0024123191833996E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>8.0256638526917001E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>8.0892871220906992E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.13808512806892001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.14780307650565999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.14866646289825</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.14485155582427667</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.21419168790181001</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>0.21193301518758001</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>0.20444893519084001</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>0.21019121276007668</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:18">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.10351920127869001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.10134074687958</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.10104925632477001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.10196973482768001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.42700060129166001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.42195760488509998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.40732970237732002</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>0.41876263618469328</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.73813594698906004</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.74352227687836003</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.76027686834334995</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>0.74731169740358994</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>1.2384808452924001</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>1.4442740766207001</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>1.250464776357</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>1.3110732327567001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.76854524612427</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.76273882389069003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.77157107591629004</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>0.76761838197708332</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3.464377322197</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>3.3437757754325999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>3.2827260613442002</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>3.3636263863245994</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>6.5403406131267996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>6.4307137799263003</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>6.2527921497822003</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>6.4079488476117668</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>9.6602633118629999</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>10.297345153490999</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>9.9281050960222998</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>9.9619045204587664</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.75">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9.7782281160354998</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>9.8242827534675996</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>9.9103976964950995</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>9.8376361886660657</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>46.598385419845997</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>45.270132610798001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>44.744133553505002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>45.537550528049671</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
+    <row r="14" spans="1:18">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1.6363620758057E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1.5945434570311999E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1.8693089485167999E-3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>1.7000714937845665E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>6.8293523788452003E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>5.7006764411925998E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>5.5376458168030001E-3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>6.0225582122802671E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>1.5425872802733999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>1.4411270618439E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>1.3256870508193999E-2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>1.4364671309789001E-2</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>1.9928598403930999E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>2.0515057245889999E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>1.8711342811584E-2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>1.9718332820468334E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>6.2947154045105E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>6.3360452651977997E-3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>6.7602038383483996E-3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>6.4636548360189E-3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>2.7417945861816999E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>2.701979637146E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>2.5766286849975999E-2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>2.6734676361084331E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>4.8534736633300997E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>4.9193084239960001E-2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>4.6975312232971002E-2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>4.8234377702077336E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>7.0586326122283993E-2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>8.6491499741871994E-2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>7.5366777578990005E-2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>7.7481534481048664E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:18">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>7.1071159839629999E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>6.8565058708191004E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>7.2012400627136E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>7.0549539724985663E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.26593747138976997</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.26884125232696998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.26608824968338002</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>0.26695565780003999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.52250066995621003</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.54413822650910004</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.49347644805907998</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>0.52003844817479672</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.79085032304128</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>0.79578838586806999</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>0.80515870094299002</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>0.79726580328411334</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:18">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0.54750174283981001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.54565908908843996</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.53927814960480003</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>0.5441463271776833</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>2.3400007390975999</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>2.2978602719307002</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>2.3201752424239999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>2.3193454178174333</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>4.5642453157901999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>4.6499361646175004</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>4.3088773608207998</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>4.5076862804094997</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>6.7723919526736003</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>7.0252479306857003</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.7403890665372002</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>6.8460096499654997</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12.75">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:18">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>11.678508663177</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>9.6371009588242007</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>9.6616981029510001</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>10.325769241650734</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>44.064142446517998</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>45.345670368671001</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>45.287153987884999</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>44.898988934357995</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
+    <row r="20" spans="1:18">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1.7413854598999001E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2.2881984710692999E-3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1.9649028778076002E-3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.9981622695922669E-3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>5.7175612449646002E-3</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>5.4580068588257003E-3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>7.2121524810790996E-3</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>6.1292401949564661E-3</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>1.1682239770889001E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>1.3195636272431E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>1.1768789291382E-2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>1.2215555111567333E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>1.9460439682006999E-2</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>1.8259693781535E-2</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>1.7330631415049001E-2</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>1.8350254959530334E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>6.0477614402771E-3</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6.5787434577941999E-3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>6.5038442611694003E-3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>6.3767830530802342E-3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>2.7889678478241E-2</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2.6308827400207999E-2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>3.1436080932617003E-2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>2.8544862270355336E-2</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>5.5970176458359E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>6.5652630329132003E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>4.7767397165299E-2</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>5.6463401317596668E-2</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>7.2505015532176004E-2</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>7.4697585105895997E-2</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>8.0517635345458999E-2</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>7.5906745327843667E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12.75">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:18">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>7.7894556522368999E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>8.2943093776703003E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>8.7105810642242001E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>8.2647820313771325E-2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.29246419191360001</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.29269207715987999</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.30437308073044</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>0.29650978326797334</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.61388147592544995</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.55080269932746995</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>0.54690699338912996</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>0.57053038954735003</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>0.75176377932230998</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>0.78768475453058995</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>0.84885949611664002</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>0.79610267665651335</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12.75">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:18">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.55652589797973995</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0.57265315055846999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.55273129940032995</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>0.56063678264618</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>2.2740010142327001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>2.2856835031509002</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>2.2894560313225001</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>2.2830468495687</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>4.6694439303874997</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>4.5749511063099</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>4.5856848680973004</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>4.6100266349315673</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>7.6153397981325996</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>6.8482379635174997</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>6.5544489558538004</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>7.0060089058346335</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12.75">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:18">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>9.9382291555404993</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>9.7032833933829998</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>9.6119048953055994</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>9.7511391480763674</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>44.869167962074002</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>45.470930807590001</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>43.973211901188002</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>44.771103556950663</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="12.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:18">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:18">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10416,1263 +10416,1263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2"/>
-    <col min="3" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="9" width="11.7109375" style="2"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="13" width="11.7109375" style="2"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="257" width="11.7109375" style="2"/>
+    <col min="1" max="1" width="14.5703125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1"/>
+    <col min="3" max="5" width="11.7109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="11.7109375" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="13" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>7.2529315948485999E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>7.2181224822998004E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1.1953115463257001E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>8.8080565134684655E-3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3.5267019271850997E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>4.3829584121703999E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.26657886505126999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.115225156148275</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>6.5957403182983002E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>6.3758063316344996E-2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>6.3716888427734E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>6.4477451642354008E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.10858422915141</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0.11337777773539</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>0.1147606531779</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>0.11224088668823334</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2.3689985275268999E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.4049997329712001E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2.3747920989989998E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>2.3829301198323664E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.13800163269043</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.10595703125</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.10407118797301999</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.11600995063781666</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>0.25194811820983998</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>0.24391353130341001</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>0.21619493961333999</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>0.23735219637552998</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.37704892158508002</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.38762256304422998</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>0.38960140546163002</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>0.38475763003031332</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.57281708717346003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.33039093017577997</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.33272790908812999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>0.41197864214579</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.8746539115906</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1.7866715908051001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1.6307839870453</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>1.7640364964803332</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4.0690225601196</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>3.3074926376342999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>3.3108070135116998</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>3.5624407370885329</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>4.8273777961731001</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>4.9529525597889998</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>5.1045025189717999</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>4.9616109583112999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:18">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.7736988067627002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.4599299430846999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2.4499311447143999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>2.5611866315206</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>10.80013756752</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>10.270339775085001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>9.8035129547118007</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>10.2913300991056</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>22.995408773422</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>19.68551299572</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>19.797922396659999</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>20.826281388600666</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>30.346943807601999</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>36.315698464710998</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>34.170119746525998</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>33.610920672946328</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:18">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>36.395166873931998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>36.015284776687999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>35.772108078003001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>36.06085324287433</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>164.53409862518001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>162.02532038689</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>161.61526856423001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>162.72489585876667</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.7950029373169001E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4.4583082199096999E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>4.4539928436278999E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>4.5691013336181668E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.21065196990967</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.20160684585571001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.20028495788573999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.20418125788370667</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.40006971359253002</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.42880916595459001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.41465699672699002</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>0.41451195875803665</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.59108333587646</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.61449319521585999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>0.5699603398641</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>0.59184562365214</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>8.9298009872436995E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>8.7839126586913993E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>9.1475963592529005E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>8.9537700017293331E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.41370339393616001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.36026096343994002</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.35251493453978999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>0.37549309730529662</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.59704129695892005</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.64298689365386996</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.65656580924987995</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.63219799995422343</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.91969916025798004</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>0.93027995427450005</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>0.88860406875609999</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>0.91286106109619336</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:18">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.46341013908385997</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.42142009735107</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.42274618148804</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.43585880597432336</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.8653461933136</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.8447131156920999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1.8550609588622999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>1.8550400892893333</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>3.1129492044449001</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>3.1052729129791001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>3.3289674043655002</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>3.1823965072631668</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>6.9738423665363998</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>8.0030083497365005</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>5.7749861558277997</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>6.9172789573669</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>3.4592239856720002</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3.4055318832396999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3.4218561649322998</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>3.4288706779480003</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>18.312743711471999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>16.547928762436001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>15.521381235123</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>16.794017903010332</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>33.630316114426002</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>32.721774148941002</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>31.199522995949</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>32.517204419772</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>46.234833796818997</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>47.887095514933002</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>55.294899241129997</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>49.805609517627339</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.75">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>39.942064046859997</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>39.89732003212</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>40.802585124968999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>40.213989734649665</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>206.99452590943</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>208.19823722839999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>204.47934961319001</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>206.55737091700666</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
+    <row r="14" spans="1:18">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>7.8480243682860999E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>7.8988075256348003E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1.0045051574707E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>8.5972944895426322E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>5.0973653793335003E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>3.0906105041504001E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2.9773759841919E-2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>3.7217839558919337E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.12633295059204</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.11819014549255</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>8.8585734367370994E-2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.11103627681732033</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.11665954589844001</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.15495767593383999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>0.13692493438721001</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>0.13618071873982998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2.8334140777588002E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2.7240037918091001E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>3.1787157058716001E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>2.9120445251465E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.12788996696471999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.13751921653747001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.12713637351990001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.13084851900736336</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.25247685909271</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.25813038349152001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.22794213294983001</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.24618312517802002</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.35138460795085003</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>0.40709544817607002</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>0.36049739519754997</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>0.3729924837748233</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:18">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.28946495056152</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.29322409629821999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.29872417449951</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>0.29380440711975003</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1.1922716140747001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1.1498569965362</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>1.1194800376892</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>1.1538695494333668</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>2.1932008028030001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>2.3419580936431998</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>2.0660638093947998</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>2.2004075686136666</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>3.3252289930979</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>3.2887267589569</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>3.5162612597148</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>3.3767390039231997</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:18">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2.5863378047943</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2.5435888767242001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2.5681610107421999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>2.5660292307535664</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>11.233117055893</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>11.431131076812999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>11.202819633483999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>11.289022588729999</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>25.306958389281998</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>22.278060340881002</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>21.07271630764</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>22.885911679267668</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>31.822139803568</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>31.112723811466999</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>31.022836780548001</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>31.319233465194333</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12.75">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:18">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>79.294433116912998</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>38.984266042709002</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>38.904347896575999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>52.394349018732669</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>189.88638706207001</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>203.97909016609</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>198.63712701797999</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>197.50086808204665</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
+    <row r="20" spans="1:18">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>8.2938671112060998E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1.9883871078490999E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1.0454893112183001E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.2877543767293366E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>3.2240056991576997E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>2.9556608200073001E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>4.2261219024658001E-2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>3.4685961405435999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>7.0954108238220001E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>7.5200557708739998E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>6.6626048088074E-2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>7.0926904678344671E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>0.11761468251546001</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>0.11127301851908</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>0.10422490437826</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>0.11103753513760001</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>2.6512145996094E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>3.1292915344237997E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3.071403503418E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>2.9506365458170664E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.13429083824158</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.13121619224548001</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.16669764518738001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.14406822522481336</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.31163783073425</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>0.55145773887634997</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>0.24426610469818</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>0.36912055810292665</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>0.37040146191915002</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>0.35832185745238998</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>0.45862773259480999</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>0.39578368398878333</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12.75">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:18">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.36653804779053001</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.41377687454223999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.60754418373107999</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>0.46261970202128327</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>1.3559296131134</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1.2252017498015999</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>1.3626742362976001</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>1.3146018664041998</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>2.7777417898177998</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>2.4877586364746</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>2.3611316919326999</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>2.5422107060750334</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>3.3741455872853998</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>3.3618197441100999</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>3.8807011763255002</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>3.5388888359070001</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12.75">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:18">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2.5659189224243</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2.5739328861236999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>2.5189740657806001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>2.5529419581095336</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>10.921091556548999</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>11.353821754456</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>11.35698094368</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>11.210631418228333</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>23.484414839744002</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>22.550415802002</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>23.329129576682998</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>23.121320072809667</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>34.786128282546997</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>34.930746475855997</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>31.795294602712001</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>33.837389787038333</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12.75">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:18">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>44.711110115051</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>39.505669116973998</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>38.628494977951</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>40.948424736658666</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>205.50356354713</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>211.71452279091</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>199.37117462158</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>205.52975365320665</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="12.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:18">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:18">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11697,1263 +11697,1263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="R2" activeCellId="2" sqref="G1:J1048576 K1:N1048576 O1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2"/>
-    <col min="3" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="10.5703125" style="2"/>
-    <col min="7" max="9" width="11.7109375" style="2"/>
-    <col min="10" max="10" width="10.5703125" style="2"/>
-    <col min="11" max="13" width="11.7109375" style="2"/>
-    <col min="14" max="14" width="10.28515625" style="2"/>
-    <col min="15" max="257" width="11.7109375" style="2"/>
+    <col min="1" max="1" width="14.5703125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1"/>
+    <col min="3" max="5" width="11.7109375" style="1"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="7" max="9" width="11.7109375" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1"/>
+    <col min="11" max="13" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1"/>
+    <col min="15" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.8629779815674002E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3.0961275100708001E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4.2079448699950998E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>3.3890167872111E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.11914315223694</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.13120765686034999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.36086039543151999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.20373706817627002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>0.23465976715087999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>0.21987135410309</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.22494606971740999</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>0.22649239699045998</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.34130927721658999</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0.32714735666910999</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>0.37350994745889998</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>0.34732219378153334</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.10587596893311001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.10496473312378</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.10656499862671</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>0.10580190022786667</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.56591258049010995</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.46849312782288</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.46720800399779999</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.50053790410359666</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>1.0429578781127999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>0.99165358543395998</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>0.96677291393279996</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>1.0004614591598533</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>1.5198519865672</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>1.5735551993051999</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>1.5462844371796001</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>1.5465638743506667</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.9354889392853001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.6025388240814</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1.6316089630127</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>1.7232122421264666</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>8.4486344337462995</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>8.0727665901184</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>7.8109163761138998</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>8.1107724666595331</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>16.608856797217999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>15.853037071228</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>15.812289643288</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>16.091394503911332</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>23.235068480174</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>23.682967344920002</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>24.037721633911001</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>23.651919153001668</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:18">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10.815920114517001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10.151566982268999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>10.52633190155</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>10.497939666112002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>46.839616250992002</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>46.537710428238</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>45.200466632843003</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>46.192597770691009</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>94.478088951111005</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>91.616760945319996</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>90.819481873512004</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>92.304777256647682</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>141.95227198601</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>148.76990895271001</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>145.29906965891999</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>145.34041686588</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:18">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>178.74467277527</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>177.81628751754999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>176.49444913863999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>177.68513647715335</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>799.79248104094995</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>783.20202469825995</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>786.6127137661</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>789.86907316843656</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.22185468673705999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.20907807350158999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.21458792686462</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>0.21517356236775667</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.97767701148986996</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.94282741546630999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.93055596351623004</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.9503534634908033</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>1.8911451578139999</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>1.9370869636535999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>1.9747530460358</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>1.9343283891678</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>2.7818928718567002</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>2.893475484848</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>2.7256601333617998</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>2.8003428300221667</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12.75">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.40995502471924</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.39283728599548001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.39682698249817</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>0.39987309773762997</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.6479570388794</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.6004824638366999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1.6051327705383001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>1.6178574244181334</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>2.7617025613784998</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>2.9560615301132001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>2.9733292579651001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>2.8970311164856</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>4.2838337580363</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>4.2386603037516002</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>4.0889787038167</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>4.2038242552015328</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:18">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2.0703840255736998</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2.0268149375915998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2.0209851264954</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>2.0393946965535665</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>8.5400120258331995</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>8.4391520977019994</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>8.1465940475463992</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>8.3752527236938672</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>14.762718939780999</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>14.870445537567001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>15.205537366867</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>14.946233948071667</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>24.769616905848</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>28.885481532415</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>25.009295527140001</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>26.22146465513433</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>15.370904922485</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>15.254776477814</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>15.431421518325999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>15.352367639541667</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>69.287546443938993</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>66.875515508652001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>65.654521226883006</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>67.272527726491333</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>130.80681226253</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>128.61427559853001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>125.05584299564001</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>128.15897695223336</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>193.20526623725999</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>205.94690306980999</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>198.56210192045</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>199.23809040917331</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.75">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>195.56456232071</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>196.48565506935</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>198.20795392989999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>196.75272377331999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>931.96770839690998</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>905.40265221595996</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>894.88267107009995</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>910.75101056098993</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
+    <row r="14" spans="1:18">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>3.2727241516112997E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3.1890869140625E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>3.7386178970336997E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>3.4001429875691665E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.13658704757689999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.11401352882385</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.11075291633606001</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>0.12045116424560333</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.30851745605469</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.28822541236876997</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>0.26513741016387998</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.28729342619577997</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.39857196807861001</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.41030114491781</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>0.37422685623169</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>0.39436665640936996</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.12589430809020999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.12672090530395999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.13520407676696999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>0.12927309672037998</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.54835891723633001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.54039592742919995</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.51532573699951001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.53469352722167995</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.97069473266602002</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.98386168479919001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.93950624465943</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.96468755404154682</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>1.4117265224457001</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>1.7298299948374001</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>1.5073355515797999</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>1.5496306896209668</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:18">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1.4214231967926001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1.3713011741637999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1.4402480125427</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>1.4109907944997</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>5.3187494277954004</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>5.3768250465392997</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>5.3217649936675997</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>5.3391131560007663</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>10.450013399124</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>10.882764530182</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>9.8695289611816008</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>10.400768963495866</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>15.817006460826001</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>15.915767717361</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>16.103174018859999</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>15.945316065682334</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:18">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>10.950034856796</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>10.913181781769</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>10.785562992096001</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>10.882926543553666</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>46.800014781952001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>45.957205438613997</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>46.403504848479997</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>46.38690835634867</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>91.284906315803994</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>92.998723292351002</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>86.177547216414993</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>90.153725608189987</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>135.44783905347001</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>140.50495861370999</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>134.80778133074</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>136.92019299930666</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12.75">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:18">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>233.57017326355</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>192.74201917648</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>193.23396205902</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>206.51538483301667</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>881.28284893036005</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>906.91340737343</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>905.74307975769</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>897.97977868715998</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
+    <row r="20" spans="1:18">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>3.4827709197997998E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>4.5763969421387003E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>3.9298057556151997E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>3.9963245391845668E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.11435122489929</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.10916013717651001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.14424304962157999</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>0.12258480389912667</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.23364479541777999</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.26391272544861</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>0.23537578582763999</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>0.24431110223134334</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>0.38920879364013999</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>0.36519387563069999</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>0.34661262830098999</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>0.36700509919060997</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.12095522880553999</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.13157486915587999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.13007688522339</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>0.12753566106160333</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.55779356956481996</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.52617654800415004</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.62872161865234999</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.57089724540710662</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>1.1194035291672</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>1.3130526065826</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>0.95534794330596995</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>1.1292680263519232</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>1.4501003106435</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>1.4939517021179001</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>1.6103527069092001</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>1.5181349065568668</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12.75">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:18">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>1.5578911304473999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>1.6588618755341</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1.7421162128448</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>1.6529564062754334</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>5.8492838382721004</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>5.8538415431975999</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>6.0874616146087996</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>5.9301956653594994</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>12.277629518509</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>11.016053986549</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>10.938139867782001</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>11.410607790946665</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>15.035275586446</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>15.753695090612</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>16.977189922333</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>15.922053533130333</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12.75">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:18">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>11.130517959595</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>11.453063011169</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>11.054625988007</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>11.212735652923667</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>45.480020284653001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>45.713670063019002</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>45.78912062645</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>45.660936991374001</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>93.388878607750001</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>91.499022126198</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>91.713697361946004</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>92.200532698631335</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>152.30679596265</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>136.96475927034999</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>131.08897911707999</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>140.12017811669332</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12.75">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:18">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>198.76458311081001</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>194.06566786766001</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>192.23809790611</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>195.02278296152667</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>897.38335924148998</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>909.41861615181006</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>879.46423802376</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>895.42207113901998</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="12.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:18">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:18">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Médias" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
   <si>
     <t>One client process</t>
   </si>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +114,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -139,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -149,6 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +248,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -497,11 +516,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62713856"/>
-        <c:axId val="62716160"/>
+        <c:axId val="72887680"/>
+        <c:axId val="72910720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62713856"/>
+        <c:axId val="72887680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,14 +544,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62716160"/>
+        <c:crossAx val="72910720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62716160"/>
+        <c:axId val="72910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +577,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62713856"/>
+        <c:crossAx val="72887680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,7 +590,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -579,7 +598,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -847,11 +866,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66392448"/>
-        <c:axId val="66394368"/>
+        <c:axId val="76357632"/>
+        <c:axId val="76359552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66392448"/>
+        <c:axId val="76357632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,14 +894,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66394368"/>
+        <c:crossAx val="76359552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66394368"/>
+        <c:axId val="76359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +927,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66392448"/>
+        <c:crossAx val="76357632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,7 +940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -929,7 +948,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -1205,11 +1224,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67572096"/>
-        <c:axId val="67574016"/>
+        <c:axId val="76419072"/>
+        <c:axId val="76420992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67572096"/>
+        <c:axId val="76419072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,14 +1252,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67574016"/>
+        <c:crossAx val="76420992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67574016"/>
+        <c:axId val="76420992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1285,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67572096"/>
+        <c:crossAx val="76419072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1287,7 +1306,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -1314,7 +1333,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1563,11 +1581,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67617536"/>
-        <c:axId val="67619456"/>
+        <c:axId val="76464512"/>
+        <c:axId val="76466432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67617536"/>
+        <c:axId val="76464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,17 +1606,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67619456"/>
+        <c:crossAx val="76466432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67619456"/>
+        <c:axId val="76466432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,24 +1637,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67617536"/>
+        <c:crossAx val="76464512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1645,7 +1660,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1663,7 +1678,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1872,11 +1886,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67658880"/>
-        <c:axId val="67660800"/>
+        <c:axId val="76518144"/>
+        <c:axId val="76520064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67658880"/>
+        <c:axId val="76518144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,17 +1911,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67660800"/>
+        <c:crossAx val="76520064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67660800"/>
+        <c:axId val="76520064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,24 +1942,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67658880"/>
+        <c:crossAx val="76518144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1954,7 +1965,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1972,7 +1983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2181,11 +2191,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68040192"/>
-        <c:axId val="68042112"/>
+        <c:axId val="76633216"/>
+        <c:axId val="76635136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68040192"/>
+        <c:axId val="76633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,17 +2216,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68042112"/>
+        <c:crossAx val="76635136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68042112"/>
+        <c:axId val="76635136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,24 +2247,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68040192"/>
+        <c:crossAx val="76633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2263,7 +2270,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2281,7 +2288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2478,11 +2484,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68085632"/>
-        <c:axId val="67964928"/>
+        <c:axId val="76551680"/>
+        <c:axId val="76553600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68085632"/>
+        <c:axId val="76551680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,17 +2509,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67964928"/>
+        <c:crossAx val="76553600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67964928"/>
+        <c:axId val="76553600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,24 +2540,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68085632"/>
+        <c:crossAx val="76551680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2560,7 +2563,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2578,7 +2581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2775,11 +2777,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67991808"/>
-        <c:axId val="68010368"/>
+        <c:axId val="76597120"/>
+        <c:axId val="82182144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67991808"/>
+        <c:axId val="76597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,17 +2802,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68010368"/>
+        <c:crossAx val="82182144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68010368"/>
+        <c:axId val="82182144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,24 +2833,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67991808"/>
+        <c:crossAx val="76597120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2857,7 +2856,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -2876,7 +2875,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3125,11 +3123,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68381696"/>
-        <c:axId val="68416640"/>
+        <c:axId val="82238080"/>
+        <c:axId val="82252544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68381696"/>
+        <c:axId val="82238080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,17 +3148,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68416640"/>
+        <c:crossAx val="82252544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68416640"/>
+        <c:axId val="82252544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,24 +3179,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68381696"/>
+        <c:crossAx val="82238080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3207,7 +3202,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3226,7 +3221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3475,11 +3469,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68435328"/>
-        <c:axId val="68457984"/>
+        <c:axId val="82287616"/>
+        <c:axId val="82293888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68435328"/>
+        <c:axId val="82287616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,17 +3494,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68457984"/>
+        <c:crossAx val="82293888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68457984"/>
+        <c:axId val="82293888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,24 +3525,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68435328"/>
+        <c:crossAx val="82287616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3557,7 +3548,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -3584,7 +3575,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3833,11 +3823,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68497408"/>
-        <c:axId val="68499328"/>
+        <c:axId val="82337152"/>
+        <c:axId val="82351616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68497408"/>
+        <c:axId val="82337152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,17 +3848,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68499328"/>
+        <c:crossAx val="82351616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68499328"/>
+        <c:axId val="82351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3890,24 +3879,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68497408"/>
+        <c:crossAx val="82337152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3915,7 +3902,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -4183,11 +4170,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64553728"/>
-        <c:axId val="64555648"/>
+        <c:axId val="74801536"/>
+        <c:axId val="74803456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64553728"/>
+        <c:axId val="74801536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,14 +4198,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64555648"/>
+        <c:crossAx val="74803456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64555648"/>
+        <c:axId val="74803456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4231,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64553728"/>
+        <c:crossAx val="74801536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4257,7 +4244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4265,7 +4252,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -4292,7 +4279,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4541,11 +4527,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69599616"/>
-        <c:axId val="69601536"/>
+        <c:axId val="82391040"/>
+        <c:axId val="82392960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69599616"/>
+        <c:axId val="82391040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,17 +4552,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69601536"/>
+        <c:crossAx val="82392960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69601536"/>
+        <c:axId val="82392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,24 +4583,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69599616"/>
+        <c:crossAx val="82391040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4623,7 +4606,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4641,7 +4624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4850,11 +4832,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69641344"/>
-        <c:axId val="69643264"/>
+        <c:axId val="82428672"/>
+        <c:axId val="82430592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69641344"/>
+        <c:axId val="82428672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,17 +4857,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69643264"/>
+        <c:crossAx val="82430592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69643264"/>
+        <c:axId val="82430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,24 +4888,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69641344"/>
+        <c:crossAx val="82428672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4932,7 +4911,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4950,7 +4929,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5159,11 +5137,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69703168"/>
-        <c:axId val="69705088"/>
+        <c:axId val="82486400"/>
+        <c:axId val="82488320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69703168"/>
+        <c:axId val="82486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5184,17 +5162,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69705088"/>
+        <c:crossAx val="82488320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69705088"/>
+        <c:axId val="82488320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,24 +5193,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69703168"/>
+        <c:crossAx val="82486400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5241,7 +5216,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5259,7 +5234,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5456,11 +5430,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69748608"/>
-        <c:axId val="69763072"/>
+        <c:axId val="82531840"/>
+        <c:axId val="82533760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69748608"/>
+        <c:axId val="82531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,17 +5455,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69763072"/>
+        <c:crossAx val="82533760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69763072"/>
+        <c:axId val="82533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5513,24 +5486,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69748608"/>
+        <c:crossAx val="82531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5538,7 +5509,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5556,7 +5527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5753,11 +5723,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69798144"/>
-        <c:axId val="69804416"/>
+        <c:axId val="82651008"/>
+        <c:axId val="82661376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69798144"/>
+        <c:axId val="82651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5778,17 +5748,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69804416"/>
+        <c:crossAx val="82661376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69804416"/>
+        <c:axId val="82661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,24 +5779,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69798144"/>
+        <c:crossAx val="82651008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5835,7 +5802,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -6111,11 +6078,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65668224"/>
-        <c:axId val="65670144"/>
+        <c:axId val="75891456"/>
+        <c:axId val="75893376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65668224"/>
+        <c:axId val="75891456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6139,14 +6106,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65670144"/>
+        <c:crossAx val="75893376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65670144"/>
+        <c:axId val="75893376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6139,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65668224"/>
+        <c:crossAx val="75891456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6185,7 +6152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6193,7 +6160,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -6469,11 +6436,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65713664"/>
-        <c:axId val="65715584"/>
+        <c:axId val="75945088"/>
+        <c:axId val="75947008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65713664"/>
+        <c:axId val="75945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,14 +6464,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65715584"/>
+        <c:crossAx val="75947008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65715584"/>
+        <c:axId val="75947008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6530,7 +6497,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65713664"/>
+        <c:crossAx val="75945088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6543,7 +6510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6551,7 +6518,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6778,11 +6745,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65759488"/>
-        <c:axId val="65765760"/>
+        <c:axId val="75990912"/>
+        <c:axId val="75997184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65759488"/>
+        <c:axId val="75990912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,14 +6773,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65765760"/>
+        <c:crossAx val="75997184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65765760"/>
+        <c:axId val="75997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +6806,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65759488"/>
+        <c:crossAx val="75990912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6852,7 +6819,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6860,7 +6827,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7087,11 +7054,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65940096"/>
-        <c:axId val="65954560"/>
+        <c:axId val="76110080"/>
+        <c:axId val="76124544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65940096"/>
+        <c:axId val="76110080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7115,14 +7082,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65954560"/>
+        <c:crossAx val="76124544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65954560"/>
+        <c:axId val="76124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7148,7 +7115,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65940096"/>
+        <c:crossAx val="76110080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,7 +7128,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7169,7 +7136,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7384,11 +7351,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65981440"/>
-        <c:axId val="65991808"/>
+        <c:axId val="76143232"/>
+        <c:axId val="76034816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65981440"/>
+        <c:axId val="76143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7412,14 +7379,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65991808"/>
+        <c:crossAx val="76034816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65991808"/>
+        <c:axId val="76034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7445,7 +7412,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65981440"/>
+        <c:crossAx val="76143232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7458,7 +7425,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7466,7 +7433,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7681,11 +7648,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65895808"/>
-        <c:axId val="65926656"/>
+        <c:axId val="76086272"/>
+        <c:axId val="76219520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65895808"/>
+        <c:axId val="76086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,14 +7676,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65926656"/>
+        <c:crossAx val="76219520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65926656"/>
+        <c:axId val="76219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7742,7 +7709,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65895808"/>
+        <c:crossAx val="76086272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7755,7 +7722,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7763,7 +7730,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -8031,11 +7998,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66473984"/>
-        <c:axId val="66475904"/>
+        <c:axId val="76299648"/>
+        <c:axId val="76305920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66473984"/>
+        <c:axId val="76299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,14 +8026,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66475904"/>
+        <c:crossAx val="76305920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66475904"/>
+        <c:axId val="76305920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8092,7 +8059,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66473984"/>
+        <c:crossAx val="76299648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8105,7 +8072,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8117,19 +8084,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8145,21 +8114,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>262537</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177372</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8175,21 +8146,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192902</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>287031</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8205,21 +8178,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>305760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>41302</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Gráfico 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8237,19 +8212,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Gráfico 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8265,21 +8242,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Gráfico 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8295,21 +8274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Gráfico 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8325,21 +8306,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>305762</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>41304</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Gráfico 9"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8847,9 +8830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8887,7 +8870,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8957,7 +8940,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9131,11 +9114,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -9148,8 +9132,1307 @@
     <col min="11" max="13" width="11.7109375" style="1"/>
     <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="2"/>
+    <col min="18" max="18" width="11.7109375" style="2" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.4314889907836999E-3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.5480637550354E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.1039724349976E-3</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(C3:E3)/COUNT(C3:E3)</f>
+        <v>1.6945083936055667E-3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5.9571576118468998E-3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6.5603828430176002E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.8043019771576001E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <f>SUM(G3:I3)/COUNT(G3:I3)</f>
+        <v>1.0186853408813501E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1.1732988357543999E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1.0993567705154E-2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1.1247303485870001E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <f>SUM(K3:M3)/COUNT(K3:M3)</f>
+        <v>1.1324619849522669E-2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1.706546386083E-2</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1.6357367833455001E-2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>1.8675497372945001E-2</v>
+      </c>
+      <c r="R3" s="11">
+        <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
+        <v>1.7366109689076668E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5.2937984466553002E-3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.2482366561889997E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5.3282499313353996E-3</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUM(C4:E4)/COUNT(C4:E4)</f>
+        <v>5.2900950113932326E-3</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2.8295629024505001E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.3424656391144001E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2.336040019989E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <f>SUM(G4:I4)/COUNT(G4:I4)</f>
+        <v>2.5026895205179669E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5.2147893905640001E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>4.9582679271698002E-2</v>
+      </c>
+      <c r="M4" s="10">
+        <v>4.8338645696640002E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <f>SUM(K4:M4)/COUNT(K4:M4)</f>
+        <v>5.0023072957992666E-2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>7.5992599328359001E-2</v>
+      </c>
+      <c r="P4" s="10">
+        <v>7.8677759965260996E-2</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>7.7314221858978002E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
+        <v>7.7328193717532676E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9.6774446964264002E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>8.0126941204071003E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.1580448150635004E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(C5:E5)/COUNT(C5:E5)</f>
+        <v>8.616061210632335E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.42243172168731002</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.40363832950591999</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.3905458188057</v>
+      </c>
+      <c r="J5" s="11">
+        <f>SUM(G5:I5)/COUNT(G5:I5)</f>
+        <v>0.40553862333297669</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.83044283986092005</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.7926518535614</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.79061448216438002</v>
+      </c>
+      <c r="N5" s="11">
+        <f>SUM(K5:M5)/COUNT(K5:M5)</f>
+        <v>0.80456972519556669</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1.1617534240087</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1.184148367246</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1.2018860816956001</v>
+      </c>
+      <c r="R5" s="11">
+        <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
+        <v>1.1825959576500999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.54079600572585995</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.50757834911346</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.52631659507751005</v>
+      </c>
+      <c r="F6" s="11">
+        <f>SUM(C6:E6)/COUNT(C6:E6)</f>
+        <v>0.52489698330560997</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.3419808125496</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2.3268855214119002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2.2600233316420999</v>
+      </c>
+      <c r="J6" s="11">
+        <f>SUM(G6:I6)/COUNT(G6:I6)</f>
+        <v>2.3096298885345332</v>
+      </c>
+      <c r="K6" s="10">
+        <v>4.7239044475555003</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4.580838047266</v>
+      </c>
+      <c r="M6" s="10">
+        <v>4.5409740936756</v>
+      </c>
+      <c r="N6" s="11">
+        <f>SUM(K6:M6)/COUNT(K6:M6)</f>
+        <v>4.6152388628323671</v>
+      </c>
+      <c r="O6" s="10">
+        <v>7.0976135993004004</v>
+      </c>
+      <c r="P6" s="10">
+        <v>7.4384954476356997</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>7.2649534829458</v>
+      </c>
+      <c r="R6" s="11">
+        <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
+        <v>7.2670208432939667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8.9372336387634004</v>
+      </c>
+      <c r="D7" s="10">
+        <v>8.8908143758773992</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.8247224569321006</v>
+      </c>
+      <c r="F7" s="11">
+        <f>SUM(C7:E7)/COUNT(C7:E7)</f>
+        <v>8.8842568238576334</v>
+      </c>
+      <c r="G7" s="10">
+        <v>39.989624052048001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>39.160101234913</v>
+      </c>
+      <c r="I7" s="10">
+        <v>39.330635688305001</v>
+      </c>
+      <c r="J7" s="11">
+        <f>SUM(G7:I7)/COUNT(G7:I7)</f>
+        <v>39.493453658421998</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.1092734336853E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.0453903675079E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.0729396343231E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(C9:E9)/COUNT(C9:E9)</f>
+        <v>1.0758678118387667E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4.8883850574494001E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4.7141370773316003E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4.6527798175811999E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <f>SUM(G9:I9)/COUNT(G9:I9)</f>
+        <v>4.7517673174540663E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>9.4557257890701005E-2</v>
+      </c>
+      <c r="L9" s="10">
+        <v>9.6854348182678004E-2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>9.8737652301788006E-2</v>
+      </c>
+      <c r="N9" s="11">
+        <f>SUM(K9:M9)/COUNT(K9:M9)</f>
+        <v>9.6716419458389005E-2</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.13909464359283</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.14467377424239999</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.13628300666809001</v>
+      </c>
+      <c r="R9" s="11">
+        <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
+        <v>0.14001714150110667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.0497751235962001E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.9641864299773999E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.9841349124907998E-2</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SUM(C10:E10)/COUNT(C10:E10)</f>
+        <v>1.9993654886881332E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8.2397851943969994E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8.0024123191833996E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>8.0256638526917001E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(G10:I10)/COUNT(G10:I10)</f>
+        <v>8.0892871220906992E-2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.13808512806892001</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.14780307650565999</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.14866646289825</v>
+      </c>
+      <c r="N10" s="11">
+        <f>SUM(K10:M10)/COUNT(K10:M10)</f>
+        <v>0.14485155582427667</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.21419168790181001</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.21193301518758001</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0.20444893519084001</v>
+      </c>
+      <c r="R10" s="11">
+        <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
+        <v>0.21019121276007668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.10351920127869001</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.10134074687958</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.10104925632477001</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SUM(C11:E11)/COUNT(C11:E11)</f>
+        <v>0.10196973482768001</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.42700060129166001</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.42195760488509998</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.40732970237732002</v>
+      </c>
+      <c r="J11" s="11">
+        <f>SUM(G11:I11)/COUNT(G11:I11)</f>
+        <v>0.41876263618469328</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.73813594698906004</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.74352227687836003</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.76027686834334995</v>
+      </c>
+      <c r="N11" s="11">
+        <f>SUM(K11:M11)/COUNT(K11:M11)</f>
+        <v>0.74731169740358994</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.2384808452924001</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1.4442740766207001</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1.250464776357</v>
+      </c>
+      <c r="R11" s="11">
+        <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
+        <v>1.3110732327567001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.76854524612427</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.76273882389069003</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.77157107591629004</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(C12:E12)/COUNT(C12:E12)</f>
+        <v>0.76761838197708332</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3.464377322197</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3.3437757754325999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3.2827260613442002</v>
+      </c>
+      <c r="J12" s="11">
+        <f>SUM(G12:I12)/COUNT(G12:I12)</f>
+        <v>3.3636263863245994</v>
+      </c>
+      <c r="K12" s="10">
+        <v>6.5403406131267996</v>
+      </c>
+      <c r="L12" s="10">
+        <v>6.4307137799263003</v>
+      </c>
+      <c r="M12" s="10">
+        <v>6.2527921497822003</v>
+      </c>
+      <c r="N12" s="11">
+        <f>SUM(K12:M12)/COUNT(K12:M12)</f>
+        <v>6.4079488476117668</v>
+      </c>
+      <c r="O12" s="10">
+        <v>9.6602633118629999</v>
+      </c>
+      <c r="P12" s="10">
+        <v>10.297345153490999</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>9.9281050960222998</v>
+      </c>
+      <c r="R12" s="11">
+        <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
+        <v>9.9619045204587664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
+        <v>9.7782281160354998</v>
+      </c>
+      <c r="D13" s="10">
+        <v>9.8242827534675996</v>
+      </c>
+      <c r="E13" s="10">
+        <v>9.9103976964950995</v>
+      </c>
+      <c r="F13" s="11">
+        <f>SUM(C13:E13)/COUNT(C13:E13)</f>
+        <v>9.8376361886660657</v>
+      </c>
+      <c r="G13" s="10">
+        <v>46.598385419845997</v>
+      </c>
+      <c r="H13" s="10">
+        <v>45.270132610798001</v>
+      </c>
+      <c r="I13" s="10">
+        <v>44.744133553505002</v>
+      </c>
+      <c r="J13" s="11">
+        <f>SUM(G13:I13)/COUNT(G13:I13)</f>
+        <v>45.537550528049671</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.6363620758057E-3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.5945434570311999E-3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.8693089485167999E-3</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SUM(C15:E15)/COUNT(C15:E15)</f>
+        <v>1.7000714937845665E-3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6.8293523788452003E-3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5.7006764411925998E-3</v>
+      </c>
+      <c r="I15" s="10">
+        <v>5.5376458168030001E-3</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(G15:I15)/COUNT(G15:I15)</f>
+        <v>6.0225582122802671E-3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1.5425872802733999E-2</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.4411270618439E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1.3256870508193999E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <f>SUM(K15:M15)/COUNT(K15:M15)</f>
+        <v>1.4364671309789001E-2</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1.9928598403930999E-2</v>
+      </c>
+      <c r="P15" s="10">
+        <v>2.0515057245889999E-2</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1.8711342811584E-2</v>
+      </c>
+      <c r="R15" s="11">
+        <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
+        <v>1.9718332820468334E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10">
+        <v>6.2947154045105E-3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>6.3360452651977997E-3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>6.7602038383483996E-3</v>
+      </c>
+      <c r="F16" s="11">
+        <f>SUM(C16:E16)/COUNT(C16:E16)</f>
+        <v>6.4636548360189E-3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2.7417945861816999E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2.701979637146E-2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.5766286849975999E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <f>SUM(G16:I16)/COUNT(G16:I16)</f>
+        <v>2.6734676361084331E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4.8534736633300997E-2</v>
+      </c>
+      <c r="L16" s="10">
+        <v>4.9193084239960001E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4.6975312232971002E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <f>SUM(K16:M16)/COUNT(K16:M16)</f>
+        <v>4.8234377702077336E-2</v>
+      </c>
+      <c r="O16" s="10">
+        <v>7.0586326122283993E-2</v>
+      </c>
+      <c r="P16" s="10">
+        <v>8.6491499741871994E-2</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>7.5366777578990005E-2</v>
+      </c>
+      <c r="R16" s="11">
+        <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
+        <v>7.7481534481048664E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7.1071159839629999E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>6.8565058708191004E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>7.2012400627136E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SUM(C17:E17)/COUNT(C17:E17)</f>
+        <v>7.0549539724985663E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.26593747138976997</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.26884125232696998</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.26608824968338002</v>
+      </c>
+      <c r="J17" s="11">
+        <f>SUM(G17:I17)/COUNT(G17:I17)</f>
+        <v>0.26695565780003999</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.52250066995621003</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.54413822650910004</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.49347644805907998</v>
+      </c>
+      <c r="N17" s="11">
+        <f>SUM(K17:M17)/COUNT(K17:M17)</f>
+        <v>0.52003844817479672</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.79085032304128</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0.79578838586806999</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.80515870094299002</v>
+      </c>
+      <c r="R17" s="11">
+        <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
+        <v>0.79726580328411334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.54750174283981001</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.54565908908843996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.53927814960480003</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(C18:E18)/COUNT(C18:E18)</f>
+        <v>0.5441463271776833</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2.3400007390975999</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2.2978602719307002</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2.3201752424239999</v>
+      </c>
+      <c r="J18" s="11">
+        <f>SUM(G18:I18)/COUNT(G18:I18)</f>
+        <v>2.3193454178174333</v>
+      </c>
+      <c r="K18" s="10">
+        <v>4.5642453157901999</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4.6499361646175004</v>
+      </c>
+      <c r="M18" s="10">
+        <v>4.3088773608207998</v>
+      </c>
+      <c r="N18" s="11">
+        <f>SUM(K18:M18)/COUNT(K18:M18)</f>
+        <v>4.5076862804094997</v>
+      </c>
+      <c r="O18" s="10">
+        <v>6.7723919526736003</v>
+      </c>
+      <c r="P18" s="10">
+        <v>7.0252479306857003</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>6.7403890665372002</v>
+      </c>
+      <c r="R18" s="11">
+        <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
+        <v>6.8460096499654997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12">
+        <v>11.678508663177</v>
+      </c>
+      <c r="D19" s="12">
+        <v>9.6371009588242007</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9.6616981029510001</v>
+      </c>
+      <c r="F19" s="11">
+        <f>SUM(C19:E19)/COUNT(C19:E19)</f>
+        <v>10.325769241650734</v>
+      </c>
+      <c r="G19" s="12">
+        <v>44.064142446517998</v>
+      </c>
+      <c r="H19" s="12">
+        <v>45.345670368671001</v>
+      </c>
+      <c r="I19" s="12">
+        <v>45.287153987884999</v>
+      </c>
+      <c r="J19" s="11">
+        <f>SUM(G19:I19)/COUNT(G19:I19)</f>
+        <v>44.898988934357995</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1.7413854598999001E-3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.2881984710692999E-3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.9649028778076002E-3</v>
+      </c>
+      <c r="F21" s="11">
+        <f>SUM(C21:E21)/COUNT(C21:E21)</f>
+        <v>1.9981622695922669E-3</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5.7175612449646002E-3</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5.4580068588257003E-3</v>
+      </c>
+      <c r="I21" s="10">
+        <v>7.2121524810790996E-3</v>
+      </c>
+      <c r="J21" s="11">
+        <f>SUM(G21:I21)/COUNT(G21:I21)</f>
+        <v>6.1292401949564661E-3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1.1682239770889001E-2</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1.3195636272431E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1.1768789291382E-2</v>
+      </c>
+      <c r="N21" s="11">
+        <f>SUM(K21:M21)/COUNT(K21:M21)</f>
+        <v>1.2215555111567333E-2</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1.9460439682006999E-2</v>
+      </c>
+      <c r="P21" s="10">
+        <v>1.8259693781535E-2</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>1.7330631415049001E-2</v>
+      </c>
+      <c r="R21" s="11">
+        <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
+        <v>1.8350254959530334E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6.0477614402771E-3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>6.5787434577941999E-3</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6.5038442611694003E-3</v>
+      </c>
+      <c r="F22" s="11">
+        <f>SUM(C22:E22)/COUNT(C22:E22)</f>
+        <v>6.3767830530802342E-3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2.7889678478241E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2.6308827400207999E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3.1436080932617003E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <f>SUM(G22:I22)/COUNT(G22:I22)</f>
+        <v>2.8544862270355336E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <v>5.5970176458359E-2</v>
+      </c>
+      <c r="L22" s="10">
+        <v>6.5652630329132003E-2</v>
+      </c>
+      <c r="M22" s="10">
+        <v>4.7767397165299E-2</v>
+      </c>
+      <c r="N22" s="11">
+        <f>SUM(K22:M22)/COUNT(K22:M22)</f>
+        <v>5.6463401317596668E-2</v>
+      </c>
+      <c r="O22" s="10">
+        <v>7.2505015532176004E-2</v>
+      </c>
+      <c r="P22" s="10">
+        <v>7.4697585105895997E-2</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>8.0517635345458999E-2</v>
+      </c>
+      <c r="R22" s="11">
+        <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
+        <v>7.5906745327843667E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10">
+        <v>7.7894556522368999E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>8.2943093776703003E-2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.7105810642242001E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>SUM(C23:E23)/COUNT(C23:E23)</f>
+        <v>8.2647820313771325E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.29246419191360001</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.29269207715987999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.30437308073044</v>
+      </c>
+      <c r="J23" s="11">
+        <f>SUM(G23:I23)/COUNT(G23:I23)</f>
+        <v>0.29650978326797334</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.61388147592544995</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0.55080269932746995</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.54690699338912996</v>
+      </c>
+      <c r="N23" s="11">
+        <f>SUM(K23:M23)/COUNT(K23:M23)</f>
+        <v>0.57053038954735003</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.75176377932230998</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0.78768475453058995</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0.84885949611664002</v>
+      </c>
+      <c r="R23" s="11">
+        <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
+        <v>0.79610267665651335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.55652589797973995</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.57265315055846999</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.55273129940032995</v>
+      </c>
+      <c r="F24" s="11">
+        <f>SUM(C24:E24)/COUNT(C24:E24)</f>
+        <v>0.56063678264618</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2.2740010142327001</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2.2856835031509002</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2.2894560313225001</v>
+      </c>
+      <c r="J24" s="11">
+        <f>SUM(G24:I24)/COUNT(G24:I24)</f>
+        <v>2.2830468495687</v>
+      </c>
+      <c r="K24" s="10">
+        <v>4.6694439303874997</v>
+      </c>
+      <c r="L24" s="10">
+        <v>4.5749511063099</v>
+      </c>
+      <c r="M24" s="10">
+        <v>4.5856848680973004</v>
+      </c>
+      <c r="N24" s="11">
+        <f>SUM(K24:M24)/COUNT(K24:M24)</f>
+        <v>4.6100266349315673</v>
+      </c>
+      <c r="O24" s="10">
+        <v>7.6153397981325996</v>
+      </c>
+      <c r="P24" s="10">
+        <v>6.8482379635174997</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>6.5544489558538004</v>
+      </c>
+      <c r="R24" s="11">
+        <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
+        <v>7.0060089058346335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12">
+        <v>9.9382291555404993</v>
+      </c>
+      <c r="D25" s="12">
+        <v>9.7032833933829998</v>
+      </c>
+      <c r="E25" s="12">
+        <v>9.6119048953055994</v>
+      </c>
+      <c r="F25" s="11">
+        <f>SUM(C25:E25)/COUNT(C25:E25)</f>
+        <v>9.7511391480763674</v>
+      </c>
+      <c r="G25" s="12">
+        <v>44.869167962074002</v>
+      </c>
+      <c r="H25" s="12">
+        <v>45.470930807590001</v>
+      </c>
+      <c r="I25" s="12">
+        <v>43.973211901188002</v>
+      </c>
+      <c r="J25" s="11">
+        <f>SUM(G25:I25)/COUNT(G25:I25)</f>
+        <v>44.771103556950663</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" ht="15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IW29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1"/>
+    <col min="3" max="5" width="11.7109375" style="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="11.7109375" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="13" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9236,56 +10519,56 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>1.4314889907836999E-3</v>
+        <v>7.2529315948485999E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>1.5480637550354E-3</v>
+        <v>7.2181224822998004E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>2.1039724349976E-3</v>
+        <v>1.1953115463257001E-2</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
-        <v>1.6945083936055667E-3</v>
+        <v>8.8080565134684655E-3</v>
       </c>
       <c r="G3" s="3">
-        <v>5.9571576118468998E-3</v>
+        <v>3.5267019271850997E-2</v>
       </c>
       <c r="H3" s="3">
-        <v>6.5603828430176002E-3</v>
+        <v>4.3829584121703999E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>1.8043019771576001E-2</v>
+        <v>0.26657886505126999</v>
       </c>
       <c r="J3" s="4">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
-        <v>1.0186853408813501E-2</v>
+        <v>0.115225156148275</v>
       </c>
       <c r="K3" s="3">
-        <v>1.1732988357543999E-2</v>
+        <v>6.5957403182983002E-2</v>
       </c>
       <c r="L3" s="3">
-        <v>1.0993567705154E-2</v>
+        <v>6.3758063316344996E-2</v>
       </c>
       <c r="M3" s="3">
-        <v>1.1247303485870001E-2</v>
+        <v>6.3716888427734E-2</v>
       </c>
       <c r="N3" s="4">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
-        <v>1.1324619849522669E-2</v>
+        <v>6.4477451642354008E-2</v>
       </c>
       <c r="O3" s="3">
-        <v>1.706546386083E-2</v>
+        <v>0.10858422915141</v>
       </c>
       <c r="P3" s="3">
-        <v>1.6357367833455001E-2</v>
+        <v>0.11337777773539</v>
       </c>
       <c r="Q3" s="3">
-        <v>1.8675497372945001E-2</v>
+        <v>0.1147606531779</v>
       </c>
       <c r="R3" s="4">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
-        <v>1.7366109689076668E-2</v>
+        <v>0.11224088668823334</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -9293,56 +10576,56 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>5.2937984466553002E-3</v>
+        <v>2.3689985275268999E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>5.2482366561889997E-3</v>
+        <v>2.4049997329712001E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>5.3282499313353996E-3</v>
+        <v>2.3747920989989998E-2</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
-        <v>5.2900950113932326E-3</v>
+        <v>2.3829301198323664E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>2.8295629024505001E-2</v>
+        <v>0.13800163269043</v>
       </c>
       <c r="H4" s="3">
-        <v>2.3424656391144001E-2</v>
+        <v>0.10595703125</v>
       </c>
       <c r="I4" s="3">
-        <v>2.336040019989E-2</v>
+        <v>0.10407118797301999</v>
       </c>
       <c r="J4" s="4">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
-        <v>2.5026895205179669E-2</v>
+        <v>0.11600995063781666</v>
       </c>
       <c r="K4" s="3">
-        <v>5.2147893905640001E-2</v>
+        <v>0.25194811820983998</v>
       </c>
       <c r="L4" s="3">
-        <v>4.9582679271698002E-2</v>
+        <v>0.24391353130341001</v>
       </c>
       <c r="M4" s="3">
-        <v>4.8338645696640002E-2</v>
+        <v>0.21619493961333999</v>
       </c>
       <c r="N4" s="4">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
-        <v>5.0023072957992666E-2</v>
+        <v>0.23735219637552998</v>
       </c>
       <c r="O4" s="3">
-        <v>7.5992599328359001E-2</v>
+        <v>0.37704892158508002</v>
       </c>
       <c r="P4" s="3">
-        <v>7.8677759965260996E-2</v>
+        <v>0.38762256304422998</v>
       </c>
       <c r="Q4" s="3">
-        <v>7.7314221858978002E-2</v>
+        <v>0.38960140546163002</v>
       </c>
       <c r="R4" s="4">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
-        <v>7.7328193717532676E-2</v>
+        <v>0.38475763003031332</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -9350,56 +10633,56 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>9.6774446964264002E-2</v>
+        <v>0.57281708717346003</v>
       </c>
       <c r="D5" s="3">
-        <v>8.0126941204071003E-2</v>
+        <v>0.33039093017577997</v>
       </c>
       <c r="E5" s="3">
-        <v>8.1580448150635004E-2</v>
+        <v>0.33272790908812999</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
-        <v>8.616061210632335E-2</v>
+        <v>0.41197864214579</v>
       </c>
       <c r="G5" s="3">
-        <v>0.42243172168731002</v>
+        <v>1.8746539115906</v>
       </c>
       <c r="H5" s="3">
-        <v>0.40363832950591999</v>
+        <v>1.7866715908051001</v>
       </c>
       <c r="I5" s="3">
-        <v>0.3905458188057</v>
+        <v>1.6307839870453</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
-        <v>0.40553862333297669</v>
+        <v>1.7640364964803332</v>
       </c>
       <c r="K5" s="3">
-        <v>0.83044283986092005</v>
+        <v>4.0690225601196</v>
       </c>
       <c r="L5" s="3">
-        <v>0.7926518535614</v>
+        <v>3.3074926376342999</v>
       </c>
       <c r="M5" s="3">
-        <v>0.79061448216438002</v>
+        <v>3.3108070135116998</v>
       </c>
       <c r="N5" s="4">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
-        <v>0.80456972519556669</v>
+        <v>3.5624407370885329</v>
       </c>
       <c r="O5" s="3">
-        <v>1.1617534240087</v>
+        <v>4.8273777961731001</v>
       </c>
       <c r="P5" s="3">
-        <v>1.184148367246</v>
+        <v>4.9529525597889998</v>
       </c>
       <c r="Q5" s="3">
-        <v>1.2018860816956001</v>
+        <v>5.1045025189717999</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
-        <v>1.1825959576500999</v>
+        <v>4.9616109583112999</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -9407,56 +10690,56 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>0.54079600572585995</v>
+        <v>2.7736988067627002</v>
       </c>
       <c r="D6" s="3">
-        <v>0.50757834911346</v>
+        <v>2.4599299430846999</v>
       </c>
       <c r="E6" s="3">
-        <v>0.52631659507751005</v>
+        <v>2.4499311447143999</v>
       </c>
       <c r="F6" s="4">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
-        <v>0.52489698330560997</v>
+        <v>2.5611866315206</v>
       </c>
       <c r="G6" s="3">
-        <v>2.3419808125496</v>
+        <v>10.80013756752</v>
       </c>
       <c r="H6" s="3">
-        <v>2.3268855214119002</v>
+        <v>10.270339775085001</v>
       </c>
       <c r="I6" s="3">
-        <v>2.2600233316420999</v>
+        <v>9.8035129547118007</v>
       </c>
       <c r="J6" s="4">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
-        <v>2.3096298885345332</v>
+        <v>10.2913300991056</v>
       </c>
       <c r="K6" s="3">
-        <v>4.7239044475555003</v>
+        <v>22.995408773422</v>
       </c>
       <c r="L6" s="3">
-        <v>4.580838047266</v>
+        <v>19.68551299572</v>
       </c>
       <c r="M6" s="3">
-        <v>4.5409740936756</v>
+        <v>19.797922396659999</v>
       </c>
       <c r="N6" s="4">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
-        <v>4.6152388628323671</v>
+        <v>20.826281388600666</v>
       </c>
       <c r="O6" s="3">
-        <v>7.0976135993004004</v>
+        <v>30.346943807601999</v>
       </c>
       <c r="P6" s="3">
-        <v>7.4384954476356997</v>
+        <v>36.315698464710998</v>
       </c>
       <c r="Q6" s="3">
-        <v>7.2649534829458</v>
+        <v>34.170119746525998</v>
       </c>
       <c r="R6" s="4">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
-        <v>7.2670208432939667</v>
+        <v>33.610920672946328</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -9464,30 +10747,30 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>8.9372336387634004</v>
+        <v>36.395166873931998</v>
       </c>
       <c r="D7" s="3">
-        <v>8.8908143758773992</v>
+        <v>36.015284776687999</v>
       </c>
       <c r="E7" s="3">
-        <v>8.8247224569321006</v>
+        <v>35.772108078003001</v>
       </c>
       <c r="F7" s="4">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
-        <v>8.8842568238576334</v>
+        <v>36.06085324287433</v>
       </c>
       <c r="G7" s="3">
-        <v>39.989624052048001</v>
+        <v>164.53409862518001</v>
       </c>
       <c r="H7" s="3">
-        <v>39.160101234913</v>
+        <v>162.02532038689</v>
       </c>
       <c r="I7" s="3">
-        <v>39.330635688305001</v>
+        <v>161.61526856423001</v>
       </c>
       <c r="J7" s="4">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
-        <v>39.493453658421998</v>
+        <v>162.72489585876667</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -9524,56 +10807,56 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>1.1092734336853E-2</v>
+        <v>4.7950029373169001E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>1.0453903675079E-2</v>
+        <v>4.4583082199096999E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0729396343231E-2</v>
+        <v>4.4539928436278999E-2</v>
       </c>
       <c r="F9" s="4">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
-        <v>1.0758678118387667E-2</v>
+        <v>4.5691013336181668E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>4.8883850574494001E-2</v>
+        <v>0.21065196990967</v>
       </c>
       <c r="H9" s="3">
-        <v>4.7141370773316003E-2</v>
+        <v>0.20160684585571001</v>
       </c>
       <c r="I9" s="3">
-        <v>4.6527798175811999E-2</v>
+        <v>0.20028495788573999</v>
       </c>
       <c r="J9" s="4">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
-        <v>4.7517673174540663E-2</v>
+        <v>0.20418125788370667</v>
       </c>
       <c r="K9" s="3">
-        <v>9.4557257890701005E-2</v>
+        <v>0.40006971359253002</v>
       </c>
       <c r="L9" s="3">
-        <v>9.6854348182678004E-2</v>
+        <v>0.42880916595459001</v>
       </c>
       <c r="M9" s="3">
-        <v>9.8737652301788006E-2</v>
+        <v>0.41465699672699002</v>
       </c>
       <c r="N9" s="4">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
-        <v>9.6716419458389005E-2</v>
+        <v>0.41451195875803665</v>
       </c>
       <c r="O9" s="3">
-        <v>0.13909464359283</v>
+        <v>0.59108333587646</v>
       </c>
       <c r="P9" s="3">
-        <v>0.14467377424239999</v>
+        <v>0.61449319521585999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.13628300666809001</v>
+        <v>0.5699603398641</v>
       </c>
       <c r="R9" s="4">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
-        <v>0.14001714150110667</v>
+        <v>0.59184562365214</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -9581,56 +10864,56 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>2.0497751235962001E-2</v>
+        <v>8.9298009872436995E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>1.9641864299773999E-2</v>
+        <v>8.7839126586913993E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>1.9841349124907998E-2</v>
+        <v>9.1475963592529005E-2</v>
       </c>
       <c r="F10" s="4">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
-        <v>1.9993654886881332E-2</v>
+        <v>8.9537700017293331E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>8.2397851943969994E-2</v>
+        <v>0.41370339393616001</v>
       </c>
       <c r="H10" s="3">
-        <v>8.0024123191833996E-2</v>
+        <v>0.36026096343994002</v>
       </c>
       <c r="I10" s="3">
-        <v>8.0256638526917001E-2</v>
+        <v>0.35251493453978999</v>
       </c>
       <c r="J10" s="4">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
-        <v>8.0892871220906992E-2</v>
+        <v>0.37549309730529662</v>
       </c>
       <c r="K10" s="3">
-        <v>0.13808512806892001</v>
+        <v>0.59704129695892005</v>
       </c>
       <c r="L10" s="3">
-        <v>0.14780307650565999</v>
+        <v>0.64298689365386996</v>
       </c>
       <c r="M10" s="3">
-        <v>0.14866646289825</v>
+        <v>0.65656580924987995</v>
       </c>
       <c r="N10" s="4">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
-        <v>0.14485155582427667</v>
+        <v>0.63219799995422343</v>
       </c>
       <c r="O10" s="3">
-        <v>0.21419168790181001</v>
+        <v>0.91969916025798004</v>
       </c>
       <c r="P10" s="3">
-        <v>0.21193301518758001</v>
+        <v>0.93027995427450005</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.20444893519084001</v>
+        <v>0.88860406875609999</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
-        <v>0.21019121276007668</v>
+        <v>0.91286106109619336</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -9638,56 +10921,56 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>0.10351920127869001</v>
+        <v>0.46341013908385997</v>
       </c>
       <c r="D11" s="3">
-        <v>0.10134074687958</v>
+        <v>0.42142009735107</v>
       </c>
       <c r="E11" s="3">
-        <v>0.10104925632477001</v>
+        <v>0.42274618148804</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
-        <v>0.10196973482768001</v>
+        <v>0.43585880597432336</v>
       </c>
       <c r="G11" s="3">
-        <v>0.42700060129166001</v>
+        <v>1.8653461933136</v>
       </c>
       <c r="H11" s="3">
-        <v>0.42195760488509998</v>
+        <v>1.8447131156920999</v>
       </c>
       <c r="I11" s="3">
-        <v>0.40732970237732002</v>
+        <v>1.8550609588622999</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
-        <v>0.41876263618469328</v>
+        <v>1.8550400892893333</v>
       </c>
       <c r="K11" s="3">
-        <v>0.73813594698906004</v>
+        <v>3.1129492044449001</v>
       </c>
       <c r="L11" s="3">
-        <v>0.74352227687836003</v>
+        <v>3.1052729129791001</v>
       </c>
       <c r="M11" s="3">
-        <v>0.76027686834334995</v>
+        <v>3.3289674043655002</v>
       </c>
       <c r="N11" s="4">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
-        <v>0.74731169740358994</v>
+        <v>3.1823965072631668</v>
       </c>
       <c r="O11" s="3">
-        <v>1.2384808452924001</v>
+        <v>6.9738423665363998</v>
       </c>
       <c r="P11" s="3">
-        <v>1.4442740766207001</v>
+        <v>8.0030083497365005</v>
       </c>
       <c r="Q11" s="3">
-        <v>1.250464776357</v>
+        <v>5.7749861558277997</v>
       </c>
       <c r="R11" s="4">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
-        <v>1.3110732327567001</v>
+        <v>6.9172789573669</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -9695,56 +10978,56 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>0.76854524612427</v>
+        <v>3.4592239856720002</v>
       </c>
       <c r="D12" s="3">
-        <v>0.76273882389069003</v>
+        <v>3.4055318832396999</v>
       </c>
       <c r="E12" s="3">
-        <v>0.77157107591629004</v>
+        <v>3.4218561649322998</v>
       </c>
       <c r="F12" s="4">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
-        <v>0.76761838197708332</v>
+        <v>3.4288706779480003</v>
       </c>
       <c r="G12" s="3">
-        <v>3.464377322197</v>
+        <v>18.312743711471999</v>
       </c>
       <c r="H12" s="3">
-        <v>3.3437757754325999</v>
+        <v>16.547928762436001</v>
       </c>
       <c r="I12" s="3">
-        <v>3.2827260613442002</v>
+        <v>15.521381235123</v>
       </c>
       <c r="J12" s="4">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
-        <v>3.3636263863245994</v>
+        <v>16.794017903010332</v>
       </c>
       <c r="K12" s="3">
-        <v>6.5403406131267996</v>
+        <v>33.630316114426002</v>
       </c>
       <c r="L12" s="3">
-        <v>6.4307137799263003</v>
+        <v>32.721774148941002</v>
       </c>
       <c r="M12" s="3">
-        <v>6.2527921497822003</v>
+        <v>31.199522995949</v>
       </c>
       <c r="N12" s="4">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
-        <v>6.4079488476117668</v>
+        <v>32.517204419772</v>
       </c>
       <c r="O12" s="3">
-        <v>9.6602633118629999</v>
+        <v>46.234833796818997</v>
       </c>
       <c r="P12" s="3">
-        <v>10.297345153490999</v>
+        <v>47.887095514933002</v>
       </c>
       <c r="Q12" s="3">
-        <v>9.9281050960222998</v>
+        <v>55.294899241129997</v>
       </c>
       <c r="R12" s="4">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
-        <v>9.9619045204587664</v>
+        <v>49.805609517627339</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -9752,30 +11035,30 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>9.7782281160354998</v>
+        <v>39.942064046859997</v>
       </c>
       <c r="D13" s="3">
-        <v>9.8242827534675996</v>
+        <v>39.89732003212</v>
       </c>
       <c r="E13" s="3">
-        <v>9.9103976964950995</v>
+        <v>40.802585124968999</v>
       </c>
       <c r="F13" s="4">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
-        <v>9.8376361886660657</v>
+        <v>40.213989734649665</v>
       </c>
       <c r="G13" s="3">
-        <v>46.598385419845997</v>
+        <v>206.99452590943</v>
       </c>
       <c r="H13" s="3">
-        <v>45.270132610798001</v>
+        <v>208.19823722839999</v>
       </c>
       <c r="I13" s="3">
-        <v>44.744133553505002</v>
+        <v>204.47934961319001</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
-        <v>45.537550528049671</v>
+        <v>206.55737091700666</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -9812,56 +11095,56 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>1.6363620758057E-3</v>
+        <v>7.8480243682860999E-3</v>
       </c>
       <c r="D15" s="3">
-        <v>1.5945434570311999E-3</v>
+        <v>7.8988075256348003E-3</v>
       </c>
       <c r="E15" s="3">
-        <v>1.8693089485167999E-3</v>
+        <v>1.0045051574707E-2</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
-        <v>1.7000714937845665E-3</v>
+        <v>8.5972944895426322E-3</v>
       </c>
       <c r="G15" s="3">
-        <v>6.8293523788452003E-3</v>
+        <v>5.0973653793335003E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>5.7006764411925998E-3</v>
+        <v>3.0906105041504001E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>5.5376458168030001E-3</v>
+        <v>2.9773759841919E-2</v>
       </c>
       <c r="J15" s="4">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
-        <v>6.0225582122802671E-3</v>
+        <v>3.7217839558919337E-2</v>
       </c>
       <c r="K15" s="3">
-        <v>1.5425872802733999E-2</v>
+        <v>0.12633295059204</v>
       </c>
       <c r="L15" s="3">
-        <v>1.4411270618439E-2</v>
+        <v>0.11819014549255</v>
       </c>
       <c r="M15" s="3">
-        <v>1.3256870508193999E-2</v>
+        <v>8.8585734367370994E-2</v>
       </c>
       <c r="N15" s="4">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
-        <v>1.4364671309789001E-2</v>
+        <v>0.11103627681732033</v>
       </c>
       <c r="O15" s="3">
-        <v>1.9928598403930999E-2</v>
+        <v>0.11665954589844001</v>
       </c>
       <c r="P15" s="3">
-        <v>2.0515057245889999E-2</v>
+        <v>0.15495767593383999</v>
       </c>
       <c r="Q15" s="3">
-        <v>1.8711342811584E-2</v>
+        <v>0.13692493438721001</v>
       </c>
       <c r="R15" s="4">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
-        <v>1.9718332820468334E-2</v>
+        <v>0.13618071873982998</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -9872,56 +11155,56 @@
         <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>6.2947154045105E-3</v>
+        <v>2.8334140777588002E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>6.3360452651977997E-3</v>
+        <v>2.7240037918091001E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>6.7602038383483996E-3</v>
+        <v>3.1787157058716001E-2</v>
       </c>
       <c r="F16" s="4">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
-        <v>6.4636548360189E-3</v>
+        <v>2.9120445251465E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>2.7417945861816999E-2</v>
+        <v>0.12788996696471999</v>
       </c>
       <c r="H16" s="3">
-        <v>2.701979637146E-2</v>
+        <v>0.13751921653747001</v>
       </c>
       <c r="I16" s="3">
-        <v>2.5766286849975999E-2</v>
+        <v>0.12713637351990001</v>
       </c>
       <c r="J16" s="4">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
-        <v>2.6734676361084331E-2</v>
+        <v>0.13084851900736336</v>
       </c>
       <c r="K16" s="3">
-        <v>4.8534736633300997E-2</v>
+        <v>0.25247685909271</v>
       </c>
       <c r="L16" s="3">
-        <v>4.9193084239960001E-2</v>
+        <v>0.25813038349152001</v>
       </c>
       <c r="M16" s="3">
-        <v>4.6975312232971002E-2</v>
+        <v>0.22794213294983001</v>
       </c>
       <c r="N16" s="4">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
-        <v>4.8234377702077336E-2</v>
+        <v>0.24618312517802002</v>
       </c>
       <c r="O16" s="3">
-        <v>7.0586326122283993E-2</v>
+        <v>0.35138460795085003</v>
       </c>
       <c r="P16" s="3">
-        <v>8.6491499741871994E-2</v>
+        <v>0.40709544817607002</v>
       </c>
       <c r="Q16" s="3">
-        <v>7.5366777578990005E-2</v>
+        <v>0.36049739519754997</v>
       </c>
       <c r="R16" s="4">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
-        <v>7.7481534481048664E-2</v>
+        <v>0.3729924837748233</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -9929,56 +11212,56 @@
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>7.1071159839629999E-2</v>
+        <v>0.28946495056152</v>
       </c>
       <c r="D17" s="3">
-        <v>6.8565058708191004E-2</v>
+        <v>0.29322409629821999</v>
       </c>
       <c r="E17" s="3">
-        <v>7.2012400627136E-2</v>
+        <v>0.29872417449951</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
-        <v>7.0549539724985663E-2</v>
+        <v>0.29380440711975003</v>
       </c>
       <c r="G17" s="3">
-        <v>0.26593747138976997</v>
+        <v>1.1922716140747001</v>
       </c>
       <c r="H17" s="3">
-        <v>0.26884125232696998</v>
+        <v>1.1498569965362</v>
       </c>
       <c r="I17" s="3">
-        <v>0.26608824968338002</v>
+        <v>1.1194800376892</v>
       </c>
       <c r="J17" s="4">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
-        <v>0.26695565780003999</v>
+        <v>1.1538695494333668</v>
       </c>
       <c r="K17" s="3">
-        <v>0.52250066995621003</v>
+        <v>2.1932008028030001</v>
       </c>
       <c r="L17" s="3">
-        <v>0.54413822650910004</v>
+        <v>2.3419580936431998</v>
       </c>
       <c r="M17" s="3">
-        <v>0.49347644805907998</v>
+        <v>2.0660638093947998</v>
       </c>
       <c r="N17" s="4">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
-        <v>0.52003844817479672</v>
+        <v>2.2004075686136666</v>
       </c>
       <c r="O17" s="3">
-        <v>0.79085032304128</v>
+        <v>3.3252289930979</v>
       </c>
       <c r="P17" s="3">
-        <v>0.79578838586806999</v>
+        <v>3.2887267589569</v>
       </c>
       <c r="Q17" s="3">
-        <v>0.80515870094299002</v>
+        <v>3.5162612597148</v>
       </c>
       <c r="R17" s="4">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
-        <v>0.79726580328411334</v>
+        <v>3.3767390039231997</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -9986,56 +11269,56 @@
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>0.54750174283981001</v>
+        <v>2.5863378047943</v>
       </c>
       <c r="D18" s="3">
-        <v>0.54565908908843996</v>
+        <v>2.5435888767242001</v>
       </c>
       <c r="E18" s="3">
-        <v>0.53927814960480003</v>
+        <v>2.5681610107421999</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
-        <v>0.5441463271776833</v>
+        <v>2.5660292307535664</v>
       </c>
       <c r="G18" s="3">
-        <v>2.3400007390975999</v>
+        <v>11.233117055893</v>
       </c>
       <c r="H18" s="3">
-        <v>2.2978602719307002</v>
+        <v>11.431131076812999</v>
       </c>
       <c r="I18" s="3">
-        <v>2.3201752424239999</v>
+        <v>11.202819633483999</v>
       </c>
       <c r="J18" s="4">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
-        <v>2.3193454178174333</v>
+        <v>11.289022588729999</v>
       </c>
       <c r="K18" s="3">
-        <v>4.5642453157901999</v>
+        <v>25.306958389281998</v>
       </c>
       <c r="L18" s="3">
-        <v>4.6499361646175004</v>
+        <v>22.278060340881002</v>
       </c>
       <c r="M18" s="3">
-        <v>4.3088773608207998</v>
+        <v>21.07271630764</v>
       </c>
       <c r="N18" s="4">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
-        <v>4.5076862804094997</v>
+        <v>22.885911679267668</v>
       </c>
       <c r="O18" s="3">
-        <v>6.7723919526736003</v>
+        <v>31.822139803568</v>
       </c>
       <c r="P18" s="3">
-        <v>7.0252479306857003</v>
+        <v>31.112723811466999</v>
       </c>
       <c r="Q18" s="3">
-        <v>6.7403890665372002</v>
+        <v>31.022836780548001</v>
       </c>
       <c r="R18" s="4">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
-        <v>6.8460096499654997</v>
+        <v>31.319233465194333</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -10043,30 +11326,30 @@
         <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>11.678508663177</v>
+        <v>79.294433116912998</v>
       </c>
       <c r="D19" s="5">
-        <v>9.6371009588242007</v>
+        <v>38.984266042709002</v>
       </c>
       <c r="E19" s="5">
-        <v>9.6616981029510001</v>
+        <v>38.904347896575999</v>
       </c>
       <c r="F19" s="4">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
-        <v>10.325769241650734</v>
+        <v>52.394349018732669</v>
       </c>
       <c r="G19" s="5">
-        <v>44.064142446517998</v>
+        <v>189.88638706207001</v>
       </c>
       <c r="H19" s="5">
-        <v>45.345670368671001</v>
+        <v>203.97909016609</v>
       </c>
       <c r="I19" s="5">
-        <v>45.287153987884999</v>
+        <v>198.63712701797999</v>
       </c>
       <c r="J19" s="4">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
-        <v>44.898988934357995</v>
+        <v>197.50086808204665</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -10103,56 +11386,56 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>1.7413854598999001E-3</v>
+        <v>8.2938671112060998E-3</v>
       </c>
       <c r="D21" s="3">
-        <v>2.2881984710692999E-3</v>
+        <v>1.9883871078490999E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>1.9649028778076002E-3</v>
+        <v>1.0454893112183001E-2</v>
       </c>
       <c r="F21" s="4">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
-        <v>1.9981622695922669E-3</v>
+        <v>1.2877543767293366E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>5.7175612449646002E-3</v>
+        <v>3.2240056991576997E-2</v>
       </c>
       <c r="H21" s="3">
-        <v>5.4580068588257003E-3</v>
+        <v>2.9556608200073001E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>7.2121524810790996E-3</v>
+        <v>4.2261219024658001E-2</v>
       </c>
       <c r="J21" s="4">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
-        <v>6.1292401949564661E-3</v>
+        <v>3.4685961405435999E-2</v>
       </c>
       <c r="K21" s="3">
-        <v>1.1682239770889001E-2</v>
+        <v>7.0954108238220001E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>1.3195636272431E-2</v>
+        <v>7.5200557708739998E-2</v>
       </c>
       <c r="M21" s="3">
-        <v>1.1768789291382E-2</v>
+        <v>6.6626048088074E-2</v>
       </c>
       <c r="N21" s="4">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
-        <v>1.2215555111567333E-2</v>
+        <v>7.0926904678344671E-2</v>
       </c>
       <c r="O21" s="3">
-        <v>1.9460439682006999E-2</v>
+        <v>0.11761468251546001</v>
       </c>
       <c r="P21" s="3">
-        <v>1.8259693781535E-2</v>
+        <v>0.11127301851908</v>
       </c>
       <c r="Q21" s="3">
-        <v>1.7330631415049001E-2</v>
+        <v>0.10422490437826</v>
       </c>
       <c r="R21" s="4">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
-        <v>1.8350254959530334E-2</v>
+        <v>0.11103753513760001</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -10163,56 +11446,56 @@
         <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>6.0477614402771E-3</v>
+        <v>2.6512145996094E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>6.5787434577941999E-3</v>
+        <v>3.1292915344237997E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>6.5038442611694003E-3</v>
+        <v>3.071403503418E-2</v>
       </c>
       <c r="F22" s="4">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
-        <v>6.3767830530802342E-3</v>
+        <v>2.9506365458170664E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>2.7889678478241E-2</v>
+        <v>0.13429083824158</v>
       </c>
       <c r="H22" s="3">
-        <v>2.6308827400207999E-2</v>
+        <v>0.13121619224548001</v>
       </c>
       <c r="I22" s="3">
-        <v>3.1436080932617003E-2</v>
+        <v>0.16669764518738001</v>
       </c>
       <c r="J22" s="4">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
-        <v>2.8544862270355336E-2</v>
+        <v>0.14406822522481336</v>
       </c>
       <c r="K22" s="3">
-        <v>5.5970176458359E-2</v>
+        <v>0.31163783073425</v>
       </c>
       <c r="L22" s="3">
-        <v>6.5652630329132003E-2</v>
+        <v>0.55145773887634997</v>
       </c>
       <c r="M22" s="3">
-        <v>4.7767397165299E-2</v>
+        <v>0.24426610469818</v>
       </c>
       <c r="N22" s="4">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
-        <v>5.6463401317596668E-2</v>
+        <v>0.36912055810292665</v>
       </c>
       <c r="O22" s="3">
-        <v>7.2505015532176004E-2</v>
+        <v>0.37040146191915002</v>
       </c>
       <c r="P22" s="3">
-        <v>7.4697585105895997E-2</v>
+        <v>0.35832185745238998</v>
       </c>
       <c r="Q22" s="3">
-        <v>8.0517635345458999E-2</v>
+        <v>0.45862773259480999</v>
       </c>
       <c r="R22" s="4">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
-        <v>7.5906745327843667E-2</v>
+        <v>0.39578368398878333</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -10220,56 +11503,56 @@
         <v>11</v>
       </c>
       <c r="C23" s="3">
-        <v>7.7894556522368999E-2</v>
+        <v>0.36653804779053001</v>
       </c>
       <c r="D23" s="3">
-        <v>8.2943093776703003E-2</v>
+        <v>0.41377687454223999</v>
       </c>
       <c r="E23" s="3">
-        <v>8.7105810642242001E-2</v>
+        <v>0.60754418373107999</v>
       </c>
       <c r="F23" s="4">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
-        <v>8.2647820313771325E-2</v>
+        <v>0.46261970202128327</v>
       </c>
       <c r="G23" s="3">
-        <v>0.29246419191360001</v>
+        <v>1.3559296131134</v>
       </c>
       <c r="H23" s="3">
-        <v>0.29269207715987999</v>
+        <v>1.2252017498015999</v>
       </c>
       <c r="I23" s="3">
-        <v>0.30437308073044</v>
+        <v>1.3626742362976001</v>
       </c>
       <c r="J23" s="4">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
-        <v>0.29650978326797334</v>
+        <v>1.3146018664041998</v>
       </c>
       <c r="K23" s="3">
-        <v>0.61388147592544995</v>
+        <v>2.7777417898177998</v>
       </c>
       <c r="L23" s="3">
-        <v>0.55080269932746995</v>
+        <v>2.4877586364746</v>
       </c>
       <c r="M23" s="3">
-        <v>0.54690699338912996</v>
+        <v>2.3611316919326999</v>
       </c>
       <c r="N23" s="4">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
-        <v>0.57053038954735003</v>
+        <v>2.5422107060750334</v>
       </c>
       <c r="O23" s="3">
-        <v>0.75176377932230998</v>
+        <v>3.3741455872853998</v>
       </c>
       <c r="P23" s="3">
-        <v>0.78768475453058995</v>
+        <v>3.3618197441100999</v>
       </c>
       <c r="Q23" s="3">
-        <v>0.84885949611664002</v>
+        <v>3.8807011763255002</v>
       </c>
       <c r="R23" s="4">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
-        <v>0.79610267665651335</v>
+        <v>3.5388888359070001</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -10277,56 +11560,56 @@
         <v>12</v>
       </c>
       <c r="C24" s="3">
-        <v>0.55652589797973995</v>
+        <v>2.5659189224243</v>
       </c>
       <c r="D24" s="3">
-        <v>0.57265315055846999</v>
+        <v>2.5739328861236999</v>
       </c>
       <c r="E24" s="3">
-        <v>0.55273129940032995</v>
+        <v>2.5189740657806001</v>
       </c>
       <c r="F24" s="4">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
-        <v>0.56063678264618</v>
+        <v>2.5529419581095336</v>
       </c>
       <c r="G24" s="3">
-        <v>2.2740010142327001</v>
+        <v>10.921091556548999</v>
       </c>
       <c r="H24" s="3">
-        <v>2.2856835031509002</v>
+        <v>11.353821754456</v>
       </c>
       <c r="I24" s="3">
-        <v>2.2894560313225001</v>
+        <v>11.35698094368</v>
       </c>
       <c r="J24" s="4">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
-        <v>2.2830468495687</v>
+        <v>11.210631418228333</v>
       </c>
       <c r="K24" s="3">
-        <v>4.6694439303874997</v>
+        <v>23.484414839744002</v>
       </c>
       <c r="L24" s="3">
-        <v>4.5749511063099</v>
+        <v>22.550415802002</v>
       </c>
       <c r="M24" s="3">
-        <v>4.5856848680973004</v>
+        <v>23.329129576682998</v>
       </c>
       <c r="N24" s="4">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
-        <v>4.6100266349315673</v>
+        <v>23.121320072809667</v>
       </c>
       <c r="O24" s="3">
-        <v>7.6153397981325996</v>
+        <v>34.786128282546997</v>
       </c>
       <c r="P24" s="3">
-        <v>6.8482379635174997</v>
+        <v>34.930746475855997</v>
       </c>
       <c r="Q24" s="3">
-        <v>6.5544489558538004</v>
+        <v>31.795294602712001</v>
       </c>
       <c r="R24" s="4">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
-        <v>7.0060089058346335</v>
+        <v>33.837389787038333</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -10334,30 +11617,30 @@
         <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>9.9382291555404993</v>
+        <v>44.711110115051</v>
       </c>
       <c r="D25" s="5">
-        <v>9.7032833933829998</v>
+        <v>39.505669116973998</v>
       </c>
       <c r="E25" s="5">
-        <v>9.6119048953055994</v>
+        <v>38.628494977951</v>
       </c>
       <c r="F25" s="4">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
-        <v>9.7511391480763674</v>
+        <v>40.948424736658666</v>
       </c>
       <c r="G25" s="5">
-        <v>44.869167962074002</v>
+        <v>205.50356354713</v>
       </c>
       <c r="H25" s="5">
-        <v>45.470930807590001</v>
+        <v>211.71452279091</v>
       </c>
       <c r="I25" s="5">
-        <v>43.973211901188002</v>
+        <v>199.37117462158</v>
       </c>
       <c r="J25" s="4">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
-        <v>44.771103556950663</v>
+        <v>205.52975365320665</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -10403,7 +11686,7 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -10412,12 +11695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10425,11 +11708,11 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.5703125" style="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1"/>
     <col min="15" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -10517,56 +11800,56 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>7.2529315948485999E-3</v>
+        <v>2.8629779815674002E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>7.2181224822998004E-3</v>
+        <v>3.0961275100708001E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>1.1953115463257001E-2</v>
+        <v>4.2079448699950998E-2</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
-        <v>8.8080565134684655E-3</v>
+        <v>3.3890167872111E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>3.5267019271850997E-2</v>
+        <v>0.11914315223694</v>
       </c>
       <c r="H3" s="3">
-        <v>4.3829584121703999E-2</v>
+        <v>0.13120765686034999</v>
       </c>
       <c r="I3" s="3">
-        <v>0.26657886505126999</v>
+        <v>0.36086039543151999</v>
       </c>
       <c r="J3" s="4">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
-        <v>0.115225156148275</v>
+        <v>0.20373706817627002</v>
       </c>
       <c r="K3" s="3">
-        <v>6.5957403182983002E-2</v>
+        <v>0.23465976715087999</v>
       </c>
       <c r="L3" s="3">
-        <v>6.3758063316344996E-2</v>
+        <v>0.21987135410309</v>
       </c>
       <c r="M3" s="3">
-        <v>6.3716888427734E-2</v>
+        <v>0.22494606971740999</v>
       </c>
       <c r="N3" s="4">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
-        <v>6.4477451642354008E-2</v>
+        <v>0.22649239699045998</v>
       </c>
       <c r="O3" s="3">
-        <v>0.10858422915141</v>
+        <v>0.34130927721658999</v>
       </c>
       <c r="P3" s="3">
-        <v>0.11337777773539</v>
+        <v>0.32714735666910999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1147606531779</v>
+        <v>0.37350994745889998</v>
       </c>
       <c r="R3" s="4">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
-        <v>0.11224088668823334</v>
+        <v>0.34732219378153334</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10574,56 +11857,56 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>2.3689985275268999E-2</v>
+        <v>0.10587596893311001</v>
       </c>
       <c r="D4" s="3">
-        <v>2.4049997329712001E-2</v>
+        <v>0.10496473312378</v>
       </c>
       <c r="E4" s="3">
-        <v>2.3747920989989998E-2</v>
+        <v>0.10656499862671</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
-        <v>2.3829301198323664E-2</v>
+        <v>0.10580190022786667</v>
       </c>
       <c r="G4" s="3">
-        <v>0.13800163269043</v>
+        <v>0.56591258049010995</v>
       </c>
       <c r="H4" s="3">
-        <v>0.10595703125</v>
+        <v>0.46849312782288</v>
       </c>
       <c r="I4" s="3">
-        <v>0.10407118797301999</v>
+        <v>0.46720800399779999</v>
       </c>
       <c r="J4" s="4">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
-        <v>0.11600995063781666</v>
+        <v>0.50053790410359666</v>
       </c>
       <c r="K4" s="3">
-        <v>0.25194811820983998</v>
+        <v>1.0429578781127999</v>
       </c>
       <c r="L4" s="3">
-        <v>0.24391353130341001</v>
+        <v>0.99165358543395998</v>
       </c>
       <c r="M4" s="3">
-        <v>0.21619493961333999</v>
+        <v>0.96677291393279996</v>
       </c>
       <c r="N4" s="4">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
-        <v>0.23735219637552998</v>
+        <v>1.0004614591598533</v>
       </c>
       <c r="O4" s="3">
-        <v>0.37704892158508002</v>
+        <v>1.5198519865672</v>
       </c>
       <c r="P4" s="3">
-        <v>0.38762256304422998</v>
+        <v>1.5735551993051999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.38960140546163002</v>
+        <v>1.5462844371796001</v>
       </c>
       <c r="R4" s="4">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
-        <v>0.38475763003031332</v>
+        <v>1.5465638743506667</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10631,56 +11914,56 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>0.57281708717346003</v>
+        <v>1.9354889392853001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.33039093017577997</v>
+        <v>1.6025388240814</v>
       </c>
       <c r="E5" s="3">
-        <v>0.33272790908812999</v>
+        <v>1.6316089630127</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
-        <v>0.41197864214579</v>
+        <v>1.7232122421264666</v>
       </c>
       <c r="G5" s="3">
-        <v>1.8746539115906</v>
+        <v>8.4486344337462995</v>
       </c>
       <c r="H5" s="3">
-        <v>1.7866715908051001</v>
+        <v>8.0727665901184</v>
       </c>
       <c r="I5" s="3">
-        <v>1.6307839870453</v>
+        <v>7.8109163761138998</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
-        <v>1.7640364964803332</v>
+        <v>8.1107724666595331</v>
       </c>
       <c r="K5" s="3">
-        <v>4.0690225601196</v>
+        <v>16.608856797217999</v>
       </c>
       <c r="L5" s="3">
-        <v>3.3074926376342999</v>
+        <v>15.853037071228</v>
       </c>
       <c r="M5" s="3">
-        <v>3.3108070135116998</v>
+        <v>15.812289643288</v>
       </c>
       <c r="N5" s="4">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
-        <v>3.5624407370885329</v>
+        <v>16.091394503911332</v>
       </c>
       <c r="O5" s="3">
-        <v>4.8273777961731001</v>
+        <v>23.235068480174</v>
       </c>
       <c r="P5" s="3">
-        <v>4.9529525597889998</v>
+        <v>23.682967344920002</v>
       </c>
       <c r="Q5" s="3">
-        <v>5.1045025189717999</v>
+        <v>24.037721633911001</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
-        <v>4.9616109583112999</v>
+        <v>23.651919153001668</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -10688,56 +11971,56 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>2.7736988067627002</v>
+        <v>10.815920114517001</v>
       </c>
       <c r="D6" s="3">
-        <v>2.4599299430846999</v>
+        <v>10.151566982268999</v>
       </c>
       <c r="E6" s="3">
-        <v>2.4499311447143999</v>
+        <v>10.52633190155</v>
       </c>
       <c r="F6" s="4">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
-        <v>2.5611866315206</v>
+        <v>10.497939666112002</v>
       </c>
       <c r="G6" s="3">
-        <v>10.80013756752</v>
+        <v>46.839616250992002</v>
       </c>
       <c r="H6" s="3">
-        <v>10.270339775085001</v>
+        <v>46.537710428238</v>
       </c>
       <c r="I6" s="3">
-        <v>9.8035129547118007</v>
+        <v>45.200466632843003</v>
       </c>
       <c r="J6" s="4">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
-        <v>10.2913300991056</v>
+        <v>46.192597770691009</v>
       </c>
       <c r="K6" s="3">
-        <v>22.995408773422</v>
+        <v>94.478088951111005</v>
       </c>
       <c r="L6" s="3">
-        <v>19.68551299572</v>
+        <v>91.616760945319996</v>
       </c>
       <c r="M6" s="3">
-        <v>19.797922396659999</v>
+        <v>90.819481873512004</v>
       </c>
       <c r="N6" s="4">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
-        <v>20.826281388600666</v>
+        <v>92.304777256647682</v>
       </c>
       <c r="O6" s="3">
-        <v>30.346943807601999</v>
+        <v>141.95227198601</v>
       </c>
       <c r="P6" s="3">
-        <v>36.315698464710998</v>
+        <v>148.76990895271001</v>
       </c>
       <c r="Q6" s="3">
-        <v>34.170119746525998</v>
+        <v>145.29906965891999</v>
       </c>
       <c r="R6" s="4">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
-        <v>33.610920672946328</v>
+        <v>145.34041686588</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10745,30 +12028,30 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>36.395166873931998</v>
+        <v>178.74467277527</v>
       </c>
       <c r="D7" s="3">
-        <v>36.015284776687999</v>
+        <v>177.81628751754999</v>
       </c>
       <c r="E7" s="3">
-        <v>35.772108078003001</v>
+        <v>176.49444913863999</v>
       </c>
       <c r="F7" s="4">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
-        <v>36.06085324287433</v>
+        <v>177.68513647715335</v>
       </c>
       <c r="G7" s="3">
-        <v>164.53409862518001</v>
+        <v>799.79248104094995</v>
       </c>
       <c r="H7" s="3">
-        <v>162.02532038689</v>
+        <v>783.20202469825995</v>
       </c>
       <c r="I7" s="3">
-        <v>161.61526856423001</v>
+        <v>786.6127137661</v>
       </c>
       <c r="J7" s="4">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
-        <v>162.72489585876667</v>
+        <v>789.86907316843656</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -10805,56 +12088,56 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>4.7950029373169001E-2</v>
+        <v>0.22185468673705999</v>
       </c>
       <c r="D9" s="3">
-        <v>4.4583082199096999E-2</v>
+        <v>0.20907807350158999</v>
       </c>
       <c r="E9" s="3">
-        <v>4.4539928436278999E-2</v>
+        <v>0.21458792686462</v>
       </c>
       <c r="F9" s="4">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
-        <v>4.5691013336181668E-2</v>
+        <v>0.21517356236775667</v>
       </c>
       <c r="G9" s="3">
-        <v>0.21065196990967</v>
+        <v>0.97767701148986996</v>
       </c>
       <c r="H9" s="3">
-        <v>0.20160684585571001</v>
+        <v>0.94282741546630999</v>
       </c>
       <c r="I9" s="3">
-        <v>0.20028495788573999</v>
+        <v>0.93055596351623004</v>
       </c>
       <c r="J9" s="4">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
-        <v>0.20418125788370667</v>
+        <v>0.9503534634908033</v>
       </c>
       <c r="K9" s="3">
-        <v>0.40006971359253002</v>
+        <v>1.8911451578139999</v>
       </c>
       <c r="L9" s="3">
-        <v>0.42880916595459001</v>
+        <v>1.9370869636535999</v>
       </c>
       <c r="M9" s="3">
-        <v>0.41465699672699002</v>
+        <v>1.9747530460358</v>
       </c>
       <c r="N9" s="4">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
-        <v>0.41451195875803665</v>
+        <v>1.9343283891678</v>
       </c>
       <c r="O9" s="3">
-        <v>0.59108333587646</v>
+        <v>2.7818928718567002</v>
       </c>
       <c r="P9" s="3">
-        <v>0.61449319521585999</v>
+        <v>2.893475484848</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.5699603398641</v>
+        <v>2.7256601333617998</v>
       </c>
       <c r="R9" s="4">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
-        <v>0.59184562365214</v>
+        <v>2.8003428300221667</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -10862,56 +12145,56 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>8.9298009872436995E-2</v>
+        <v>0.40995502471924</v>
       </c>
       <c r="D10" s="3">
-        <v>8.7839126586913993E-2</v>
+        <v>0.39283728599548001</v>
       </c>
       <c r="E10" s="3">
-        <v>9.1475963592529005E-2</v>
+        <v>0.39682698249817</v>
       </c>
       <c r="F10" s="4">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
-        <v>8.9537700017293331E-2</v>
+        <v>0.39987309773762997</v>
       </c>
       <c r="G10" s="3">
-        <v>0.41370339393616001</v>
+        <v>1.6479570388794</v>
       </c>
       <c r="H10" s="3">
-        <v>0.36026096343994002</v>
+        <v>1.6004824638366999</v>
       </c>
       <c r="I10" s="3">
-        <v>0.35251493453978999</v>
+        <v>1.6051327705383001</v>
       </c>
       <c r="J10" s="4">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
-        <v>0.37549309730529662</v>
+        <v>1.6178574244181334</v>
       </c>
       <c r="K10" s="3">
-        <v>0.59704129695892005</v>
+        <v>2.7617025613784998</v>
       </c>
       <c r="L10" s="3">
-        <v>0.64298689365386996</v>
+        <v>2.9560615301132001</v>
       </c>
       <c r="M10" s="3">
-        <v>0.65656580924987995</v>
+        <v>2.9733292579651001</v>
       </c>
       <c r="N10" s="4">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
-        <v>0.63219799995422343</v>
+        <v>2.8970311164856</v>
       </c>
       <c r="O10" s="3">
-        <v>0.91969916025798004</v>
+        <v>4.2838337580363</v>
       </c>
       <c r="P10" s="3">
-        <v>0.93027995427450005</v>
+        <v>4.2386603037516002</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.88860406875609999</v>
+        <v>4.0889787038167</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
-        <v>0.91286106109619336</v>
+        <v>4.2038242552015328</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -10919,56 +12202,56 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>0.46341013908385997</v>
+        <v>2.0703840255736998</v>
       </c>
       <c r="D11" s="3">
-        <v>0.42142009735107</v>
+        <v>2.0268149375915998</v>
       </c>
       <c r="E11" s="3">
-        <v>0.42274618148804</v>
+        <v>2.0209851264954</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
-        <v>0.43585880597432336</v>
+        <v>2.0393946965535665</v>
       </c>
       <c r="G11" s="3">
-        <v>1.8653461933136</v>
+        <v>8.5400120258331995</v>
       </c>
       <c r="H11" s="3">
-        <v>1.8447131156920999</v>
+        <v>8.4391520977019994</v>
       </c>
       <c r="I11" s="3">
-        <v>1.8550609588622999</v>
+        <v>8.1465940475463992</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
-        <v>1.8550400892893333</v>
+        <v>8.3752527236938672</v>
       </c>
       <c r="K11" s="3">
-        <v>3.1129492044449001</v>
+        <v>14.762718939780999</v>
       </c>
       <c r="L11" s="3">
-        <v>3.1052729129791001</v>
+        <v>14.870445537567001</v>
       </c>
       <c r="M11" s="3">
-        <v>3.3289674043655002</v>
+        <v>15.205537366867</v>
       </c>
       <c r="N11" s="4">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
-        <v>3.1823965072631668</v>
+        <v>14.946233948071667</v>
       </c>
       <c r="O11" s="3">
-        <v>6.9738423665363998</v>
+        <v>24.769616905848</v>
       </c>
       <c r="P11" s="3">
-        <v>8.0030083497365005</v>
+        <v>28.885481532415</v>
       </c>
       <c r="Q11" s="3">
-        <v>5.7749861558277997</v>
+        <v>25.009295527140001</v>
       </c>
       <c r="R11" s="4">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
-        <v>6.9172789573669</v>
+        <v>26.22146465513433</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -10976,56 +12259,56 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>3.4592239856720002</v>
+        <v>15.370904922485</v>
       </c>
       <c r="D12" s="3">
-        <v>3.4055318832396999</v>
+        <v>15.254776477814</v>
       </c>
       <c r="E12" s="3">
-        <v>3.4218561649322998</v>
+        <v>15.431421518325999</v>
       </c>
       <c r="F12" s="4">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
-        <v>3.4288706779480003</v>
+        <v>15.352367639541667</v>
       </c>
       <c r="G12" s="3">
-        <v>18.312743711471999</v>
+        <v>69.287546443938993</v>
       </c>
       <c r="H12" s="3">
-        <v>16.547928762436001</v>
+        <v>66.875515508652001</v>
       </c>
       <c r="I12" s="3">
-        <v>15.521381235123</v>
+        <v>65.654521226883006</v>
       </c>
       <c r="J12" s="4">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
-        <v>16.794017903010332</v>
+        <v>67.272527726491333</v>
       </c>
       <c r="K12" s="3">
-        <v>33.630316114426002</v>
+        <v>130.80681226253</v>
       </c>
       <c r="L12" s="3">
-        <v>32.721774148941002</v>
+        <v>128.61427559853001</v>
       </c>
       <c r="M12" s="3">
-        <v>31.199522995949</v>
+        <v>125.05584299564001</v>
       </c>
       <c r="N12" s="4">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
-        <v>32.517204419772</v>
+        <v>128.15897695223336</v>
       </c>
       <c r="O12" s="3">
-        <v>46.234833796818997</v>
+        <v>193.20526623725999</v>
       </c>
       <c r="P12" s="3">
-        <v>47.887095514933002</v>
+        <v>205.94690306980999</v>
       </c>
       <c r="Q12" s="3">
-        <v>55.294899241129997</v>
+        <v>198.56210192045</v>
       </c>
       <c r="R12" s="4">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
-        <v>49.805609517627339</v>
+        <v>199.23809040917331</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -11033,30 +12316,30 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>39.942064046859997</v>
+        <v>195.56456232071</v>
       </c>
       <c r="D13" s="3">
-        <v>39.89732003212</v>
+        <v>196.48565506935</v>
       </c>
       <c r="E13" s="3">
-        <v>40.802585124968999</v>
+        <v>198.20795392989999</v>
       </c>
       <c r="F13" s="4">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
-        <v>40.213989734649665</v>
+        <v>196.75272377331999</v>
       </c>
       <c r="G13" s="3">
-        <v>206.99452590943</v>
+        <v>931.96770839690998</v>
       </c>
       <c r="H13" s="3">
-        <v>208.19823722839999</v>
+        <v>905.40265221595996</v>
       </c>
       <c r="I13" s="3">
-        <v>204.47934961319001</v>
+        <v>894.88267107009995</v>
       </c>
       <c r="J13" s="4">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
-        <v>206.55737091700666</v>
+        <v>910.75101056098993</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -11093,56 +12376,56 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>7.8480243682860999E-3</v>
+        <v>3.2727241516112997E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>7.8988075256348003E-3</v>
+        <v>3.1890869140625E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>1.0045051574707E-2</v>
+        <v>3.7386178970336997E-2</v>
       </c>
       <c r="F15" s="4">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
-        <v>8.5972944895426322E-3</v>
+        <v>3.4001429875691665E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>5.0973653793335003E-2</v>
+        <v>0.13658704757689999</v>
       </c>
       <c r="H15" s="3">
-        <v>3.0906105041504001E-2</v>
+        <v>0.11401352882385</v>
       </c>
       <c r="I15" s="3">
-        <v>2.9773759841919E-2</v>
+        <v>0.11075291633606001</v>
       </c>
       <c r="J15" s="4">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
-        <v>3.7217839558919337E-2</v>
+        <v>0.12045116424560333</v>
       </c>
       <c r="K15" s="3">
-        <v>0.12633295059204</v>
+        <v>0.30851745605469</v>
       </c>
       <c r="L15" s="3">
-        <v>0.11819014549255</v>
+        <v>0.28822541236876997</v>
       </c>
       <c r="M15" s="3">
-        <v>8.8585734367370994E-2</v>
+        <v>0.26513741016387998</v>
       </c>
       <c r="N15" s="4">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
-        <v>0.11103627681732033</v>
+        <v>0.28729342619577997</v>
       </c>
       <c r="O15" s="3">
-        <v>0.11665954589844001</v>
+        <v>0.39857196807861001</v>
       </c>
       <c r="P15" s="3">
-        <v>0.15495767593383999</v>
+        <v>0.41030114491781</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.13692493438721001</v>
+        <v>0.37422685623169</v>
       </c>
       <c r="R15" s="4">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
-        <v>0.13618071873982998</v>
+        <v>0.39436665640936996</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -11153,56 +12436,56 @@
         <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>2.8334140777588002E-2</v>
+        <v>0.12589430809020999</v>
       </c>
       <c r="D16" s="3">
-        <v>2.7240037918091001E-2</v>
+        <v>0.12672090530395999</v>
       </c>
       <c r="E16" s="3">
-        <v>3.1787157058716001E-2</v>
+        <v>0.13520407676696999</v>
       </c>
       <c r="F16" s="4">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
-        <v>2.9120445251465E-2</v>
+        <v>0.12927309672037998</v>
       </c>
       <c r="G16" s="3">
-        <v>0.12788996696471999</v>
+        <v>0.54835891723633001</v>
       </c>
       <c r="H16" s="3">
-        <v>0.13751921653747001</v>
+        <v>0.54039592742919995</v>
       </c>
       <c r="I16" s="3">
-        <v>0.12713637351990001</v>
+        <v>0.51532573699951001</v>
       </c>
       <c r="J16" s="4">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
-        <v>0.13084851900736336</v>
+        <v>0.53469352722167995</v>
       </c>
       <c r="K16" s="3">
-        <v>0.25247685909271</v>
+        <v>0.97069473266602002</v>
       </c>
       <c r="L16" s="3">
-        <v>0.25813038349152001</v>
+        <v>0.98386168479919001</v>
       </c>
       <c r="M16" s="3">
-        <v>0.22794213294983001</v>
+        <v>0.93950624465943</v>
       </c>
       <c r="N16" s="4">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
-        <v>0.24618312517802002</v>
+        <v>0.96468755404154682</v>
       </c>
       <c r="O16" s="3">
-        <v>0.35138460795085003</v>
+        <v>1.4117265224457001</v>
       </c>
       <c r="P16" s="3">
-        <v>0.40709544817607002</v>
+        <v>1.7298299948374001</v>
       </c>
       <c r="Q16" s="3">
-        <v>0.36049739519754997</v>
+        <v>1.5073355515797999</v>
       </c>
       <c r="R16" s="4">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
-        <v>0.3729924837748233</v>
+        <v>1.5496306896209668</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -11210,56 +12493,56 @@
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>0.28946495056152</v>
+        <v>1.4214231967926001</v>
       </c>
       <c r="D17" s="3">
-        <v>0.29322409629821999</v>
+        <v>1.3713011741637999</v>
       </c>
       <c r="E17" s="3">
-        <v>0.29872417449951</v>
+        <v>1.4402480125427</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
-        <v>0.29380440711975003</v>
+        <v>1.4109907944997</v>
       </c>
       <c r="G17" s="3">
-        <v>1.1922716140747001</v>
+        <v>5.3187494277954004</v>
       </c>
       <c r="H17" s="3">
-        <v>1.1498569965362</v>
+        <v>5.3768250465392997</v>
       </c>
       <c r="I17" s="3">
-        <v>1.1194800376892</v>
+        <v>5.3217649936675997</v>
       </c>
       <c r="J17" s="4">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
-        <v>1.1538695494333668</v>
+        <v>5.3391131560007663</v>
       </c>
       <c r="K17" s="3">
-        <v>2.1932008028030001</v>
+        <v>10.450013399124</v>
       </c>
       <c r="L17" s="3">
-        <v>2.3419580936431998</v>
+        <v>10.882764530182</v>
       </c>
       <c r="M17" s="3">
-        <v>2.0660638093947998</v>
+        <v>9.8695289611816008</v>
       </c>
       <c r="N17" s="4">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
-        <v>2.2004075686136666</v>
+        <v>10.400768963495866</v>
       </c>
       <c r="O17" s="3">
-        <v>3.3252289930979</v>
+        <v>15.817006460826001</v>
       </c>
       <c r="P17" s="3">
-        <v>3.2887267589569</v>
+        <v>15.915767717361</v>
       </c>
       <c r="Q17" s="3">
-        <v>3.5162612597148</v>
+        <v>16.103174018859999</v>
       </c>
       <c r="R17" s="4">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
-        <v>3.3767390039231997</v>
+        <v>15.945316065682334</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -11267,56 +12550,56 @@
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>2.5863378047943</v>
+        <v>10.950034856796</v>
       </c>
       <c r="D18" s="3">
-        <v>2.5435888767242001</v>
+        <v>10.913181781769</v>
       </c>
       <c r="E18" s="3">
-        <v>2.5681610107421999</v>
+        <v>10.785562992096001</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
-        <v>2.5660292307535664</v>
+        <v>10.882926543553666</v>
       </c>
       <c r="G18" s="3">
-        <v>11.233117055893</v>
+        <v>46.800014781952001</v>
       </c>
       <c r="H18" s="3">
-        <v>11.431131076812999</v>
+        <v>45.957205438613997</v>
       </c>
       <c r="I18" s="3">
-        <v>11.202819633483999</v>
+        <v>46.403504848479997</v>
       </c>
       <c r="J18" s="4">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
-        <v>11.289022588729999</v>
+        <v>46.38690835634867</v>
       </c>
       <c r="K18" s="3">
-        <v>25.306958389281998</v>
+        <v>91.284906315803994</v>
       </c>
       <c r="L18" s="3">
-        <v>22.278060340881002</v>
+        <v>92.998723292351002</v>
       </c>
       <c r="M18" s="3">
-        <v>21.07271630764</v>
+        <v>86.177547216414993</v>
       </c>
       <c r="N18" s="4">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
-        <v>22.885911679267668</v>
+        <v>90.153725608189987</v>
       </c>
       <c r="O18" s="3">
-        <v>31.822139803568</v>
+        <v>135.44783905347001</v>
       </c>
       <c r="P18" s="3">
-        <v>31.112723811466999</v>
+        <v>140.50495861370999</v>
       </c>
       <c r="Q18" s="3">
-        <v>31.022836780548001</v>
+        <v>134.80778133074</v>
       </c>
       <c r="R18" s="4">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
-        <v>31.319233465194333</v>
+        <v>136.92019299930666</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -11324,30 +12607,30 @@
         <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>79.294433116912998</v>
+        <v>233.57017326355</v>
       </c>
       <c r="D19" s="5">
-        <v>38.984266042709002</v>
+        <v>192.74201917648</v>
       </c>
       <c r="E19" s="5">
-        <v>38.904347896575999</v>
+        <v>193.23396205902</v>
       </c>
       <c r="F19" s="4">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
-        <v>52.394349018732669</v>
+        <v>206.51538483301667</v>
       </c>
       <c r="G19" s="5">
-        <v>189.88638706207001</v>
+        <v>881.28284893036005</v>
       </c>
       <c r="H19" s="5">
-        <v>203.97909016609</v>
+        <v>906.91340737343</v>
       </c>
       <c r="I19" s="5">
-        <v>198.63712701797999</v>
+        <v>905.74307975769</v>
       </c>
       <c r="J19" s="4">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
-        <v>197.50086808204665</v>
+        <v>897.97977868715998</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -11384,1287 +12667,6 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>8.2938671112060998E-3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.9883871078490999E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.0454893112183001E-2</v>
-      </c>
-      <c r="F21" s="4">
-        <f>SUM(C21:E21)/COUNT(C21:E21)</f>
-        <v>1.2877543767293366E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3.2240056991576997E-2</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2.9556608200073001E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4.2261219024658001E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <f>SUM(G21:I21)/COUNT(G21:I21)</f>
-        <v>3.4685961405435999E-2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>7.0954108238220001E-2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7.5200557708739998E-2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>6.6626048088074E-2</v>
-      </c>
-      <c r="N21" s="4">
-        <f>SUM(K21:M21)/COUNT(K21:M21)</f>
-        <v>7.0926904678344671E-2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.11761468251546001</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0.11127301851908</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0.10422490437826</v>
-      </c>
-      <c r="R21" s="4">
-        <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
-        <v>0.11103753513760001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2.6512145996094E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3.1292915344237997E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3.071403503418E-2</v>
-      </c>
-      <c r="F22" s="4">
-        <f>SUM(C22:E22)/COUNT(C22:E22)</f>
-        <v>2.9506365458170664E-2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.13429083824158</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.13121619224548001</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.16669764518738001</v>
-      </c>
-      <c r="J22" s="4">
-        <f>SUM(G22:I22)/COUNT(G22:I22)</f>
-        <v>0.14406822522481336</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.31163783073425</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.55145773887634997</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.24426610469818</v>
-      </c>
-      <c r="N22" s="4">
-        <f>SUM(K22:M22)/COUNT(K22:M22)</f>
-        <v>0.36912055810292665</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0.37040146191915002</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0.35832185745238998</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0.45862773259480999</v>
-      </c>
-      <c r="R22" s="4">
-        <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
-        <v>0.39578368398878333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.36653804779053001</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.41377687454223999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.60754418373107999</v>
-      </c>
-      <c r="F23" s="4">
-        <f>SUM(C23:E23)/COUNT(C23:E23)</f>
-        <v>0.46261970202128327</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.3559296131134</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1.2252017498015999</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1.3626742362976001</v>
-      </c>
-      <c r="J23" s="4">
-        <f>SUM(G23:I23)/COUNT(G23:I23)</f>
-        <v>1.3146018664041998</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2.7777417898177998</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2.4877586364746</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2.3611316919326999</v>
-      </c>
-      <c r="N23" s="4">
-        <f>SUM(K23:M23)/COUNT(K23:M23)</f>
-        <v>2.5422107060750334</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3.3741455872853998</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3.3618197441100999</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>3.8807011763255002</v>
-      </c>
-      <c r="R23" s="4">
-        <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
-        <v>3.5388888359070001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2.5659189224243</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.5739328861236999</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.5189740657806001</v>
-      </c>
-      <c r="F24" s="4">
-        <f>SUM(C24:E24)/COUNT(C24:E24)</f>
-        <v>2.5529419581095336</v>
-      </c>
-      <c r="G24" s="3">
-        <v>10.921091556548999</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11.353821754456</v>
-      </c>
-      <c r="I24" s="3">
-        <v>11.35698094368</v>
-      </c>
-      <c r="J24" s="4">
-        <f>SUM(G24:I24)/COUNT(G24:I24)</f>
-        <v>11.210631418228333</v>
-      </c>
-      <c r="K24" s="3">
-        <v>23.484414839744002</v>
-      </c>
-      <c r="L24" s="3">
-        <v>22.550415802002</v>
-      </c>
-      <c r="M24" s="3">
-        <v>23.329129576682998</v>
-      </c>
-      <c r="N24" s="4">
-        <f>SUM(K24:M24)/COUNT(K24:M24)</f>
-        <v>23.121320072809667</v>
-      </c>
-      <c r="O24" s="3">
-        <v>34.786128282546997</v>
-      </c>
-      <c r="P24" s="3">
-        <v>34.930746475855997</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>31.795294602712001</v>
-      </c>
-      <c r="R24" s="4">
-        <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
-        <v>33.837389787038333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="5">
-        <v>44.711110115051</v>
-      </c>
-      <c r="D25" s="5">
-        <v>39.505669116973998</v>
-      </c>
-      <c r="E25" s="5">
-        <v>38.628494977951</v>
-      </c>
-      <c r="F25" s="4">
-        <f>SUM(C25:E25)/COUNT(C25:E25)</f>
-        <v>40.948424736658666</v>
-      </c>
-      <c r="G25" s="5">
-        <v>205.50356354713</v>
-      </c>
-      <c r="H25" s="5">
-        <v>211.71452279091</v>
-      </c>
-      <c r="I25" s="5">
-        <v>199.37117462158</v>
-      </c>
-      <c r="J25" s="4">
-        <f>SUM(G25:I25)/COUNT(G25:I25)</f>
-        <v>205.52975365320665</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-  </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="R2" activeCellId="2" sqref="G1:J1048576 K1:N1048576 O1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1"/>
-    <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1"/>
-    <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="10.5703125" style="1"/>
-    <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1"/>
-    <col min="15" max="257" width="11.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.8629779815674002E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.0961275100708001E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.2079448699950998E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <f>SUM(C3:E3)/COUNT(C3:E3)</f>
-        <v>3.3890167872111E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.11914315223694</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.13120765686034999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.36086039543151999</v>
-      </c>
-      <c r="J3" s="4">
-        <f>SUM(G3:I3)/COUNT(G3:I3)</f>
-        <v>0.20373706817627002</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.23465976715087999</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.21987135410309</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.22494606971740999</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUM(K3:M3)/COUNT(K3:M3)</f>
-        <v>0.22649239699045998</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.34130927721658999</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.32714735666910999</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.37350994745889998</v>
-      </c>
-      <c r="R3" s="4">
-        <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
-        <v>0.34732219378153334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.10587596893311001</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.10496473312378</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.10656499862671</v>
-      </c>
-      <c r="F4" s="4">
-        <f>SUM(C4:E4)/COUNT(C4:E4)</f>
-        <v>0.10580190022786667</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.56591258049010995</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.46849312782288</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.46720800399779999</v>
-      </c>
-      <c r="J4" s="4">
-        <f>SUM(G4:I4)/COUNT(G4:I4)</f>
-        <v>0.50053790410359666</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.0429578781127999</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.99165358543395998</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.96677291393279996</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM(K4:M4)/COUNT(K4:M4)</f>
-        <v>1.0004614591598533</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1.5198519865672</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1.5735551993051999</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1.5462844371796001</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
-        <v>1.5465638743506667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.9354889392853001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.6025388240814</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.6316089630127</v>
-      </c>
-      <c r="F5" s="4">
-        <f>SUM(C5:E5)/COUNT(C5:E5)</f>
-        <v>1.7232122421264666</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8.4486344337462995</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8.0727665901184</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7.8109163761138998</v>
-      </c>
-      <c r="J5" s="4">
-        <f>SUM(G5:I5)/COUNT(G5:I5)</f>
-        <v>8.1107724666595331</v>
-      </c>
-      <c r="K5" s="3">
-        <v>16.608856797217999</v>
-      </c>
-      <c r="L5" s="3">
-        <v>15.853037071228</v>
-      </c>
-      <c r="M5" s="3">
-        <v>15.812289643288</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM(K5:M5)/COUNT(K5:M5)</f>
-        <v>16.091394503911332</v>
-      </c>
-      <c r="O5" s="3">
-        <v>23.235068480174</v>
-      </c>
-      <c r="P5" s="3">
-        <v>23.682967344920002</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>24.037721633911001</v>
-      </c>
-      <c r="R5" s="4">
-        <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
-        <v>23.651919153001668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10.815920114517001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10.151566982268999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10.52633190155</v>
-      </c>
-      <c r="F6" s="4">
-        <f>SUM(C6:E6)/COUNT(C6:E6)</f>
-        <v>10.497939666112002</v>
-      </c>
-      <c r="G6" s="3">
-        <v>46.839616250992002</v>
-      </c>
-      <c r="H6" s="3">
-        <v>46.537710428238</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45.200466632843003</v>
-      </c>
-      <c r="J6" s="4">
-        <f>SUM(G6:I6)/COUNT(G6:I6)</f>
-        <v>46.192597770691009</v>
-      </c>
-      <c r="K6" s="3">
-        <v>94.478088951111005</v>
-      </c>
-      <c r="L6" s="3">
-        <v>91.616760945319996</v>
-      </c>
-      <c r="M6" s="3">
-        <v>90.819481873512004</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SUM(K6:M6)/COUNT(K6:M6)</f>
-        <v>92.304777256647682</v>
-      </c>
-      <c r="O6" s="3">
-        <v>141.95227198601</v>
-      </c>
-      <c r="P6" s="3">
-        <v>148.76990895271001</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>145.29906965891999</v>
-      </c>
-      <c r="R6" s="4">
-        <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
-        <v>145.34041686588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>178.74467277527</v>
-      </c>
-      <c r="D7" s="3">
-        <v>177.81628751754999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>176.49444913863999</v>
-      </c>
-      <c r="F7" s="4">
-        <f>SUM(C7:E7)/COUNT(C7:E7)</f>
-        <v>177.68513647715335</v>
-      </c>
-      <c r="G7" s="3">
-        <v>799.79248104094995</v>
-      </c>
-      <c r="H7" s="3">
-        <v>783.20202469825995</v>
-      </c>
-      <c r="I7" s="3">
-        <v>786.6127137661</v>
-      </c>
-      <c r="J7" s="4">
-        <f>SUM(G7:I7)/COUNT(G7:I7)</f>
-        <v>789.86907316843656</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.22185468673705999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.20907807350158999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.21458792686462</v>
-      </c>
-      <c r="F9" s="4">
-        <f>SUM(C9:E9)/COUNT(C9:E9)</f>
-        <v>0.21517356236775667</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.97767701148986996</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.94282741546630999</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.93055596351623004</v>
-      </c>
-      <c r="J9" s="4">
-        <f>SUM(G9:I9)/COUNT(G9:I9)</f>
-        <v>0.9503534634908033</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.8911451578139999</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.9370869636535999</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.9747530460358</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM(K9:M9)/COUNT(K9:M9)</f>
-        <v>1.9343283891678</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2.7818928718567002</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2.893475484848</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2.7256601333617998</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
-        <v>2.8003428300221667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.40995502471924</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.39283728599548001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.39682698249817</v>
-      </c>
-      <c r="F10" s="4">
-        <f>SUM(C10:E10)/COUNT(C10:E10)</f>
-        <v>0.39987309773762997</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.6479570388794</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1.6004824638366999</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1.6051327705383001</v>
-      </c>
-      <c r="J10" s="4">
-        <f>SUM(G10:I10)/COUNT(G10:I10)</f>
-        <v>1.6178574244181334</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2.7617025613784998</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2.9560615301132001</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2.9733292579651001</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM(K10:M10)/COUNT(K10:M10)</f>
-        <v>2.8970311164856</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4.2838337580363</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4.2386603037516002</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4.0889787038167</v>
-      </c>
-      <c r="R10" s="4">
-        <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
-        <v>4.2038242552015328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.0703840255736998</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2.0268149375915998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.0209851264954</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM(C11:E11)/COUNT(C11:E11)</f>
-        <v>2.0393946965535665</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8.5400120258331995</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8.4391520977019994</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8.1465940475463992</v>
-      </c>
-      <c r="J11" s="4">
-        <f>SUM(G11:I11)/COUNT(G11:I11)</f>
-        <v>8.3752527236938672</v>
-      </c>
-      <c r="K11" s="3">
-        <v>14.762718939780999</v>
-      </c>
-      <c r="L11" s="3">
-        <v>14.870445537567001</v>
-      </c>
-      <c r="M11" s="3">
-        <v>15.205537366867</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM(K11:M11)/COUNT(K11:M11)</f>
-        <v>14.946233948071667</v>
-      </c>
-      <c r="O11" s="3">
-        <v>24.769616905848</v>
-      </c>
-      <c r="P11" s="3">
-        <v>28.885481532415</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>25.009295527140001</v>
-      </c>
-      <c r="R11" s="4">
-        <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
-        <v>26.22146465513433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15.370904922485</v>
-      </c>
-      <c r="D12" s="3">
-        <v>15.254776477814</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15.431421518325999</v>
-      </c>
-      <c r="F12" s="4">
-        <f>SUM(C12:E12)/COUNT(C12:E12)</f>
-        <v>15.352367639541667</v>
-      </c>
-      <c r="G12" s="3">
-        <v>69.287546443938993</v>
-      </c>
-      <c r="H12" s="3">
-        <v>66.875515508652001</v>
-      </c>
-      <c r="I12" s="3">
-        <v>65.654521226883006</v>
-      </c>
-      <c r="J12" s="4">
-        <f>SUM(G12:I12)/COUNT(G12:I12)</f>
-        <v>67.272527726491333</v>
-      </c>
-      <c r="K12" s="3">
-        <v>130.80681226253</v>
-      </c>
-      <c r="L12" s="3">
-        <v>128.61427559853001</v>
-      </c>
-      <c r="M12" s="3">
-        <v>125.05584299564001</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM(K12:M12)/COUNT(K12:M12)</f>
-        <v>128.15897695223336</v>
-      </c>
-      <c r="O12" s="3">
-        <v>193.20526623725999</v>
-      </c>
-      <c r="P12" s="3">
-        <v>205.94690306980999</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>198.56210192045</v>
-      </c>
-      <c r="R12" s="4">
-        <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
-        <v>199.23809040917331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>195.56456232071</v>
-      </c>
-      <c r="D13" s="3">
-        <v>196.48565506935</v>
-      </c>
-      <c r="E13" s="3">
-        <v>198.20795392989999</v>
-      </c>
-      <c r="F13" s="4">
-        <f>SUM(C13:E13)/COUNT(C13:E13)</f>
-        <v>196.75272377331999</v>
-      </c>
-      <c r="G13" s="3">
-        <v>931.96770839690998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>905.40265221595996</v>
-      </c>
-      <c r="I13" s="3">
-        <v>894.88267107009995</v>
-      </c>
-      <c r="J13" s="4">
-        <f>SUM(G13:I13)/COUNT(G13:I13)</f>
-        <v>910.75101056098993</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3.2727241516112997E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.1890869140625E-2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.7386178970336997E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <f>SUM(C15:E15)/COUNT(C15:E15)</f>
-        <v>3.4001429875691665E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.13658704757689999</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.11401352882385</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.11075291633606001</v>
-      </c>
-      <c r="J15" s="4">
-        <f>SUM(G15:I15)/COUNT(G15:I15)</f>
-        <v>0.12045116424560333</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.30851745605469</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.28822541236876997</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.26513741016387998</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM(K15:M15)/COUNT(K15:M15)</f>
-        <v>0.28729342619577997</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.39857196807861001</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0.41030114491781</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0.37422685623169</v>
-      </c>
-      <c r="R15" s="4">
-        <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
-        <v>0.39436665640936996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.12589430809020999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.12672090530395999</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.13520407676696999</v>
-      </c>
-      <c r="F16" s="4">
-        <f>SUM(C16:E16)/COUNT(C16:E16)</f>
-        <v>0.12927309672037998</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.54835891723633001</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.54039592742919995</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.51532573699951001</v>
-      </c>
-      <c r="J16" s="4">
-        <f>SUM(G16:I16)/COUNT(G16:I16)</f>
-        <v>0.53469352722167995</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.97069473266602002</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.98386168479919001</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.93950624465943</v>
-      </c>
-      <c r="N16" s="4">
-        <f>SUM(K16:M16)/COUNT(K16:M16)</f>
-        <v>0.96468755404154682</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1.4117265224457001</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1.7298299948374001</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1.5073355515797999</v>
-      </c>
-      <c r="R16" s="4">
-        <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
-        <v>1.5496306896209668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.4214231967926001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.3713011741637999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.4402480125427</v>
-      </c>
-      <c r="F17" s="4">
-        <f>SUM(C17:E17)/COUNT(C17:E17)</f>
-        <v>1.4109907944997</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5.3187494277954004</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5.3768250465392997</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5.3217649936675997</v>
-      </c>
-      <c r="J17" s="4">
-        <f>SUM(G17:I17)/COUNT(G17:I17)</f>
-        <v>5.3391131560007663</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10.450013399124</v>
-      </c>
-      <c r="L17" s="3">
-        <v>10.882764530182</v>
-      </c>
-      <c r="M17" s="3">
-        <v>9.8695289611816008</v>
-      </c>
-      <c r="N17" s="4">
-        <f>SUM(K17:M17)/COUNT(K17:M17)</f>
-        <v>10.400768963495866</v>
-      </c>
-      <c r="O17" s="3">
-        <v>15.817006460826001</v>
-      </c>
-      <c r="P17" s="3">
-        <v>15.915767717361</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>16.103174018859999</v>
-      </c>
-      <c r="R17" s="4">
-        <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
-        <v>15.945316065682334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10.950034856796</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10.913181781769</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10.785562992096001</v>
-      </c>
-      <c r="F18" s="4">
-        <f>SUM(C18:E18)/COUNT(C18:E18)</f>
-        <v>10.882926543553666</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46.800014781952001</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45.957205438613997</v>
-      </c>
-      <c r="I18" s="3">
-        <v>46.403504848479997</v>
-      </c>
-      <c r="J18" s="4">
-        <f>SUM(G18:I18)/COUNT(G18:I18)</f>
-        <v>46.38690835634867</v>
-      </c>
-      <c r="K18" s="3">
-        <v>91.284906315803994</v>
-      </c>
-      <c r="L18" s="3">
-        <v>92.998723292351002</v>
-      </c>
-      <c r="M18" s="3">
-        <v>86.177547216414993</v>
-      </c>
-      <c r="N18" s="4">
-        <f>SUM(K18:M18)/COUNT(K18:M18)</f>
-        <v>90.153725608189987</v>
-      </c>
-      <c r="O18" s="3">
-        <v>135.44783905347001</v>
-      </c>
-      <c r="P18" s="3">
-        <v>140.50495861370999</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>134.80778133074</v>
-      </c>
-      <c r="R18" s="4">
-        <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
-        <v>136.92019299930666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5">
-        <v>233.57017326355</v>
-      </c>
-      <c r="D19" s="5">
-        <v>192.74201917648</v>
-      </c>
-      <c r="E19" s="5">
-        <v>193.23396205902</v>
-      </c>
-      <c r="F19" s="4">
-        <f>SUM(C19:E19)/COUNT(C19:E19)</f>
-        <v>206.51538483301667</v>
-      </c>
-      <c r="G19" s="5">
-        <v>881.28284893036005</v>
-      </c>
-      <c r="H19" s="5">
-        <v>906.91340737343</v>
-      </c>
-      <c r="I19" s="5">
-        <v>905.74307975769</v>
-      </c>
-      <c r="J19" s="4">
-        <f>SUM(G19:I19)/COUNT(G19:I19)</f>
-        <v>897.97977868715998</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
         <v>3.4827709197997998E-2</v>
       </c>
       <c r="D21" s="3">

--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Médias" sheetId="1" r:id="rId1"/>
@@ -97,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -150,24 +151,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +248,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -314,7 +314,7 @@
             <c:numRef>
               <c:f>Médias!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.6945083936055667E-3</c:v>
@@ -376,7 +376,7 @@
             <c:numRef>
               <c:f>Médias!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0186853408813501E-2</c:v>
@@ -438,7 +438,7 @@
             <c:numRef>
               <c:f>Médias!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.1324619849522669E-2</c:v>
@@ -497,7 +497,7 @@
             <c:numRef>
               <c:f>Médias!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.7366109689076668E-2</c:v>
@@ -516,11 +516,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72887680"/>
-        <c:axId val="72910720"/>
+        <c:axId val="49394432"/>
+        <c:axId val="49396736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72887680"/>
+        <c:axId val="49394432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,14 +544,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72910720"/>
+        <c:crossAx val="49396736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72910720"/>
+        <c:axId val="49396736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,9 +575,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72887680"/>
+        <c:crossAx val="49394432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -590,7 +590,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -598,7 +598,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -664,7 +664,7 @@
             <c:numRef>
               <c:f>Máximas!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5691013336181668E-2</c:v>
@@ -726,7 +726,7 @@
             <c:numRef>
               <c:f>Máximas!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.20418125788370667</c:v>
@@ -788,7 +788,7 @@
             <c:numRef>
               <c:f>Máximas!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.41451195875803665</c:v>
@@ -847,7 +847,7 @@
             <c:numRef>
               <c:f>Máximas!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.59184562365214</c:v>
@@ -866,11 +866,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76357632"/>
-        <c:axId val="76359552"/>
+        <c:axId val="51627136"/>
+        <c:axId val="51629056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76357632"/>
+        <c:axId val="51627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,14 +894,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76359552"/>
+        <c:crossAx val="51629056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76359552"/>
+        <c:axId val="51629056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,9 +925,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76357632"/>
+        <c:crossAx val="51627136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,7 +940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -948,7 +948,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -1022,7 +1022,7 @@
             <c:numRef>
               <c:f>Máximas!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.5972944895426322E-3</c:v>
@@ -1084,7 +1084,7 @@
             <c:numRef>
               <c:f>Máximas!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.7217839558919337E-2</c:v>
@@ -1146,7 +1146,7 @@
             <c:numRef>
               <c:f>Máximas!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11103627681732033</c:v>
@@ -1205,7 +1205,7 @@
             <c:numRef>
               <c:f>Máximas!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.13618071873982998</c:v>
@@ -1224,11 +1224,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76419072"/>
-        <c:axId val="76420992"/>
+        <c:axId val="61846656"/>
+        <c:axId val="61848576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76419072"/>
+        <c:axId val="61846656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,14 +1252,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76420992"/>
+        <c:crossAx val="61848576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76420992"/>
+        <c:axId val="61848576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,9 +1283,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76419072"/>
+        <c:crossAx val="61846656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,7 +1298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1306,7 +1306,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -1333,6 +1333,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1379,7 +1380,7 @@
             <c:numRef>
               <c:f>Máximas!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2877543767293366E-2</c:v>
@@ -1441,7 +1442,7 @@
             <c:numRef>
               <c:f>Máximas!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4685961405435999E-2</c:v>
@@ -1503,7 +1504,7 @@
             <c:numRef>
               <c:f>Máximas!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.0926904678344671E-2</c:v>
@@ -1562,7 +1563,7 @@
             <c:numRef>
               <c:f>Máximas!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11103753513760001</c:v>
@@ -1581,11 +1582,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76464512"/>
-        <c:axId val="76466432"/>
+        <c:axId val="62682624"/>
+        <c:axId val="62684544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76464512"/>
+        <c:axId val="62682624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,16 +1607,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76466432"/>
+        <c:crossAx val="62684544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76466432"/>
+        <c:axId val="62684544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,22 +1639,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76464512"/>
+        <c:crossAx val="62682624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1660,7 +1664,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1678,6 +1682,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1724,7 +1729,7 @@
             <c:numRef>
               <c:f>Máximas!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.8080565134684655E-3</c:v>
@@ -1786,7 +1791,7 @@
             <c:numRef>
               <c:f>Máximas!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5691013336181668E-2</c:v>
@@ -1825,7 +1830,7 @@
             <c:numRef>
               <c:f>Máximas!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.5972944895426322E-3</c:v>
@@ -1864,7 +1869,7 @@
             <c:numRef>
               <c:f>Máximas!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2877543767293366E-2</c:v>
@@ -1886,11 +1891,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76518144"/>
-        <c:axId val="76520064"/>
+        <c:axId val="63846272"/>
+        <c:axId val="63864832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76518144"/>
+        <c:axId val="63846272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,16 +1916,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76520064"/>
+        <c:crossAx val="63864832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76520064"/>
+        <c:axId val="63864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,22 +1948,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76518144"/>
+        <c:crossAx val="63846272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1965,7 +1973,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1983,6 +1991,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2029,7 +2038,7 @@
             <c:numRef>
               <c:f>Máximas!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.115225156148275</c:v>
@@ -2091,7 +2100,7 @@
             <c:numRef>
               <c:f>Máximas!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.20418125788370667</c:v>
@@ -2130,7 +2139,7 @@
             <c:numRef>
               <c:f>Máximas!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.7217839558919337E-2</c:v>
@@ -2169,7 +2178,7 @@
             <c:numRef>
               <c:f>Máximas!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4685961405435999E-2</c:v>
@@ -2191,11 +2200,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76633216"/>
-        <c:axId val="76635136"/>
+        <c:axId val="63887616"/>
+        <c:axId val="63893888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76633216"/>
+        <c:axId val="63887616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,16 +2225,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76635136"/>
+        <c:crossAx val="63893888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76635136"/>
+        <c:axId val="63893888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,22 +2257,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76633216"/>
+        <c:crossAx val="63887616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2270,7 +2282,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2288,6 +2300,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2334,7 +2347,7 @@
             <c:numRef>
               <c:f>Máximas!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.4477451642354008E-2</c:v>
@@ -2393,7 +2406,7 @@
             <c:numRef>
               <c:f>Máximas!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.41451195875803665</c:v>
@@ -2429,7 +2442,7 @@
             <c:numRef>
               <c:f>Máximas!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11103627681732033</c:v>
@@ -2465,7 +2478,7 @@
             <c:numRef>
               <c:f>Máximas!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.0926904678344671E-2</c:v>
@@ -2484,11 +2497,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76551680"/>
-        <c:axId val="76553600"/>
+        <c:axId val="62757504"/>
+        <c:axId val="62771968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76551680"/>
+        <c:axId val="62757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,16 +2522,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76553600"/>
+        <c:crossAx val="62771968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76553600"/>
+        <c:axId val="62771968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,22 +2554,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76551680"/>
+        <c:crossAx val="62757504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2563,7 +2579,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2581,6 +2597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2627,7 +2644,7 @@
             <c:numRef>
               <c:f>Máximas!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11224088668823334</c:v>
@@ -2686,7 +2703,7 @@
             <c:numRef>
               <c:f>Máximas!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.59184562365214</c:v>
@@ -2722,7 +2739,7 @@
             <c:numRef>
               <c:f>Máximas!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.13618071873982998</c:v>
@@ -2758,7 +2775,7 @@
             <c:numRef>
               <c:f>Máximas!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11103753513760001</c:v>
@@ -2777,11 +2794,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76597120"/>
-        <c:axId val="82182144"/>
+        <c:axId val="65551360"/>
+        <c:axId val="65565824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76597120"/>
+        <c:axId val="65551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,16 +2819,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82182144"/>
+        <c:crossAx val="65565824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82182144"/>
+        <c:axId val="65565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,22 +2851,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76597120"/>
+        <c:crossAx val="65551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2856,7 +2876,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -2875,6 +2895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2921,7 +2942,7 @@
             <c:numRef>
               <c:f>Totais!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.3890167872111E-2</c:v>
@@ -2983,7 +3004,7 @@
             <c:numRef>
               <c:f>Totais!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.20373706817627002</c:v>
@@ -3045,7 +3066,7 @@
             <c:numRef>
               <c:f>Totais!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.22649239699045998</c:v>
@@ -3104,7 +3125,7 @@
             <c:numRef>
               <c:f>Totais!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.34732219378153334</c:v>
@@ -3123,11 +3144,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82238080"/>
-        <c:axId val="82252544"/>
+        <c:axId val="63942656"/>
+        <c:axId val="63944576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82238080"/>
+        <c:axId val="63942656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,16 +3169,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82252544"/>
+        <c:crossAx val="63944576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82252544"/>
+        <c:axId val="63944576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,22 +3201,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82238080"/>
+        <c:crossAx val="63942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3202,7 +3226,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3221,6 +3245,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3267,7 +3292,7 @@
             <c:numRef>
               <c:f>Totais!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.21517356236775667</c:v>
@@ -3329,7 +3354,7 @@
             <c:numRef>
               <c:f>Totais!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.9503534634908033</c:v>
@@ -3391,7 +3416,7 @@
             <c:numRef>
               <c:f>Totais!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9343283891678</c:v>
@@ -3450,7 +3475,7 @@
             <c:numRef>
               <c:f>Totais!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.8003428300221667</c:v>
@@ -3469,11 +3494,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82287616"/>
-        <c:axId val="82293888"/>
+        <c:axId val="65679744"/>
+        <c:axId val="65681664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82287616"/>
+        <c:axId val="65679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,16 +3519,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82293888"/>
+        <c:crossAx val="65681664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82293888"/>
+        <c:axId val="65681664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,22 +3551,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82287616"/>
+        <c:crossAx val="65679744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3548,7 +3576,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -3575,6 +3603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3621,7 +3650,7 @@
             <c:numRef>
               <c:f>Totais!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4001429875691665E-2</c:v>
@@ -3683,7 +3712,7 @@
             <c:numRef>
               <c:f>Totais!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.12045116424560333</c:v>
@@ -3745,7 +3774,7 @@
             <c:numRef>
               <c:f>Totais!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.28729342619577997</c:v>
@@ -3804,7 +3833,7 @@
             <c:numRef>
               <c:f>Totais!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.39436665640936996</c:v>
@@ -3823,11 +3852,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82337152"/>
-        <c:axId val="82351616"/>
+        <c:axId val="65725184"/>
+        <c:axId val="65727104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82337152"/>
+        <c:axId val="65725184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,16 +3877,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82351616"/>
+        <c:crossAx val="65727104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82351616"/>
+        <c:axId val="65727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,22 +3909,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82337152"/>
+        <c:crossAx val="65725184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3902,7 +3934,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3968,7 +4000,7 @@
             <c:numRef>
               <c:f>Médias!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0758678118387667E-2</c:v>
@@ -4030,7 +4062,7 @@
             <c:numRef>
               <c:f>Médias!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.7517673174540663E-2</c:v>
@@ -4092,7 +4124,7 @@
             <c:numRef>
               <c:f>Médias!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.6716419458389005E-2</c:v>
@@ -4151,7 +4183,7 @@
             <c:numRef>
               <c:f>Médias!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.14001714150110667</c:v>
@@ -4170,11 +4202,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74801536"/>
-        <c:axId val="74803456"/>
+        <c:axId val="49460736"/>
+        <c:axId val="49462656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74801536"/>
+        <c:axId val="49460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,14 +4230,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74803456"/>
+        <c:crossAx val="49462656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74803456"/>
+        <c:axId val="49462656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,9 +4261,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74801536"/>
+        <c:crossAx val="49460736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4244,7 +4276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4252,7 +4284,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -4279,6 +4311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4325,7 +4358,7 @@
             <c:numRef>
               <c:f>Totais!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.9963245391845668E-2</c:v>
@@ -4387,7 +4420,7 @@
             <c:numRef>
               <c:f>Totais!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.12258480389912667</c:v>
@@ -4449,7 +4482,7 @@
             <c:numRef>
               <c:f>Totais!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.24431110223134334</c:v>
@@ -4508,7 +4541,7 @@
             <c:numRef>
               <c:f>Totais!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.36700509919060997</c:v>
@@ -4527,11 +4560,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82391040"/>
-        <c:axId val="82392960"/>
+        <c:axId val="65639552"/>
+        <c:axId val="65641472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82391040"/>
+        <c:axId val="65639552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,16 +4585,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82392960"/>
+        <c:crossAx val="65641472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82392960"/>
+        <c:axId val="65641472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,22 +4617,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82391040"/>
+        <c:crossAx val="65639552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4606,7 +4642,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4624,6 +4660,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4670,7 +4707,7 @@
             <c:numRef>
               <c:f>Totais!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.3890167872111E-2</c:v>
@@ -4732,7 +4769,7 @@
             <c:numRef>
               <c:f>Totais!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.21517356236775667</c:v>
@@ -4771,7 +4808,7 @@
             <c:numRef>
               <c:f>Totais!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.4001429875691665E-2</c:v>
@@ -4810,7 +4847,7 @@
             <c:numRef>
               <c:f>Totais!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.9963245391845668E-2</c:v>
@@ -4832,11 +4869,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82428672"/>
-        <c:axId val="82430592"/>
+        <c:axId val="65763200"/>
+        <c:axId val="65773568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82428672"/>
+        <c:axId val="65763200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4857,16 +4894,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82430592"/>
+        <c:crossAx val="65773568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82430592"/>
+        <c:axId val="65773568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,22 +4926,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82428672"/>
+        <c:crossAx val="65763200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4911,7 +4951,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4929,6 +4969,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4975,7 +5016,7 @@
             <c:numRef>
               <c:f>Totais!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.20373706817627002</c:v>
@@ -5037,7 +5078,7 @@
             <c:numRef>
               <c:f>Totais!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.9503534634908033</c:v>
@@ -5076,7 +5117,7 @@
             <c:numRef>
               <c:f>Totais!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.12045116424560333</c:v>
@@ -5115,7 +5156,7 @@
             <c:numRef>
               <c:f>Totais!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.12258480389912667</c:v>
@@ -5137,11 +5178,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82486400"/>
-        <c:axId val="82488320"/>
+        <c:axId val="66918656"/>
+        <c:axId val="66933120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82486400"/>
+        <c:axId val="66918656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5162,16 +5203,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82488320"/>
+        <c:crossAx val="66933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82488320"/>
+        <c:axId val="66933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,22 +5235,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82486400"/>
+        <c:crossAx val="66918656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5216,7 +5260,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5234,6 +5278,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5280,7 +5325,7 @@
             <c:numRef>
               <c:f>Totais!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.22649239699045998</c:v>
@@ -5339,7 +5384,7 @@
             <c:numRef>
               <c:f>Totais!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9343283891678</c:v>
@@ -5375,7 +5420,7 @@
             <c:numRef>
               <c:f>Totais!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.28729342619577997</c:v>
@@ -5411,7 +5456,7 @@
             <c:numRef>
               <c:f>Totais!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.24431110223134334</c:v>
@@ -5430,11 +5475,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82531840"/>
-        <c:axId val="82533760"/>
+        <c:axId val="66964096"/>
+        <c:axId val="66847488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82531840"/>
+        <c:axId val="66964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,16 +5500,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82533760"/>
+        <c:crossAx val="66847488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82533760"/>
+        <c:axId val="66847488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5486,22 +5532,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82531840"/>
+        <c:crossAx val="66964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5509,7 +5557,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5527,6 +5575,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5573,7 +5622,7 @@
             <c:numRef>
               <c:f>Totais!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.34732219378153334</c:v>
@@ -5632,7 +5681,7 @@
             <c:numRef>
               <c:f>Totais!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.8003428300221667</c:v>
@@ -5668,7 +5717,7 @@
             <c:numRef>
               <c:f>Totais!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.39436665640936996</c:v>
@@ -5704,7 +5753,7 @@
             <c:numRef>
               <c:f>Totais!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.36700509919060997</c:v>
@@ -5723,11 +5772,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82651008"/>
-        <c:axId val="82661376"/>
+        <c:axId val="66894848"/>
+        <c:axId val="66901120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82651008"/>
+        <c:axId val="66894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5748,16 +5797,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82661376"/>
+        <c:crossAx val="66901120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82661376"/>
+        <c:axId val="66901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,22 +5829,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82651008"/>
+        <c:crossAx val="66894848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5802,7 +5854,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -5876,7 +5928,7 @@
             <c:numRef>
               <c:f>Médias!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.7000714937845665E-3</c:v>
@@ -5938,7 +5990,7 @@
             <c:numRef>
               <c:f>Médias!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0225582122802671E-3</c:v>
@@ -6000,7 +6052,7 @@
             <c:numRef>
               <c:f>Médias!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4364671309789001E-2</c:v>
@@ -6059,7 +6111,7 @@
             <c:numRef>
               <c:f>Médias!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9718332820468334E-2</c:v>
@@ -6078,11 +6130,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75891456"/>
-        <c:axId val="75893376"/>
+        <c:axId val="49506176"/>
+        <c:axId val="49524736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75891456"/>
+        <c:axId val="49506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6106,14 +6158,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75893376"/>
+        <c:crossAx val="49524736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75893376"/>
+        <c:axId val="49524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6137,9 +6189,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75891456"/>
+        <c:crossAx val="49506176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,7 +6204,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6160,7 +6212,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -6234,7 +6286,7 @@
             <c:numRef>
               <c:f>Médias!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9981622695922669E-3</c:v>
@@ -6296,7 +6348,7 @@
             <c:numRef>
               <c:f>Médias!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1292401949564661E-3</c:v>
@@ -6358,7 +6410,7 @@
             <c:numRef>
               <c:f>Médias!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2215555111567333E-2</c:v>
@@ -6417,7 +6469,7 @@
             <c:numRef>
               <c:f>Médias!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.8350254959530334E-2</c:v>
@@ -6436,11 +6488,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75945088"/>
-        <c:axId val="75947008"/>
+        <c:axId val="51149056"/>
+        <c:axId val="51163520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75945088"/>
+        <c:axId val="51149056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6464,14 +6516,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75947008"/>
+        <c:crossAx val="51163520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75947008"/>
+        <c:axId val="51163520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6495,9 +6547,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75945088"/>
+        <c:crossAx val="51149056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6510,7 +6562,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6518,7 +6570,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6583,7 +6635,7 @@
             <c:numRef>
               <c:f>Médias!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.6945083936055667E-3</c:v>
@@ -6645,7 +6697,7 @@
             <c:numRef>
               <c:f>Médias!$F$9:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0758678118387667E-2</c:v>
@@ -6684,7 +6736,7 @@
             <c:numRef>
               <c:f>Médias!$F$15:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.7000714937845665E-3</c:v>
@@ -6723,7 +6775,7 @@
             <c:numRef>
               <c:f>Médias!$F$21:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9981622695922669E-3</c:v>
@@ -6745,11 +6797,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75990912"/>
-        <c:axId val="75997184"/>
+        <c:axId val="51260416"/>
+        <c:axId val="51270784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75990912"/>
+        <c:axId val="51260416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,14 +6825,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75997184"/>
+        <c:crossAx val="51270784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75997184"/>
+        <c:axId val="51270784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,9 +6856,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75990912"/>
+        <c:crossAx val="51260416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6819,7 +6871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6827,7 +6879,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6892,7 +6944,7 @@
             <c:numRef>
               <c:f>Médias!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0186853408813501E-2</c:v>
@@ -6954,7 +7006,7 @@
             <c:numRef>
               <c:f>Médias!$J$9:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.7517673174540663E-2</c:v>
@@ -6993,7 +7045,7 @@
             <c:numRef>
               <c:f>Médias!$J$15:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0225582122802671E-3</c:v>
@@ -7032,7 +7084,7 @@
             <c:numRef>
               <c:f>Médias!$J$21:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1292401949564661E-3</c:v>
@@ -7054,11 +7106,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76110080"/>
-        <c:axId val="76124544"/>
+        <c:axId val="51305856"/>
+        <c:axId val="51312128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76110080"/>
+        <c:axId val="51305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7082,14 +7134,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76124544"/>
+        <c:crossAx val="51312128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76124544"/>
+        <c:axId val="51312128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7113,9 +7165,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76110080"/>
+        <c:crossAx val="51305856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7128,7 +7180,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7136,7 +7188,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7201,7 +7253,7 @@
             <c:numRef>
               <c:f>Médias!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.1324619849522669E-2</c:v>
@@ -7260,7 +7312,7 @@
             <c:numRef>
               <c:f>Médias!$N$9:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.6716419458389005E-2</c:v>
@@ -7296,7 +7348,7 @@
             <c:numRef>
               <c:f>Médias!$N$15:$N$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4364671309789001E-2</c:v>
@@ -7332,7 +7384,7 @@
             <c:numRef>
               <c:f>Médias!$N$21:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2215555111567333E-2</c:v>
@@ -7351,11 +7403,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76143232"/>
-        <c:axId val="76034816"/>
+        <c:axId val="51236864"/>
+        <c:axId val="51238784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76143232"/>
+        <c:axId val="51236864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7379,14 +7431,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76034816"/>
+        <c:crossAx val="51238784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76034816"/>
+        <c:axId val="51238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7410,9 +7462,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76143232"/>
+        <c:crossAx val="51236864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7425,7 +7477,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7433,7 +7485,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7498,7 +7550,7 @@
             <c:numRef>
               <c:f>Médias!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.7366109689076668E-2</c:v>
@@ -7557,7 +7609,7 @@
             <c:numRef>
               <c:f>Médias!$R$9:$R$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.14001714150110667</c:v>
@@ -7593,7 +7645,7 @@
             <c:numRef>
               <c:f>Médias!$R$15:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9718332820468334E-2</c:v>
@@ -7629,7 +7681,7 @@
             <c:numRef>
               <c:f>Médias!$R$21:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.8350254959530334E-2</c:v>
@@ -7648,11 +7700,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76086272"/>
-        <c:axId val="76219520"/>
+        <c:axId val="51470720"/>
+        <c:axId val="51472640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76086272"/>
+        <c:axId val="51470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,14 +7728,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76219520"/>
+        <c:crossAx val="51472640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76219520"/>
+        <c:axId val="51472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7707,9 +7759,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76086272"/>
+        <c:crossAx val="51470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7722,7 +7774,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7730,7 +7782,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -7796,7 +7848,7 @@
             <c:numRef>
               <c:f>Máximas!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.8080565134684655E-3</c:v>
@@ -7858,7 +7910,7 @@
             <c:numRef>
               <c:f>Máximas!$J$3:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.115225156148275</c:v>
@@ -7920,7 +7972,7 @@
             <c:numRef>
               <c:f>Máximas!$N$3:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.4477451642354008E-2</c:v>
@@ -7979,7 +8031,7 @@
             <c:numRef>
               <c:f>Máximas!$R$3:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.11224088668823334</c:v>
@@ -7998,11 +8050,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76299648"/>
-        <c:axId val="76305920"/>
+        <c:axId val="51577600"/>
+        <c:axId val="51579520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76299648"/>
+        <c:axId val="51577600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8026,14 +8078,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76305920"/>
+        <c:crossAx val="51579520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76305920"/>
+        <c:axId val="51579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8057,9 +8109,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76299648"/>
+        <c:crossAx val="51577600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8072,7 +8124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8830,9 +8882,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8870,7 +8922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8940,7 +8992,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9119,156 +9171,158 @@
   </sheetPr>
   <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="14" max="14" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="9" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>1.4314889907836999E-3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>1.5480637550354E-3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>2.1039724349976E-3</v>
       </c>
       <c r="F3" s="11">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>1.6945083936055667E-3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="5">
         <v>5.9571576118468998E-3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <v>6.5603828430176002E-3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>1.8043019771576001E-2</v>
       </c>
       <c r="J3" s="11">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>1.0186853408813501E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>1.1732988357543999E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <v>1.0993567705154E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="5">
         <v>1.1247303485870001E-2</v>
       </c>
       <c r="N3" s="11">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>1.1324619849522669E-2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="5">
         <v>1.706546386083E-2</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="5">
         <v>1.6357367833455001E-2</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="5">
         <v>1.8675497372945001E-2</v>
       </c>
       <c r="R3" s="11">
@@ -9277,56 +9331,56 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>5.2937984466553002E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>5.2482366561889997E-3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <v>5.3282499313353996E-3</v>
       </c>
       <c r="F4" s="11">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>5.2900950113932326E-3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>2.8295629024505001E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>2.3424656391144001E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>2.336040019989E-2</v>
       </c>
       <c r="J4" s="11">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>2.5026895205179669E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>5.2147893905640001E-2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="5">
         <v>4.9582679271698002E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="5">
         <v>4.8338645696640002E-2</v>
       </c>
       <c r="N4" s="11">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>5.0023072957992666E-2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="5">
         <v>7.5992599328359001E-2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="5">
         <v>7.8677759965260996E-2</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="5">
         <v>7.7314221858978002E-2</v>
       </c>
       <c r="R4" s="11">
@@ -9335,56 +9389,56 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>9.6774446964264002E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <v>8.0126941204071003E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>8.1580448150635004E-2</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>8.616061210632335E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="5">
         <v>0.42243172168731002</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <v>0.40363832950591999</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>0.3905458188057</v>
       </c>
       <c r="J5" s="11">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>0.40553862333297669</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>0.83044283986092005</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>0.7926518535614</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="5">
         <v>0.79061448216438002</v>
       </c>
       <c r="N5" s="11">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>0.80456972519556669</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="5">
         <v>1.1617534240087</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="5">
         <v>1.184148367246</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="5">
         <v>1.2018860816956001</v>
       </c>
       <c r="R5" s="11">
@@ -9393,56 +9447,56 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>0.54079600572585995</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>0.50757834911346</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>0.52631659507751005</v>
       </c>
       <c r="F6" s="11">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>0.52489698330560997</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="5">
         <v>2.3419808125496</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>2.3268855214119002</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>2.2600233316420999</v>
       </c>
       <c r="J6" s="11">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>2.3096298885345332</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="5">
         <v>4.7239044475555003</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="5">
         <v>4.580838047266</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="5">
         <v>4.5409740936756</v>
       </c>
       <c r="N6" s="11">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>4.6152388628323671</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="5">
         <v>7.0976135993004004</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="5">
         <v>7.4384954476356997</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="5">
         <v>7.2649534829458</v>
       </c>
       <c r="R6" s="11">
@@ -9451,118 +9505,118 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <v>8.9372336387634004</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <v>8.8908143758773992</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>8.8247224569321006</v>
       </c>
       <c r="F7" s="11">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>8.8842568238576334</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="5">
         <v>39.989624052048001</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <v>39.160101234913</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="5">
         <v>39.330635688305001</v>
       </c>
       <c r="J7" s="11">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>39.493453658421998</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="5">
         <v>1.1092734336853E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="5">
         <v>1.0453903675079E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>1.0729396343231E-2</v>
       </c>
       <c r="F9" s="11">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>1.0758678118387667E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="5">
         <v>4.8883850574494001E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <v>4.7141370773316003E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <v>4.6527798175811999E-2</v>
       </c>
       <c r="J9" s="11">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>4.7517673174540663E-2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>9.4557257890701005E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="5">
         <v>9.6854348182678004E-2</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="5">
         <v>9.8737652301788006E-2</v>
       </c>
       <c r="N9" s="11">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>9.6716419458389005E-2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="5">
         <v>0.13909464359283</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="5">
         <v>0.14467377424239999</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="5">
         <v>0.13628300666809001</v>
       </c>
       <c r="R9" s="11">
@@ -9571,56 +9625,56 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>2.0497751235962001E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>1.9641864299773999E-2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>1.9841349124907998E-2</v>
       </c>
       <c r="F10" s="11">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>1.9993654886881332E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="5">
         <v>8.2397851943969994E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>8.0024123191833996E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>8.0256638526917001E-2</v>
       </c>
       <c r="J10" s="11">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>8.0892871220906992E-2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="5">
         <v>0.13808512806892001</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="5">
         <v>0.14780307650565999</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="5">
         <v>0.14866646289825</v>
       </c>
       <c r="N10" s="11">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.14485155582427667</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="5">
         <v>0.21419168790181001</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="5">
         <v>0.21193301518758001</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="5">
         <v>0.20444893519084001</v>
       </c>
       <c r="R10" s="11">
@@ -9629,56 +9683,56 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>0.10351920127869001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>0.10134074687958</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <v>0.10104925632477001</v>
       </c>
       <c r="F11" s="11">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.10196973482768001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="5">
         <v>0.42700060129166001</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <v>0.42195760488509998</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>0.40732970237732002</v>
       </c>
       <c r="J11" s="11">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>0.41876263618469328</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="5">
         <v>0.73813594698906004</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="5">
         <v>0.74352227687836003</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="5">
         <v>0.76027686834334995</v>
       </c>
       <c r="N11" s="11">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>0.74731169740358994</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="5">
         <v>1.2384808452924001</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="5">
         <v>1.4442740766207001</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="5">
         <v>1.250464776357</v>
       </c>
       <c r="R11" s="11">
@@ -9687,56 +9741,56 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="5">
         <v>0.76854524612427</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>0.76273882389069003</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
         <v>0.77157107591629004</v>
       </c>
       <c r="F12" s="11">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>0.76761838197708332</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="5">
         <v>3.464377322197</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>3.3437757754325999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <v>3.2827260613442002</v>
       </c>
       <c r="J12" s="11">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>3.3636263863245994</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>6.5403406131267996</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="5">
         <v>6.4307137799263003</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="5">
         <v>6.2527921497822003</v>
       </c>
       <c r="N12" s="11">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>6.4079488476117668</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="5">
         <v>9.6602633118629999</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="5">
         <v>10.297345153490999</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="5">
         <v>9.9281050960222998</v>
       </c>
       <c r="R12" s="11">
@@ -9745,118 +9799,118 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="5">
         <v>9.7782281160354998</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <v>9.8242827534675996</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <v>9.9103976964950995</v>
       </c>
       <c r="F13" s="11">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>9.8376361886660657</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="5">
         <v>46.598385419845997</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="5">
         <v>45.270132610798001</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <v>44.744133553505002</v>
       </c>
       <c r="J13" s="11">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>45.537550528049671</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="5">
         <v>1.6363620758057E-3</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="5">
         <v>1.5945434570311999E-3</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <v>1.8693089485167999E-3</v>
       </c>
       <c r="F15" s="11">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>1.7000714937845665E-3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="5">
         <v>6.8293523788452003E-3</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="5">
         <v>5.7006764411925998E-3</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="5">
         <v>5.5376458168030001E-3</v>
       </c>
       <c r="J15" s="11">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>6.0225582122802671E-3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="5">
         <v>1.5425872802733999E-2</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="5">
         <v>1.4411270618439E-2</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="5">
         <v>1.3256870508193999E-2</v>
       </c>
       <c r="N15" s="11">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>1.4364671309789001E-2</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="5">
         <v>1.9928598403930999E-2</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="5">
         <v>2.0515057245889999E-2</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="5">
         <v>1.8711342811584E-2</v>
       </c>
       <c r="R15" s="11">
@@ -9865,58 +9919,58 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="5">
         <v>6.2947154045105E-3</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>6.3360452651977997E-3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <v>6.7602038383483996E-3</v>
       </c>
       <c r="F16" s="11">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>6.4636548360189E-3</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="5">
         <v>2.7417945861816999E-2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="5">
         <v>2.701979637146E-2</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="5">
         <v>2.5766286849975999E-2</v>
       </c>
       <c r="J16" s="11">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>2.6734676361084331E-2</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="5">
         <v>4.8534736633300997E-2</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="5">
         <v>4.9193084239960001E-2</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="5">
         <v>4.6975312232971002E-2</v>
       </c>
       <c r="N16" s="11">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>4.8234377702077336E-2</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="5">
         <v>7.0586326122283993E-2</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="5">
         <v>8.6491499741871994E-2</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="5">
         <v>7.5366777578990005E-2</v>
       </c>
       <c r="R16" s="11">
@@ -9925,56 +9979,56 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="5">
         <v>7.1071159839629999E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="5">
         <v>6.8565058708191004E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="5">
         <v>7.2012400627136E-2</v>
       </c>
       <c r="F17" s="11">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>7.0549539724985663E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="5">
         <v>0.26593747138976997</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="5">
         <v>0.26884125232696998</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="5">
         <v>0.26608824968338002</v>
       </c>
       <c r="J17" s="11">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>0.26695565780003999</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="5">
         <v>0.52250066995621003</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="5">
         <v>0.54413822650910004</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="5">
         <v>0.49347644805907998</v>
       </c>
       <c r="N17" s="11">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>0.52003844817479672</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="5">
         <v>0.79085032304128</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="5">
         <v>0.79578838586806999</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="5">
         <v>0.80515870094299002</v>
       </c>
       <c r="R17" s="11">
@@ -9983,56 +10037,56 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="5">
         <v>0.54750174283981001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <v>0.54565908908843996</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
         <v>0.53927814960480003</v>
       </c>
       <c r="F18" s="11">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>0.5441463271776833</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="5">
         <v>2.3400007390975999</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="5">
         <v>2.2978602719307002</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="5">
         <v>2.3201752424239999</v>
       </c>
       <c r="J18" s="11">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>2.3193454178174333</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="5">
         <v>4.5642453157901999</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="5">
         <v>4.6499361646175004</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="5">
         <v>4.3088773608207998</v>
       </c>
       <c r="N18" s="11">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>4.5076862804094997</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="5">
         <v>6.7723919526736003</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="5">
         <v>7.0252479306857003</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="5">
         <v>6.7403890665372002</v>
       </c>
       <c r="R18" s="11">
@@ -10041,118 +10095,118 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>11.678508663177</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>9.6371009588242007</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>9.6616981029510001</v>
       </c>
       <c r="F19" s="11">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>10.325769241650734</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>44.064142446517998</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="6">
         <v>45.345670368671001</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="6">
         <v>45.287153987884999</v>
       </c>
       <c r="J19" s="11">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>44.898988934357995</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="5">
         <v>1.7413854598999001E-3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <v>2.2881984710692999E-3</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <v>1.9649028778076002E-3</v>
       </c>
       <c r="F21" s="11">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.9981622695922669E-3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="5">
         <v>5.7175612449646002E-3</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="5">
         <v>5.4580068588257003E-3</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="5">
         <v>7.2121524810790996E-3</v>
       </c>
       <c r="J21" s="11">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>6.1292401949564661E-3</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="5">
         <v>1.1682239770889001E-2</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="5">
         <v>1.3195636272431E-2</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="5">
         <v>1.1768789291382E-2</v>
       </c>
       <c r="N21" s="11">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>1.2215555111567333E-2</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="5">
         <v>1.9460439682006999E-2</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="5">
         <v>1.8259693781535E-2</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="5">
         <v>1.7330631415049001E-2</v>
       </c>
       <c r="R21" s="11">
@@ -10161,58 +10215,58 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="5">
         <v>6.0477614402771E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>6.5787434577941999E-3</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="5">
         <v>6.5038442611694003E-3</v>
       </c>
       <c r="F22" s="11">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>6.3767830530802342E-3</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="5">
         <v>2.7889678478241E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="5">
         <v>2.6308827400207999E-2</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="5">
         <v>3.1436080932617003E-2</v>
       </c>
       <c r="J22" s="11">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>2.8544862270355336E-2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="5">
         <v>5.5970176458359E-2</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="5">
         <v>6.5652630329132003E-2</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="5">
         <v>4.7767397165299E-2</v>
       </c>
       <c r="N22" s="11">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>5.6463401317596668E-2</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="5">
         <v>7.2505015532176004E-2</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="5">
         <v>7.4697585105895997E-2</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="5">
         <v>8.0517635345458999E-2</v>
       </c>
       <c r="R22" s="11">
@@ -10221,56 +10275,56 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="5">
         <v>7.7894556522368999E-2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="5">
         <v>8.2943093776703003E-2</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="5">
         <v>8.7105810642242001E-2</v>
       </c>
       <c r="F23" s="11">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>8.2647820313771325E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="5">
         <v>0.29246419191360001</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="5">
         <v>0.29269207715987999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="5">
         <v>0.30437308073044</v>
       </c>
       <c r="J23" s="11">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>0.29650978326797334</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="5">
         <v>0.61388147592544995</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="5">
         <v>0.55080269932746995</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="5">
         <v>0.54690699338912996</v>
       </c>
       <c r="N23" s="11">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>0.57053038954735003</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="5">
         <v>0.75176377932230998</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="5">
         <v>0.78768475453058995</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="5">
         <v>0.84885949611664002</v>
       </c>
       <c r="R23" s="11">
@@ -10279,56 +10333,56 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="5">
         <v>0.55652589797973995</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>0.57265315055846999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
         <v>0.55273129940032995</v>
       </c>
       <c r="F24" s="11">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>0.56063678264618</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="5">
         <v>2.2740010142327001</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="5">
         <v>2.2856835031509002</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="5">
         <v>2.2894560313225001</v>
       </c>
       <c r="J24" s="11">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>2.2830468495687</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="5">
         <v>4.6694439303874997</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="5">
         <v>4.5749511063099</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="5">
         <v>4.5856848680973004</v>
       </c>
       <c r="N24" s="11">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>4.6100266349315673</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="5">
         <v>7.6153397981325996</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="5">
         <v>6.8482379635174997</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="5">
         <v>6.5544489558538004</v>
       </c>
       <c r="R24" s="11">
@@ -10337,64 +10391,64 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>9.9382291555404993</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>9.7032833933829998</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>9.6119048953055994</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>9.7511391480763674</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>44.869167962074002</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="6">
         <v>45.470930807590001</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="6">
         <v>43.973211901188002</v>
       </c>
       <c r="J25" s="11">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>44.771103556950663</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="9"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10418,8 +10472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="R2" activeCellId="3" sqref="F1:F1048576 J1:J1048576 N1:N1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10427,39 +10481,41 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="257" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" style="1"/>
+    <col min="18" max="18" width="11.7109375" style="10"/>
+    <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
@@ -10471,7 +10527,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -10483,7 +10539,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -10495,7 +10551,7 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -10507,7 +10563,7 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10518,55 +10574,55 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>7.2529315948485999E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7.2181224822998004E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.1953115463257001E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>8.8080565134684655E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>3.5267019271850997E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>4.3829584121703999E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.26657886505126999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="9">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.115225156148275</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>6.5957403182983002E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>6.3758063316344996E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>6.3716888427734E-2</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="9">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>6.4477451642354008E-2</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.10858422915141</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>0.11337777773539</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.1147606531779</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="9">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>0.11224088668823334</v>
       </c>
@@ -10575,55 +10631,55 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.3689985275268999E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.4049997329712001E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2.3747920989989998E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>2.3829301198323664E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.13800163269043</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.10595703125</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.10407118797301999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="9">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.11600995063781666</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.25194811820983998</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.24391353130341001</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.21619493961333999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="9">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>0.23735219637552998</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.37704892158508002</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>0.38762256304422998</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.38960140546163002</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="9">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>0.38475763003031332</v>
       </c>
@@ -10632,55 +10688,55 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.57281708717346003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.33039093017577997</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.33272790908812999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>0.41197864214579</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1.8746539115906</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1.7866715908051001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>1.6307839870453</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="9">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>1.7640364964803332</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>4.0690225601196</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>3.3074926376342999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>3.3108070135116998</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="9">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>3.5624407370885329</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>4.8273777961731001</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>4.9529525597889998</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>5.1045025189717999</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="9">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>4.9616109583112999</v>
       </c>
@@ -10689,55 +10745,55 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.7736988067627002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2.4599299430846999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2.4499311447143999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>2.5611866315206</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>10.80013756752</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>10.270339775085001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>9.8035129547118007</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="9">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>10.2913300991056</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>22.995408773422</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>19.68551299572</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>19.797922396659999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="9">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>20.826281388600666</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>30.346943807601999</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>36.315698464710998</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>34.170119746525998</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="9">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>33.610920672946328</v>
       </c>
@@ -10746,58 +10802,57 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>36.395166873931998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>36.015284776687999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>35.772108078003001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>36.06085324287433</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>164.53409862518001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>162.02532038689</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>161.61526856423001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>162.72489585876667</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
@@ -10806,55 +10861,55 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4.7950029373169001E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>4.4583082199096999E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>4.4539928436278999E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>4.5691013336181668E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.21065196990967</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.20160684585571001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.20028495788573999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="9">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.20418125788370667</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0.40006971359253002</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>0.42880916595459001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.41465699672699002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="9">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>0.41451195875803665</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>0.59108333587646</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>0.61449319521585999</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>0.5699603398641</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="9">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>0.59184562365214</v>
       </c>
@@ -10863,55 +10918,55 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>8.9298009872436995E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8.7839126586913993E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>9.1475963592529005E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>8.9537700017293331E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.41370339393616001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.36026096343994002</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.35251493453978999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="9">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>0.37549309730529662</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.59704129695892005</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>0.64298689365386996</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.65656580924987995</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="9">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.63219799995422343</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>0.91969916025798004</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>0.93027995427450005</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>0.88860406875609999</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="9">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>0.91286106109619336</v>
       </c>
@@ -10920,55 +10975,55 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.46341013908385997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.42142009735107</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.42274618148804</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.43585880597432336</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1.8653461933136</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1.8447131156920999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1.8550609588622999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="9">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>1.8550400892893333</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>3.1129492044449001</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>3.1052729129791001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>3.3289674043655002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="9">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>3.1823965072631668</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>6.9738423665363998</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>8.0030083497365005</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>5.7749861558277997</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="9">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>6.9172789573669</v>
       </c>
@@ -10977,55 +11032,55 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3.4592239856720002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3.4055318832396999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3.4218561649322998</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="9">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>3.4288706779480003</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>18.312743711471999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>16.547928762436001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>15.521381235123</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="9">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>16.794017903010332</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>33.630316114426002</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>32.721774148941002</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>31.199522995949</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="9">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>32.517204419772</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>46.234833796818997</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>47.887095514933002</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>55.294899241129997</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="9">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>49.805609517627339</v>
       </c>
@@ -11034,58 +11089,57 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>39.942064046859997</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>39.89732003212</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>40.802585124968999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="9">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>40.213989734649665</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>206.99452590943</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>208.19823722839999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>204.47934961319001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="9">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>206.55737091700666</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
@@ -11094,55 +11148,55 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>7.8480243682860999E-3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>7.8988075256348003E-3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1.0045051574707E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="9">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>8.5972944895426322E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>5.0973653793335003E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3.0906105041504001E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>2.9773759841919E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="9">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>3.7217839558919337E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.12633295059204</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.11819014549255</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>8.8585734367370994E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="9">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.11103627681732033</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.11665954589844001</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>0.15495767593383999</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>0.13692493438721001</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="9">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>0.13618071873982998</v>
       </c>
@@ -11154,55 +11208,55 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2.8334140777588002E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2.7240037918091001E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>3.1787157058716001E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>2.9120445251465E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.12788996696471999</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.13751921653747001</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.12713637351990001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="9">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.13084851900736336</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0.25247685909271</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>0.25813038349152001</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>0.22794213294983001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="9">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.24618312517802002</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>0.35138460795085003</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>0.40709544817607002</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>0.36049739519754997</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="9">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>0.3729924837748233</v>
       </c>
@@ -11211,55 +11265,55 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.28946495056152</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.29322409629821999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.29872417449951</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="9">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>0.29380440711975003</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>1.1922716140747001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>1.1498569965362</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1.1194800376892</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="9">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>1.1538695494333668</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>2.1932008028030001</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>2.3419580936431998</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>2.0660638093947998</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="9">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>2.2004075686136666</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>3.3252289930979</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>3.2887267589569</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>3.5162612597148</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="9">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>3.3767390039231997</v>
       </c>
@@ -11268,55 +11322,55 @@
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2.5863378047943</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2.5435888767242001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>2.5681610107421999</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="9">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>2.5660292307535664</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>11.233117055893</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>11.431131076812999</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>11.202819633483999</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="9">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>11.289022588729999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>25.306958389281998</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>22.278060340881002</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>21.07271630764</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="9">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>22.885911679267668</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>31.822139803568</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>31.112723811466999</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>31.022836780548001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="9">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>31.319233465194333</v>
       </c>
@@ -11325,58 +11379,57 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>79.294433116912998</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>38.984266042709002</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>38.904347896575999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="9">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>52.394349018732669</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>189.88638706207001</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>203.97909016609</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>198.63712701797999</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="9">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>197.50086808204665</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
@@ -11385,55 +11438,55 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>8.2938671112060998E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1.9883871078490999E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1.0454893112183001E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="9">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.2877543767293366E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>3.2240056991576997E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>2.9556608200073001E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>4.2261219024658001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="9">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>3.4685961405435999E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>7.0954108238220001E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>7.5200557708739998E-2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>6.6626048088074E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="9">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>7.0926904678344671E-2</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>0.11761468251546001</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>0.11127301851908</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>0.10422490437826</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="9">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>0.11103753513760001</v>
       </c>
@@ -11445,55 +11498,55 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2.6512145996094E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>3.1292915344237997E-2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>3.071403503418E-2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="9">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>2.9506365458170664E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.13429083824158</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>0.13121619224548001</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0.16669764518738001</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="9">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.14406822522481336</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0.31163783073425</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>0.55145773887634997</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>0.24426610469818</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="9">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>0.36912055810292665</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>0.37040146191915002</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>0.35832185745238998</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <v>0.45862773259480999</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="9">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>0.39578368398878333</v>
       </c>
@@ -11502,55 +11555,55 @@
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.36653804779053001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0.41377687454223999</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>0.60754418373107999</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="9">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>0.46261970202128327</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>1.3559296131134</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>1.2252017498015999</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>1.3626742362976001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="9">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>1.3146018664041998</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>2.7777417898177998</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>2.4877586364746</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>2.3611316919326999</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="9">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>2.5422107060750334</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>3.3741455872853998</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>3.3618197441100999</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>3.8807011763255002</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="9">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>3.5388888359070001</v>
       </c>
@@ -11559,55 +11612,55 @@
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>2.5659189224243</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>2.5739328861236999</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>2.5189740657806001</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="9">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>2.5529419581095336</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>10.921091556548999</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>11.353821754456</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>11.35698094368</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="9">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>11.210631418228333</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>23.484414839744002</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>22.550415802002</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>23.329129576682998</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="9">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>23.121320072809667</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>34.786128282546997</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>34.930746475855997</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="2">
         <v>31.795294602712001</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="9">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>33.837389787038333</v>
       </c>
@@ -11616,40 +11669,40 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>44.711110115051</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>39.505669116973998</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>38.628494977951</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="9">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>40.948424736658666</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>205.50356354713</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>211.71452279091</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>199.37117462158</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="9">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>205.52975365320665</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
@@ -11686,12 +11739,12 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11699,8 +11752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11708,39 +11761,41 @@
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
     <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="10.5703125" style="1"/>
+    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1"/>
-    <col min="15" max="257" width="11.7109375" style="1"/>
+    <col min="14" max="14" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" style="1"/>
+    <col min="18" max="18" width="11.7109375" style="10"/>
+    <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
@@ -11752,7 +11807,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -11764,7 +11819,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -11776,7 +11831,7 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -11788,7 +11843,7 @@
       <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11799,55 +11854,55 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.8629779815674002E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3.0961275100708001E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4.2079448699950998E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>3.3890167872111E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.11914315223694</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.13120765686034999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.36086039543151999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="9">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.20373706817627002</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.23465976715087999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.21987135410309</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.22494606971740999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="9">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>0.22649239699045998</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.34130927721658999</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>0.32714735666910999</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.37350994745889998</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="9">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>0.34732219378153334</v>
       </c>
@@ -11856,55 +11911,55 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.10587596893311001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.10496473312378</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.10656499862671</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>0.10580190022786667</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.56591258049010995</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.46849312782288</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.46720800399779999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="9">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.50053790410359666</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1.0429578781127999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.99165358543395998</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.96677291393279996</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="9">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>1.0004614591598533</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>1.5198519865672</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>1.5735551993051999</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>1.5462844371796001</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="9">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>1.5465638743506667</v>
       </c>
@@ -11913,55 +11968,55 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.9354889392853001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.6025388240814</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.6316089630127</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>1.7232122421264666</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>8.4486344337462995</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>8.0727665901184</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>7.8109163761138998</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="9">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>8.1107724666595331</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>16.608856797217999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>15.853037071228</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>15.812289643288</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="9">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>16.091394503911332</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>23.235068480174</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>23.682967344920002</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>24.037721633911001</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="9">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>23.651919153001668</v>
       </c>
@@ -11970,55 +12025,55 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>10.815920114517001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>10.151566982268999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>10.52633190155</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>10.497939666112002</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>46.839616250992002</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>46.537710428238</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>45.200466632843003</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="9">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>46.192597770691009</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>94.478088951111005</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>91.616760945319996</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>90.819481873512004</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="9">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>92.304777256647682</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>141.95227198601</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>148.76990895271001</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>145.29906965891999</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="9">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>145.34041686588</v>
       </c>
@@ -12027,58 +12082,58 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>178.74467277527</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>177.81628751754999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>176.49444913863999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>177.68513647715335</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>799.79248104094995</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>783.20202469825995</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>786.6127137661</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>789.86907316843656</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
@@ -12087,55 +12142,55 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.22185468673705999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.20907807350158999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.21458792686462</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>0.21517356236775667</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.97767701148986996</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.94282741546630999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.93055596351623004</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="9">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.9503534634908033</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1.8911451578139999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>1.9370869636535999</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>1.9747530460358</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="9">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>1.9343283891678</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>2.7818928718567002</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>2.893475484848</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>2.7256601333617998</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="9">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>2.8003428300221667</v>
       </c>
@@ -12144,55 +12199,55 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.40995502471924</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.39283728599548001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.39682698249817</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>0.39987309773762997</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1.6479570388794</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1.6004824638366999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1.6051327705383001</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="9">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>1.6178574244181334</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>2.7617025613784998</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>2.9560615301132001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>2.9733292579651001</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="9">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>2.8970311164856</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>4.2838337580363</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>4.2386603037516002</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>4.0889787038167</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="9">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>4.2038242552015328</v>
       </c>
@@ -12201,55 +12256,55 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2.0703840255736998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2.0268149375915998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.0209851264954</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>2.0393946965535665</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>8.5400120258331995</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>8.4391520977019994</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>8.1465940475463992</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="9">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>8.3752527236938672</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>14.762718939780999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>14.870445537567001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>15.205537366867</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="9">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>14.946233948071667</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>24.769616905848</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>28.885481532415</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>25.009295527140001</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="9">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>26.22146465513433</v>
       </c>
@@ -12258,55 +12313,55 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>15.370904922485</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>15.254776477814</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>15.431421518325999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="9">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>15.352367639541667</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>69.287546443938993</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>66.875515508652001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>65.654521226883006</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="9">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>67.272527726491333</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>130.80681226253</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>128.61427559853001</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>125.05584299564001</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="9">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>128.15897695223336</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>193.20526623725999</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>205.94690306980999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>198.56210192045</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="9">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>199.23809040917331</v>
       </c>
@@ -12315,58 +12370,58 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>195.56456232071</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>196.48565506935</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>198.20795392989999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="9">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>196.75272377331999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>931.96770839690998</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>905.40265221595996</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>894.88267107009995</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="9">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>910.75101056098993</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
@@ -12375,55 +12430,55 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>3.2727241516112997E-2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>3.1890869140625E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>3.7386178970336997E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="9">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>3.4001429875691665E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.13658704757689999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.11401352882385</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.11075291633606001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="9">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>0.12045116424560333</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.30851745605469</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.28822541236876997</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.26513741016387998</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="9">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.28729342619577997</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.39857196807861001</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>0.41030114491781</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>0.37422685623169</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="9">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>0.39436665640936996</v>
       </c>
@@ -12435,55 +12490,55 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.12589430809020999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.12672090530395999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.13520407676696999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>0.12927309672037998</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.54835891723633001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.54039592742919995</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.51532573699951001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="9">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.53469352722167995</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0.97069473266602002</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>0.98386168479919001</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>0.93950624465943</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="9">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.96468755404154682</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>1.4117265224457001</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>1.7298299948374001</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>1.5073355515797999</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="9">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>1.5496306896209668</v>
       </c>
@@ -12492,55 +12547,55 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1.4214231967926001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>1.3713011741637999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1.4402480125427</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="9">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>1.4109907944997</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>5.3187494277954004</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>5.3768250465392997</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>5.3217649936675997</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="9">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>5.3391131560007663</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>10.450013399124</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>10.882764530182</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>9.8695289611816008</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="9">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>10.400768963495866</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>15.817006460826001</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>15.915767717361</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>16.103174018859999</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="9">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>15.945316065682334</v>
       </c>
@@ -12549,55 +12604,55 @@
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>10.950034856796</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>10.913181781769</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>10.785562992096001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="9">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>10.882926543553666</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>46.800014781952001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>45.957205438613997</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>46.403504848479997</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="9">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>46.38690835634867</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>91.284906315803994</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>92.998723292351002</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>86.177547216414993</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="9">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>90.153725608189987</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>135.44783905347001</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>140.50495861370999</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>134.80778133074</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="9">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>136.92019299930666</v>
       </c>
@@ -12606,58 +12661,58 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>233.57017326355</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>192.74201917648</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>193.23396205902</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="9">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>206.51538483301667</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>881.28284893036005</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>906.91340737343</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>905.74307975769</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="9">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>897.97977868715998</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
@@ -12666,55 +12721,55 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>3.4827709197997998E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>4.5763969421387003E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>3.9298057556151997E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="9">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>3.9963245391845668E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>0.11435122489929</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>0.10916013717651001</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0.14424304962157999</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="9">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>0.12258480389912667</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>0.23364479541777999</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>0.26391272544861</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>0.23537578582763999</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="9">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>0.24431110223134334</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>0.38920879364013999</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>0.36519387563069999</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>0.34661262830098999</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="9">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>0.36700509919060997</v>
       </c>
@@ -12726,55 +12781,55 @@
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.12095522880553999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.13157486915587999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.13007688522339</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="9">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>0.12753566106160333</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.55779356956481996</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>0.52617654800415004</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0.62872161865234999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="9">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.57089724540710662</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1.1194035291672</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>1.3130526065826</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>0.95534794330596995</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="9">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>1.1292680263519232</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>1.4501003106435</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>1.4939517021179001</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <v>1.6103527069092001</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="9">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>1.5181349065568668</v>
       </c>
@@ -12783,55 +12838,55 @@
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>1.5578911304473999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1.6588618755341</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1.7421162128448</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="9">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>1.6529564062754334</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>5.8492838382721004</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>5.8538415431975999</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>6.0874616146087996</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="9">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>5.9301956653594994</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>12.277629518509</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>11.016053986549</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>10.938139867782001</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="9">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>11.410607790946665</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>15.035275586446</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>15.753695090612</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>16.977189922333</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="9">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>15.922053533130333</v>
       </c>
@@ -12840,55 +12895,55 @@
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>11.130517959595</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>11.453063011169</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>11.054625988007</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="9">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>11.212735652923667</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>45.480020284653001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>45.713670063019002</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>45.78912062645</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="9">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>45.660936991374001</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>93.388878607750001</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>91.499022126198</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>91.713697361946004</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="9">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>92.200532698631335</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>152.30679596265</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>136.96475927034999</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="2">
         <v>131.08897911707999</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="9">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>140.12017811669332</v>
       </c>
@@ -12897,40 +12952,40 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>198.76458311081001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>194.06566786766001</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>192.23809790611</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="9">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>195.02278296152667</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>897.38335924148998</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>909.41861615181006</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>879.46423802376</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="9">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>895.42207113901998</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">

--- a/coleta-notebook-moret.xlsx
+++ b/coleta-notebook-moret.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Médias" sheetId="1" r:id="rId1"/>
     <sheet name="Máximas" sheetId="2" r:id="rId2"/>
     <sheet name="Totais" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Médias!$A$1:$R$63</definedName>
+  </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
   <si>
     <t>One client process</t>
   </si>
@@ -70,27 +73,6 @@
   </si>
   <si>
     <t>Ten processes</t>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Servidor (VM)</t>
-  </si>
-  <si>
-    <t>Virtualbox Ubuntu 64, RAM 2GB</t>
-  </si>
-  <si>
-    <t>Cliente (VM)</t>
-  </si>
-  <si>
-    <t>Virtualbox Ubuntu 64, RAM 4GB</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM)2 Duo CPU P8700 @ 2.53GHz, RAM 8GB</t>
   </si>
 </sst>
 </file>
@@ -151,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -159,15 +141,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +227,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -516,11 +495,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49394432"/>
-        <c:axId val="49396736"/>
+        <c:axId val="70339968"/>
+        <c:axId val="70354816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49394432"/>
+        <c:axId val="70339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,14 +523,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49396736"/>
+        <c:crossAx val="70354816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49396736"/>
+        <c:axId val="70354816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +556,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49394432"/>
+        <c:crossAx val="70339968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -590,7 +569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -598,7 +577,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -866,11 +845,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51627136"/>
-        <c:axId val="51629056"/>
+        <c:axId val="72433664"/>
+        <c:axId val="72435584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51627136"/>
+        <c:axId val="72433664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,14 +873,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51629056"/>
+        <c:crossAx val="72435584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51629056"/>
+        <c:axId val="72435584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +906,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51627136"/>
+        <c:crossAx val="72433664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,7 +919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -948,7 +927,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -1224,11 +1203,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61846656"/>
-        <c:axId val="61848576"/>
+        <c:axId val="72818688"/>
+        <c:axId val="72820608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61846656"/>
+        <c:axId val="72818688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,14 +1231,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61848576"/>
+        <c:crossAx val="72820608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61848576"/>
+        <c:axId val="72820608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1264,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61846656"/>
+        <c:crossAx val="72818688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,7 +1277,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1306,7 +1285,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -1582,11 +1561,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62682624"/>
-        <c:axId val="62684544"/>
+        <c:axId val="72860032"/>
+        <c:axId val="72861952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62682624"/>
+        <c:axId val="72860032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,14 +1589,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62684544"/>
+        <c:crossAx val="72861952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62684544"/>
+        <c:axId val="72861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1622,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62682624"/>
+        <c:crossAx val="72860032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,7 +1635,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1664,7 +1643,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1891,11 +1870,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63846272"/>
-        <c:axId val="63864832"/>
+        <c:axId val="73970432"/>
+        <c:axId val="73972352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63846272"/>
+        <c:axId val="73970432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,14 +1898,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63864832"/>
+        <c:crossAx val="73972352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63864832"/>
+        <c:axId val="73972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1931,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63846272"/>
+        <c:crossAx val="73970432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,7 +1944,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1973,7 +1952,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2200,11 +2179,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63887616"/>
-        <c:axId val="63893888"/>
+        <c:axId val="74015872"/>
+        <c:axId val="74017792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63887616"/>
+        <c:axId val="74015872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,14 +2207,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63893888"/>
+        <c:crossAx val="74017792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63893888"/>
+        <c:axId val="74017792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2240,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63887616"/>
+        <c:crossAx val="74015872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,7 +2253,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2282,7 +2261,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2497,11 +2476,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62757504"/>
-        <c:axId val="62771968"/>
+        <c:axId val="75175424"/>
+        <c:axId val="75177344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62757504"/>
+        <c:axId val="75175424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,14 +2504,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62771968"/>
+        <c:crossAx val="75177344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62771968"/>
+        <c:axId val="75177344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2537,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62757504"/>
+        <c:crossAx val="75175424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +2550,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2579,7 +2558,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2794,11 +2773,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65551360"/>
-        <c:axId val="65565824"/>
+        <c:axId val="75212672"/>
+        <c:axId val="75231232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65551360"/>
+        <c:axId val="75212672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,14 +2801,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65565824"/>
+        <c:crossAx val="75231232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65565824"/>
+        <c:axId val="75231232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2834,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65551360"/>
+        <c:crossAx val="75212672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2868,7 +2847,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2876,7 +2855,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -3144,11 +3123,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63942656"/>
-        <c:axId val="63944576"/>
+        <c:axId val="75168384"/>
+        <c:axId val="75240192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63942656"/>
+        <c:axId val="75168384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,14 +3151,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63944576"/>
+        <c:crossAx val="75240192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63944576"/>
+        <c:axId val="75240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3184,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63942656"/>
+        <c:crossAx val="75168384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3218,7 +3197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3226,7 +3205,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -3494,11 +3473,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65679744"/>
-        <c:axId val="65681664"/>
+        <c:axId val="75279360"/>
+        <c:axId val="75285632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65679744"/>
+        <c:axId val="75279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,14 +3501,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65681664"/>
+        <c:crossAx val="75285632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65681664"/>
+        <c:axId val="75285632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3534,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65679744"/>
+        <c:crossAx val="75279360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3568,7 +3547,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3576,7 +3555,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -3852,11 +3831,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65725184"/>
-        <c:axId val="65727104"/>
+        <c:axId val="75332992"/>
+        <c:axId val="75347456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65725184"/>
+        <c:axId val="75332992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,14 +3859,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65727104"/>
+        <c:crossAx val="75347456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65727104"/>
+        <c:axId val="75347456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3892,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65725184"/>
+        <c:crossAx val="75332992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3926,7 +3905,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3934,7 +3913,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="4"/>
   <c:chart>
     <c:title>
@@ -4202,11 +4181,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49460736"/>
-        <c:axId val="49462656"/>
+        <c:axId val="71004544"/>
+        <c:axId val="71006464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49460736"/>
+        <c:axId val="71004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,14 +4209,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49462656"/>
+        <c:crossAx val="71006464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49462656"/>
+        <c:axId val="71006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +4242,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49460736"/>
+        <c:crossAx val="71004544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,7 +4255,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4284,7 +4263,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -4560,11 +4539,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65639552"/>
-        <c:axId val="65641472"/>
+        <c:axId val="75448320"/>
+        <c:axId val="75450240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65639552"/>
+        <c:axId val="75448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,14 +4567,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65641472"/>
+        <c:crossAx val="75450240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65641472"/>
+        <c:axId val="75450240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,7 +4600,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65639552"/>
+        <c:crossAx val="75448320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4634,7 +4613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4642,7 +4621,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4869,11 +4848,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65763200"/>
-        <c:axId val="65773568"/>
+        <c:axId val="75371264"/>
+        <c:axId val="75373184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65763200"/>
+        <c:axId val="75371264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,14 +4876,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65773568"/>
+        <c:crossAx val="75373184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65773568"/>
+        <c:axId val="75373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,7 +4909,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65763200"/>
+        <c:crossAx val="75371264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4943,7 +4922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4951,7 +4930,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5178,11 +5157,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66918656"/>
-        <c:axId val="66933120"/>
+        <c:axId val="75416704"/>
+        <c:axId val="75418624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66918656"/>
+        <c:axId val="75416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5206,14 +5185,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66933120"/>
+        <c:crossAx val="75418624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66933120"/>
+        <c:axId val="75418624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5239,7 +5218,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66918656"/>
+        <c:crossAx val="75416704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5252,7 +5231,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5260,7 +5239,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5475,11 +5454,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66964096"/>
-        <c:axId val="66847488"/>
+        <c:axId val="75523584"/>
+        <c:axId val="75525504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66964096"/>
+        <c:axId val="75523584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,14 +5482,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66847488"/>
+        <c:crossAx val="75525504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66847488"/>
+        <c:axId val="75525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5536,7 +5515,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66964096"/>
+        <c:crossAx val="75523584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5549,7 +5528,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000097" footer="0.31496062000000097"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5557,7 +5536,7 @@
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5772,11 +5751,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66894848"/>
-        <c:axId val="66901120"/>
+        <c:axId val="75646848"/>
+        <c:axId val="75665408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66894848"/>
+        <c:axId val="75646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,14 +5779,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66901120"/>
+        <c:crossAx val="75665408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66901120"/>
+        <c:axId val="75665408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +5812,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66894848"/>
+        <c:crossAx val="75646848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5846,7 +5825,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000102" footer="0.31496062000000102"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000108" footer="0.31496062000000108"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5854,7 +5833,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="5"/>
   <c:chart>
     <c:title>
@@ -6130,11 +6109,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49506176"/>
-        <c:axId val="49524736"/>
+        <c:axId val="70656768"/>
+        <c:axId val="70658688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49506176"/>
+        <c:axId val="70656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,14 +6137,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49524736"/>
+        <c:crossAx val="70658688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49524736"/>
+        <c:axId val="70658688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6191,7 +6170,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49506176"/>
+        <c:crossAx val="70656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6204,7 +6183,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6212,7 +6191,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -6488,11 +6467,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51149056"/>
-        <c:axId val="51163520"/>
+        <c:axId val="70702208"/>
+        <c:axId val="70704128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51149056"/>
+        <c:axId val="70702208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6516,14 +6495,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51163520"/>
+        <c:crossAx val="70704128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51163520"/>
+        <c:axId val="70704128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6549,7 +6528,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51149056"/>
+        <c:crossAx val="70702208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6562,7 +6541,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6570,7 +6549,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6797,11 +6776,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51260416"/>
-        <c:axId val="51270784"/>
+        <c:axId val="72132480"/>
+        <c:axId val="72138752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51260416"/>
+        <c:axId val="72132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,14 +6804,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51270784"/>
+        <c:crossAx val="72138752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51270784"/>
+        <c:axId val="72138752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6858,7 +6837,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51260416"/>
+        <c:crossAx val="72132480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6871,7 +6850,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6879,7 +6858,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7106,11 +7085,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51305856"/>
-        <c:axId val="51312128"/>
+        <c:axId val="72186112"/>
+        <c:axId val="72192384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51305856"/>
+        <c:axId val="72186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7134,14 +7113,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51312128"/>
+        <c:crossAx val="72192384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51312128"/>
+        <c:axId val="72192384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7167,7 +7146,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51305856"/>
+        <c:crossAx val="72186112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7180,7 +7159,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7188,7 +7167,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7403,11 +7382,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51236864"/>
-        <c:axId val="51238784"/>
+        <c:axId val="72211072"/>
+        <c:axId val="72233728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51236864"/>
+        <c:axId val="72211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7431,14 +7410,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51238784"/>
+        <c:crossAx val="72233728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51238784"/>
+        <c:axId val="72233728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7464,7 +7443,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51236864"/>
+        <c:crossAx val="72211072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7477,7 +7456,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7485,7 +7464,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7700,11 +7679,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51470720"/>
-        <c:axId val="51472640"/>
+        <c:axId val="72285184"/>
+        <c:axId val="72352896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51470720"/>
+        <c:axId val="72285184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7728,14 +7707,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51472640"/>
+        <c:crossAx val="72352896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51472640"/>
+        <c:axId val="72352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7761,7 +7740,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51470720"/>
+        <c:crossAx val="72285184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7774,7 +7753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7782,7 +7761,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -8050,11 +8029,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51577600"/>
-        <c:axId val="51579520"/>
+        <c:axId val="72494464"/>
+        <c:axId val="72508928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51577600"/>
+        <c:axId val="72494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8078,14 +8057,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51579520"/>
+        <c:crossAx val="72508928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51579520"/>
+        <c:axId val="72508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8111,7 +8090,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51577600"/>
+        <c:crossAx val="72494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8124,7 +8103,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8136,13 +8115,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>754052</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>56564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8166,15 +8145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262537</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752393</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>2401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177372</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198255</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>58965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8198,15 +8177,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>192902</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206510</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>2401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>287031</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>724548</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>58965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8230,15 +8209,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>305760</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>727581</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>41302</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>802820</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>61367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8264,13 +8243,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>8004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>754052</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8294,15 +8273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>747591</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>10405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199472</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8326,15 +8305,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>186499</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200106</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>10405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>727744</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8358,15 +8337,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>305762</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>727583</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>41304</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>24546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8397,14 +8376,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102108</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8425,16 +8404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238178</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8455,16 +8434,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8485,16 +8464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510321</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8517,14 +8496,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102108</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>75000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8545,16 +8524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238179</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>75001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8575,16 +8554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374252</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>75001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8605,16 +8584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510324</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>75001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8642,14 +8621,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74894</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8670,16 +8649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156535</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8700,16 +8679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238179</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8730,16 +8709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>122463</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319821</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8762,14 +8741,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74894</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8790,16 +8769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156536</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8820,16 +8799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238180</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8850,16 +8829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319823</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8882,9 +8861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8922,7 +8901,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8992,7 +8971,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9169,54 +9148,54 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW26"/>
+  <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
-    <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="9" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="7" customWidth="1"/>
+    <col min="7" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="7" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="7" customWidth="1"/>
+    <col min="15" max="17" width="13.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="7" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="15">
       <c r="A2" s="4"/>
@@ -9230,7 +9209,7 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -9242,7 +9221,7 @@
       <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -9254,7 +9233,7 @@
       <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -9266,7 +9245,7 @@
       <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9286,7 +9265,7 @@
       <c r="E3" s="5">
         <v>2.1039724349976E-3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>1.6945083936055667E-3</v>
       </c>
@@ -9299,7 +9278,7 @@
       <c r="I3" s="5">
         <v>1.8043019771576001E-2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>1.0186853408813501E-2</v>
       </c>
@@ -9312,7 +9291,7 @@
       <c r="M3" s="5">
         <v>1.1247303485870001E-2</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>1.1324619849522669E-2</v>
       </c>
@@ -9325,7 +9304,7 @@
       <c r="Q3" s="5">
         <v>1.8675497372945001E-2</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <f>SUM(O3:Q3)/COUNT(O3:Q3)</f>
         <v>1.7366109689076668E-2</v>
       </c>
@@ -9344,7 +9323,7 @@
       <c r="E4" s="5">
         <v>5.3282499313353996E-3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>5.2900950113932326E-3</v>
       </c>
@@ -9357,7 +9336,7 @@
       <c r="I4" s="5">
         <v>2.336040019989E-2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>2.5026895205179669E-2</v>
       </c>
@@ -9370,7 +9349,7 @@
       <c r="M4" s="5">
         <v>4.8338645696640002E-2</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>5.0023072957992666E-2</v>
       </c>
@@ -9383,7 +9362,7 @@
       <c r="Q4" s="5">
         <v>7.7314221858978002E-2</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <f>SUM(O4:Q4)/COUNT(O4:Q4)</f>
         <v>7.7328193717532676E-2</v>
       </c>
@@ -9402,7 +9381,7 @@
       <c r="E5" s="5">
         <v>8.1580448150635004E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>8.616061210632335E-2</v>
       </c>
@@ -9415,7 +9394,7 @@
       <c r="I5" s="5">
         <v>0.3905458188057</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>0.40553862333297669</v>
       </c>
@@ -9428,7 +9407,7 @@
       <c r="M5" s="5">
         <v>0.79061448216438002</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>0.80456972519556669</v>
       </c>
@@ -9441,7 +9420,7 @@
       <c r="Q5" s="5">
         <v>1.2018860816956001</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <f>SUM(O5:Q5)/COUNT(O5:Q5)</f>
         <v>1.1825959576500999</v>
       </c>
@@ -9460,7 +9439,7 @@
       <c r="E6" s="5">
         <v>0.52631659507751005</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>0.52489698330560997</v>
       </c>
@@ -9473,7 +9452,7 @@
       <c r="I6" s="5">
         <v>2.2600233316420999</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>2.3096298885345332</v>
       </c>
@@ -9486,7 +9465,7 @@
       <c r="M6" s="5">
         <v>4.5409740936756</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>4.6152388628323671</v>
       </c>
@@ -9499,7 +9478,7 @@
       <c r="Q6" s="5">
         <v>7.2649534829458</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <f>SUM(O6:Q6)/COUNT(O6:Q6)</f>
         <v>7.2670208432939667</v>
       </c>
@@ -9518,7 +9497,7 @@
       <c r="E7" s="5">
         <v>8.8247224569321006</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>8.8842568238576334</v>
       </c>
@@ -9531,18 +9510,18 @@
       <c r="I7" s="5">
         <v>39.330635688305001</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>39.493453658421998</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="15">
       <c r="A8" s="4"/>
@@ -9550,19 +9529,19 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" ht="15">
       <c r="A9" s="4" t="s">
@@ -9580,7 +9559,7 @@
       <c r="E9" s="5">
         <v>1.0729396343231E-2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>1.0758678118387667E-2</v>
       </c>
@@ -9593,7 +9572,7 @@
       <c r="I9" s="5">
         <v>4.6527798175811999E-2</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>4.7517673174540663E-2</v>
       </c>
@@ -9606,7 +9585,7 @@
       <c r="M9" s="5">
         <v>9.8737652301788006E-2</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>9.6716419458389005E-2</v>
       </c>
@@ -9619,7 +9598,7 @@
       <c r="Q9" s="5">
         <v>0.13628300666809001</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="9">
         <f>SUM(O9:Q9)/COUNT(O9:Q9)</f>
         <v>0.14001714150110667</v>
       </c>
@@ -9638,7 +9617,7 @@
       <c r="E10" s="5">
         <v>1.9841349124907998E-2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>1.9993654886881332E-2</v>
       </c>
@@ -9651,7 +9630,7 @@
       <c r="I10" s="5">
         <v>8.0256638526917001E-2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>8.0892871220906992E-2</v>
       </c>
@@ -9664,7 +9643,7 @@
       <c r="M10" s="5">
         <v>0.14866646289825</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.14485155582427667</v>
       </c>
@@ -9677,7 +9656,7 @@
       <c r="Q10" s="5">
         <v>0.20444893519084001</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="9">
         <f>SUM(O10:Q10)/COUNT(O10:Q10)</f>
         <v>0.21019121276007668</v>
       </c>
@@ -9696,7 +9675,7 @@
       <c r="E11" s="5">
         <v>0.10104925632477001</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.10196973482768001</v>
       </c>
@@ -9709,7 +9688,7 @@
       <c r="I11" s="5">
         <v>0.40732970237732002</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>0.41876263618469328</v>
       </c>
@@ -9722,7 +9701,7 @@
       <c r="M11" s="5">
         <v>0.76027686834334995</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>0.74731169740358994</v>
       </c>
@@ -9735,7 +9714,7 @@
       <c r="Q11" s="5">
         <v>1.250464776357</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="9">
         <f>SUM(O11:Q11)/COUNT(O11:Q11)</f>
         <v>1.3110732327567001</v>
       </c>
@@ -9754,7 +9733,7 @@
       <c r="E12" s="5">
         <v>0.77157107591629004</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>0.76761838197708332</v>
       </c>
@@ -9767,7 +9746,7 @@
       <c r="I12" s="5">
         <v>3.2827260613442002</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>3.3636263863245994</v>
       </c>
@@ -9780,7 +9759,7 @@
       <c r="M12" s="5">
         <v>6.2527921497822003</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>6.4079488476117668</v>
       </c>
@@ -9793,7 +9772,7 @@
       <c r="Q12" s="5">
         <v>9.9281050960222998</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="9">
         <f>SUM(O12:Q12)/COUNT(O12:Q12)</f>
         <v>9.9619045204587664</v>
       </c>
@@ -9812,7 +9791,7 @@
       <c r="E13" s="5">
         <v>9.9103976964950995</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>9.8376361886660657</v>
       </c>
@@ -9825,18 +9804,18 @@
       <c r="I13" s="5">
         <v>44.744133553505002</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>45.537550528049671</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="15">
       <c r="A14" s="4"/>
@@ -9844,19 +9823,19 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="11"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="15">
       <c r="A15" s="4" t="s">
@@ -9874,7 +9853,7 @@
       <c r="E15" s="5">
         <v>1.8693089485167999E-3</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>1.7000714937845665E-3</v>
       </c>
@@ -9887,7 +9866,7 @@
       <c r="I15" s="5">
         <v>5.5376458168030001E-3</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>6.0225582122802671E-3</v>
       </c>
@@ -9900,7 +9879,7 @@
       <c r="M15" s="5">
         <v>1.3256870508193999E-2</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>1.4364671309789001E-2</v>
       </c>
@@ -9913,7 +9892,7 @@
       <c r="Q15" s="5">
         <v>1.8711342811584E-2</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="9">
         <f>SUM(O15:Q15)/COUNT(O15:Q15)</f>
         <v>1.9718332820468334E-2</v>
       </c>
@@ -9934,7 +9913,7 @@
       <c r="E16" s="5">
         <v>6.7602038383483996E-3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>6.4636548360189E-3</v>
       </c>
@@ -9947,7 +9926,7 @@
       <c r="I16" s="5">
         <v>2.5766286849975999E-2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>2.6734676361084331E-2</v>
       </c>
@@ -9960,7 +9939,7 @@
       <c r="M16" s="5">
         <v>4.6975312232971002E-2</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>4.8234377702077336E-2</v>
       </c>
@@ -9973,7 +9952,7 @@
       <c r="Q16" s="5">
         <v>7.5366777578990005E-2</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="9">
         <f>SUM(O16:Q16)/COUNT(O16:Q16)</f>
         <v>7.7481534481048664E-2</v>
       </c>
@@ -9992,7 +9971,7 @@
       <c r="E17" s="5">
         <v>7.2012400627136E-2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>7.0549539724985663E-2</v>
       </c>
@@ -10005,7 +9984,7 @@
       <c r="I17" s="5">
         <v>0.26608824968338002</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>0.26695565780003999</v>
       </c>
@@ -10018,7 +9997,7 @@
       <c r="M17" s="5">
         <v>0.49347644805907998</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>0.52003844817479672</v>
       </c>
@@ -10031,7 +10010,7 @@
       <c r="Q17" s="5">
         <v>0.80515870094299002</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="9">
         <f>SUM(O17:Q17)/COUNT(O17:Q17)</f>
         <v>0.79726580328411334</v>
       </c>
@@ -10050,7 +10029,7 @@
       <c r="E18" s="5">
         <v>0.53927814960480003</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>0.5441463271776833</v>
       </c>
@@ -10063,7 +10042,7 @@
       <c r="I18" s="5">
         <v>2.3201752424239999</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>2.3193454178174333</v>
       </c>
@@ -10076,7 +10055,7 @@
       <c r="M18" s="5">
         <v>4.3088773608207998</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>4.5076862804094997</v>
       </c>
@@ -10089,7 +10068,7 @@
       <c r="Q18" s="5">
         <v>6.7403890665372002</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="9">
         <f>SUM(O18:Q18)/COUNT(O18:Q18)</f>
         <v>6.8460096499654997</v>
       </c>
@@ -10108,7 +10087,7 @@
       <c r="E19" s="6">
         <v>9.6616981029510001</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>10.325769241650734</v>
       </c>
@@ -10121,18 +10100,18 @@
       <c r="I19" s="6">
         <v>45.287153987884999</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>44.898988934357995</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="11"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="11"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="15">
       <c r="A20" s="4"/>
@@ -10140,19 +10119,19 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="11"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="11"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18" ht="15">
       <c r="A21" s="4" t="s">
@@ -10170,7 +10149,7 @@
       <c r="E21" s="5">
         <v>1.9649028778076002E-3</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.9981622695922669E-3</v>
       </c>
@@ -10183,7 +10162,7 @@
       <c r="I21" s="5">
         <v>7.2121524810790996E-3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>6.1292401949564661E-3</v>
       </c>
@@ -10196,7 +10175,7 @@
       <c r="M21" s="5">
         <v>1.1768789291382E-2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>1.2215555111567333E-2</v>
       </c>
@@ -10209,7 +10188,7 @@
       <c r="Q21" s="5">
         <v>1.7330631415049001E-2</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <f>SUM(O21:Q21)/COUNT(O21:Q21)</f>
         <v>1.8350254959530334E-2</v>
       </c>
@@ -10230,7 +10209,7 @@
       <c r="E22" s="5">
         <v>6.5038442611694003E-3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>6.3767830530802342E-3</v>
       </c>
@@ -10243,7 +10222,7 @@
       <c r="I22" s="5">
         <v>3.1436080932617003E-2</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>2.8544862270355336E-2</v>
       </c>
@@ -10256,7 +10235,7 @@
       <c r="M22" s="5">
         <v>4.7767397165299E-2</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>5.6463401317596668E-2</v>
       </c>
@@ -10269,7 +10248,7 @@
       <c r="Q22" s="5">
         <v>8.0517635345458999E-2</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="9">
         <f>SUM(O22:Q22)/COUNT(O22:Q22)</f>
         <v>7.5906745327843667E-2</v>
       </c>
@@ -10288,7 +10267,7 @@
       <c r="E23" s="5">
         <v>8.7105810642242001E-2</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>8.2647820313771325E-2</v>
       </c>
@@ -10301,7 +10280,7 @@
       <c r="I23" s="5">
         <v>0.30437308073044</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>0.29650978326797334</v>
       </c>
@@ -10314,7 +10293,7 @@
       <c r="M23" s="5">
         <v>0.54690699338912996</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>0.57053038954735003</v>
       </c>
@@ -10327,7 +10306,7 @@
       <c r="Q23" s="5">
         <v>0.84885949611664002</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <f>SUM(O23:Q23)/COUNT(O23:Q23)</f>
         <v>0.79610267665651335</v>
       </c>
@@ -10346,7 +10325,7 @@
       <c r="E24" s="5">
         <v>0.55273129940032995</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>0.56063678264618</v>
       </c>
@@ -10359,7 +10338,7 @@
       <c r="I24" s="5">
         <v>2.2894560313225001</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>2.2830468495687</v>
       </c>
@@ -10372,7 +10351,7 @@
       <c r="M24" s="5">
         <v>4.5856848680973004</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>4.6100266349315673</v>
       </c>
@@ -10385,7 +10364,7 @@
       <c r="Q24" s="5">
         <v>6.5544489558538004</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="9">
         <f>SUM(O24:Q24)/COUNT(O24:Q24)</f>
         <v>7.0060089058346335</v>
       </c>
@@ -10404,7 +10383,7 @@
       <c r="E25" s="6">
         <v>9.6119048953055994</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>9.7511391480763674</v>
       </c>
@@ -10417,38 +10396,18 @@
       <c r="I25" s="6">
         <v>43.973211901188002</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>44.771103556950663</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="11"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="R25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10459,7 +10418,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -10470,156 +10429,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW29"/>
+  <dimension ref="A1:IW25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="R2" activeCellId="3" sqref="F1:F1048576 J1:J1048576 N1:N1048576 R1:R1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
-    <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="10"/>
+    <col min="3" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="8" customWidth="1"/>
+    <col min="11" max="13" width="13.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="8" customWidth="1"/>
+    <col min="15" max="17" width="13.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="8" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:18" ht="14.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>7.2529315948485999E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>7.2181224822998004E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>1.1953115463257001E-2</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>8.8080565134684655E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>3.5267019271850997E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>4.3829584121703999E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>0.26657886505126999</v>
       </c>
       <c r="J3" s="9">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.115225156148275</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>6.5957403182983002E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>6.3758063316344996E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>6.3716888427734E-2</v>
       </c>
       <c r="N3" s="9">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>6.4477451642354008E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>0.10858422915141</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="5">
         <v>0.11337777773539</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="5">
         <v>0.1147606531779</v>
       </c>
       <c r="R3" s="9">
@@ -10627,56 +10590,57 @@
         <v>0.11224088668823334</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>2.3689985275268999E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>2.4049997329712001E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>2.3747920989989998E-2</v>
       </c>
       <c r="F4" s="9">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>2.3829301198323664E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.13800163269043</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>0.10595703125</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>0.10407118797301999</v>
       </c>
       <c r="J4" s="9">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.11600995063781666</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>0.25194811820983998</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>0.24391353130341001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0.21619493961333999</v>
       </c>
       <c r="N4" s="9">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>0.23735219637552998</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>0.37704892158508002</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>0.38762256304422998</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <v>0.38960140546163002</v>
       </c>
       <c r="R4" s="9">
@@ -10684,56 +10648,57 @@
         <v>0.38475763003031332</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.57281708717346003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>0.33039093017577997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>0.33272790908812999</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>0.41197864214579</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>1.8746539115906</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>1.7866715908051001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>1.6307839870453</v>
       </c>
       <c r="J5" s="9">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>1.7640364964803332</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>4.0690225601196</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>3.3074926376342999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>3.3108070135116998</v>
       </c>
       <c r="N5" s="9">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>3.5624407370885329</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <v>4.8273777961731001</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <v>4.9529525597889998</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="5">
         <v>5.1045025189717999</v>
       </c>
       <c r="R5" s="9">
@@ -10741,56 +10706,57 @@
         <v>4.9616109583112999</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>2.7736988067627002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>2.4599299430846999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>2.4499311447143999</v>
       </c>
       <c r="F6" s="9">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>2.5611866315206</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>10.80013756752</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>10.270339775085001</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>9.8035129547118007</v>
       </c>
       <c r="J6" s="9">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>10.2913300991056</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>22.995408773422</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>19.68551299572</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>19.797922396659999</v>
       </c>
       <c r="N6" s="9">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>20.826281388600666</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>30.346943807601999</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>36.315698464710998</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="5">
         <v>34.170119746525998</v>
       </c>
       <c r="R6" s="9">
@@ -10798,115 +10764,119 @@
         <v>33.610920672946328</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>36.395166873931998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>36.015284776687999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>35.772108078003001</v>
       </c>
       <c r="F7" s="9">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>36.06085324287433</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>164.53409862518001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>162.02532038689</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>161.61526856423001</v>
       </c>
       <c r="J7" s="9">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>162.72489585876667</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>4.7950029373169001E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>4.4583082199096999E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>4.4539928436278999E-2</v>
       </c>
       <c r="F9" s="9">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>4.5691013336181668E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>0.21065196990967</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>0.20160684585571001</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>0.20028495788573999</v>
       </c>
       <c r="J9" s="9">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.20418125788370667</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>0.40006971359253002</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>0.42880916595459001</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>0.41465699672699002</v>
       </c>
       <c r="N9" s="9">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>0.41451195875803665</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>0.59108333587646</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>0.61449319521585999</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="5">
         <v>0.5699603398641</v>
       </c>
       <c r="R9" s="9">
@@ -10914,56 +10884,57 @@
         <v>0.59184562365214</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>8.9298009872436995E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>8.7839126586913993E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>9.1475963592529005E-2</v>
       </c>
       <c r="F10" s="9">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>8.9537700017293331E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>0.41370339393616001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>0.36026096343994002</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>0.35251493453978999</v>
       </c>
       <c r="J10" s="9">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>0.37549309730529662</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>0.59704129695892005</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>0.64298689365386996</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>0.65656580924987995</v>
       </c>
       <c r="N10" s="9">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>0.63219799995422343</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>0.91969916025798004</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <v>0.93027995427450005</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="5">
         <v>0.88860406875609999</v>
       </c>
       <c r="R10" s="9">
@@ -10971,56 +10942,57 @@
         <v>0.91286106109619336</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.46341013908385997</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>0.42142009735107</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>0.42274618148804</v>
       </c>
       <c r="F11" s="9">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>0.43585880597432336</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>1.8653461933136</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>1.8447131156920999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>1.8550609588622999</v>
       </c>
       <c r="J11" s="9">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>1.8550400892893333</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>3.1129492044449001</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>3.1052729129791001</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>3.3289674043655002</v>
       </c>
       <c r="N11" s="9">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>3.1823965072631668</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>6.9738423665363998</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <v>8.0030083497365005</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>5.7749861558277997</v>
       </c>
       <c r="R11" s="9">
@@ -11028,56 +11000,57 @@
         <v>6.9172789573669</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>3.4592239856720002</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>3.4055318832396999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>3.4218561649322998</v>
       </c>
       <c r="F12" s="9">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>3.4288706779480003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>18.312743711471999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>16.547928762436001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>15.521381235123</v>
       </c>
       <c r="J12" s="9">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>16.794017903010332</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>33.630316114426002</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>32.721774148941002</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>31.199522995949</v>
       </c>
       <c r="N12" s="9">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>32.517204419772</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>46.234833796818997</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>47.887095514933002</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="5">
         <v>55.294899241129997</v>
       </c>
       <c r="R12" s="9">
@@ -11085,115 +11058,119 @@
         <v>49.805609517627339</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>39.942064046859997</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>39.89732003212</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>40.802585124968999</v>
       </c>
       <c r="F13" s="9">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>40.213989734649665</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>206.99452590943</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>208.19823722839999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>204.47934961319001</v>
       </c>
       <c r="J13" s="9">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>206.55737091700666</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>7.8480243682860999E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>7.8988075256348003E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>1.0045051574707E-2</v>
       </c>
       <c r="F15" s="9">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>8.5972944895426322E-3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>5.0973653793335003E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>3.0906105041504001E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>2.9773759841919E-2</v>
       </c>
       <c r="J15" s="9">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>3.7217839558919337E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>0.12633295059204</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="5">
         <v>0.11819014549255</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5">
         <v>8.8585734367370994E-2</v>
       </c>
       <c r="N15" s="9">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.11103627681732033</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>0.11665954589844001</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>0.15495767593383999</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="5">
         <v>0.13692493438721001</v>
       </c>
       <c r="R15" s="9">
@@ -11201,59 +11178,59 @@
         <v>0.13618071873982998</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>2.8334140777588002E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>2.7240037918091001E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>3.1787157058716001E-2</v>
       </c>
       <c r="F16" s="9">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>2.9120445251465E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>0.12788996696471999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>0.13751921653747001</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>0.12713637351990001</v>
       </c>
       <c r="J16" s="9">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.13084851900736336</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>0.25247685909271</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>0.25813038349152001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>0.22794213294983001</v>
       </c>
       <c r="N16" s="9">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.24618312517802002</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>0.35138460795085003</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>0.40709544817607002</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>0.36049739519754997</v>
       </c>
       <c r="R16" s="9">
@@ -11261,56 +11238,57 @@
         <v>0.3729924837748233</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0.28946495056152</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0.29322409629821999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>0.29872417449951</v>
       </c>
       <c r="F17" s="9">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>0.29380440711975003</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>1.1922716140747001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>1.1498569965362</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>1.1194800376892</v>
       </c>
       <c r="J17" s="9">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>1.1538695494333668</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>2.1932008028030001</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>2.3419580936431998</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>2.0660638093947998</v>
       </c>
       <c r="N17" s="9">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>2.2004075686136666</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>3.3252289930979</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <v>3.2887267589569</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <v>3.5162612597148</v>
       </c>
       <c r="R17" s="9">
@@ -11318,56 +11296,57 @@
         <v>3.3767390039231997</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>2.5863378047943</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>2.5435888767242001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>2.5681610107421999</v>
       </c>
       <c r="F18" s="9">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>2.5660292307535664</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>11.233117055893</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>11.431131076812999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>11.202819633483999</v>
       </c>
       <c r="J18" s="9">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>11.289022588729999</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>25.306958389281998</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>22.278060340881002</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>21.07271630764</v>
       </c>
       <c r="N18" s="9">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>22.885911679267668</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <v>31.822139803568</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>31.112723811466999</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>31.022836780548001</v>
       </c>
       <c r="R18" s="9">
@@ -11375,115 +11354,119 @@
         <v>31.319233465194333</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>79.294433116912998</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>38.984266042709002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>38.904347896575999</v>
       </c>
       <c r="F19" s="9">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>52.394349018732669</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>189.88638706207001</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>203.97909016609</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>198.63712701797999</v>
       </c>
       <c r="J19" s="9">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>197.50086808204665</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>8.2938671112060998E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>1.9883871078490999E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>1.0454893112183001E-2</v>
       </c>
       <c r="F21" s="9">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>1.2877543767293366E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>3.2240056991576997E-2</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>2.9556608200073001E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>4.2261219024658001E-2</v>
       </c>
       <c r="J21" s="9">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>3.4685961405435999E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>7.0954108238220001E-2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="5">
         <v>7.5200557708739998E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5">
         <v>6.6626048088074E-2</v>
       </c>
       <c r="N21" s="9">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>7.0926904678344671E-2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5">
         <v>0.11761468251546001</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="5">
         <v>0.11127301851908</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="5">
         <v>0.10422490437826</v>
       </c>
       <c r="R21" s="9">
@@ -11491,59 +11474,59 @@
         <v>0.11103753513760001</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>2.6512145996094E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>3.1292915344237997E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>3.071403503418E-2</v>
       </c>
       <c r="F22" s="9">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>2.9506365458170664E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>0.13429083824158</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>0.13121619224548001</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>0.16669764518738001</v>
       </c>
       <c r="J22" s="9">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.14406822522481336</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <v>0.31163783073425</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="5">
         <v>0.55145773887634997</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="5">
         <v>0.24426610469818</v>
       </c>
       <c r="N22" s="9">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>0.36912055810292665</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5">
         <v>0.37040146191915002</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="5">
         <v>0.35832185745238998</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="5">
         <v>0.45862773259480999</v>
       </c>
       <c r="R22" s="9">
@@ -11551,56 +11534,57 @@
         <v>0.39578368398878333</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>0.36653804779053001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>0.41377687454223999</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>0.60754418373107999</v>
       </c>
       <c r="F23" s="9">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>0.46261970202128327</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>1.3559296131134</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>1.2252017498015999</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>1.3626742362976001</v>
       </c>
       <c r="J23" s="9">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>1.3146018664041998</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>2.7777417898177998</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="5">
         <v>2.4877586364746</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>2.3611316919326999</v>
       </c>
       <c r="N23" s="9">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>2.5422107060750334</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5">
         <v>3.3741455872853998</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="5">
         <v>3.3618197441100999</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="5">
         <v>3.8807011763255002</v>
       </c>
       <c r="R23" s="9">
@@ -11608,56 +11592,57 @@
         <v>3.5388888359070001</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>2.5659189224243</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>2.5739328861236999</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>2.5189740657806001</v>
       </c>
       <c r="F24" s="9">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>2.5529419581095336</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>10.921091556548999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>11.353821754456</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>11.35698094368</v>
       </c>
       <c r="J24" s="9">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>11.210631418228333</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>23.484414839744002</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="5">
         <v>22.550415802002</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5">
         <v>23.329129576682998</v>
       </c>
       <c r="N24" s="9">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>23.121320072809667</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5">
         <v>34.786128282546997</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="5">
         <v>34.930746475855997</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="5">
         <v>31.795294602712001</v>
       </c>
       <c r="R24" s="9">
@@ -11665,71 +11650,45 @@
         <v>33.837389787038333</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:18" ht="15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>44.711110115051</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>39.505669116973998</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>38.628494977951</v>
       </c>
       <c r="F25" s="9">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>40.948424736658666</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>205.50356354713</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>211.71452279091</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <v>199.37117462158</v>
       </c>
       <c r="J25" s="9">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>205.52975365320665</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="9"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11750,156 +11709,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW29"/>
+  <dimension ref="A1:IW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1"/>
-    <col min="3" max="5" width="11.7109375" style="1"/>
-    <col min="6" max="6" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="1"/>
-    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="14" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.7109375" style="1"/>
-    <col min="18" max="18" width="11.7109375" style="10"/>
+    <col min="3" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" customWidth="1"/>
+    <col min="7" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="8" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="8" customWidth="1"/>
+    <col min="15" max="17" width="13.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="8" customWidth="1"/>
     <col min="19" max="257" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:18" ht="14.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>2.8629779815674002E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>3.0961275100708001E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>4.2079448699950998E-2</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>3.3890167872111E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>0.11914315223694</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>0.13120765686034999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>0.36086039543151999</v>
       </c>
       <c r="J3" s="9">
         <f>SUM(G3:I3)/COUNT(G3:I3)</f>
         <v>0.20373706817627002</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>0.23465976715087999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>0.21987135410309</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>0.22494606971740999</v>
       </c>
       <c r="N3" s="9">
         <f>SUM(K3:M3)/COUNT(K3:M3)</f>
         <v>0.22649239699045998</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>0.34130927721658999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="5">
         <v>0.32714735666910999</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="5">
         <v>0.37350994745889998</v>
       </c>
       <c r="R3" s="9">
@@ -11907,56 +11870,57 @@
         <v>0.34732219378153334</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.10587596893311001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>0.10496473312378</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>0.10656499862671</v>
       </c>
       <c r="F4" s="9">
         <f>SUM(C4:E4)/COUNT(C4:E4)</f>
         <v>0.10580190022786667</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.56591258049010995</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>0.46849312782288</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>0.46720800399779999</v>
       </c>
       <c r="J4" s="9">
         <f>SUM(G4:I4)/COUNT(G4:I4)</f>
         <v>0.50053790410359666</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>1.0429578781127999</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>0.99165358543395998</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0.96677291393279996</v>
       </c>
       <c r="N4" s="9">
         <f>SUM(K4:M4)/COUNT(K4:M4)</f>
         <v>1.0004614591598533</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>1.5198519865672</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>1.5735551993051999</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <v>1.5462844371796001</v>
       </c>
       <c r="R4" s="9">
@@ -11964,56 +11928,57 @@
         <v>1.5465638743506667</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>1.9354889392853001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>1.6025388240814</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>1.6316089630127</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(C5:E5)/COUNT(C5:E5)</f>
         <v>1.7232122421264666</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>8.4486344337462995</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>8.0727665901184</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>7.8109163761138998</v>
       </c>
       <c r="J5" s="9">
         <f>SUM(G5:I5)/COUNT(G5:I5)</f>
         <v>8.1107724666595331</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>16.608856797217999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>15.853037071228</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>15.812289643288</v>
       </c>
       <c r="N5" s="9">
         <f>SUM(K5:M5)/COUNT(K5:M5)</f>
         <v>16.091394503911332</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <v>23.235068480174</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <v>23.682967344920002</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="5">
         <v>24.037721633911001</v>
       </c>
       <c r="R5" s="9">
@@ -12021,56 +11986,57 @@
         <v>23.651919153001668</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>10.815920114517001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>10.151566982268999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>10.52633190155</v>
       </c>
       <c r="F6" s="9">
         <f>SUM(C6:E6)/COUNT(C6:E6)</f>
         <v>10.497939666112002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>46.839616250992002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>46.537710428238</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>45.200466632843003</v>
       </c>
       <c r="J6" s="9">
         <f>SUM(G6:I6)/COUNT(G6:I6)</f>
         <v>46.192597770691009</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>94.478088951111005</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>91.616760945319996</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>90.819481873512004</v>
       </c>
       <c r="N6" s="9">
         <f>SUM(K6:M6)/COUNT(K6:M6)</f>
         <v>92.304777256647682</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>141.95227198601</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>148.76990895271001</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="5">
         <v>145.29906965891999</v>
       </c>
       <c r="R6" s="9">
@@ -12078,116 +12044,119 @@
         <v>145.34041686588</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>178.74467277527</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>177.81628751754999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>176.49444913863999</v>
       </c>
       <c r="F7" s="9">
         <f>SUM(C7:E7)/COUNT(C7:E7)</f>
         <v>177.68513647715335</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>799.79248104094995</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>783.20202469825995</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>786.6127137661</v>
       </c>
       <c r="J7" s="9">
         <f>SUM(G7:I7)/COUNT(G7:I7)</f>
         <v>789.86907316843656</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.22185468673705999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>0.20907807350158999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>0.21458792686462</v>
       </c>
       <c r="F9" s="9">
         <f>SUM(C9:E9)/COUNT(C9:E9)</f>
         <v>0.21517356236775667</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>0.97767701148986996</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>0.94282741546630999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>0.93055596351623004</v>
       </c>
       <c r="J9" s="9">
         <f>SUM(G9:I9)/COUNT(G9:I9)</f>
         <v>0.9503534634908033</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>1.8911451578139999</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>1.9370869636535999</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>1.9747530460358</v>
       </c>
       <c r="N9" s="9">
         <f>SUM(K9:M9)/COUNT(K9:M9)</f>
         <v>1.9343283891678</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>2.7818928718567002</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>2.893475484848</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="5">
         <v>2.7256601333617998</v>
       </c>
       <c r="R9" s="9">
@@ -12195,56 +12164,57 @@
         <v>2.8003428300221667</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>0.40995502471924</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>0.39283728599548001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>0.39682698249817</v>
       </c>
       <c r="F10" s="9">
         <f>SUM(C10:E10)/COUNT(C10:E10)</f>
         <v>0.39987309773762997</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>1.6479570388794</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>1.6004824638366999</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>1.6051327705383001</v>
       </c>
       <c r="J10" s="9">
         <f>SUM(G10:I10)/COUNT(G10:I10)</f>
         <v>1.6178574244181334</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>2.7617025613784998</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>2.9560615301132001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>2.9733292579651001</v>
       </c>
       <c r="N10" s="9">
         <f>SUM(K10:M10)/COUNT(K10:M10)</f>
         <v>2.8970311164856</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>4.2838337580363</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <v>4.2386603037516002</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="5">
         <v>4.0889787038167</v>
       </c>
       <c r="R10" s="9">
@@ -12252,56 +12222,57 @@
         <v>4.2038242552015328</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>2.0703840255736998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>2.0268149375915998</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>2.0209851264954</v>
       </c>
       <c r="F11" s="9">
         <f>SUM(C11:E11)/COUNT(C11:E11)</f>
         <v>2.0393946965535665</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>8.5400120258331995</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>8.4391520977019994</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>8.1465940475463992</v>
       </c>
       <c r="J11" s="9">
         <f>SUM(G11:I11)/COUNT(G11:I11)</f>
         <v>8.3752527236938672</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>14.762718939780999</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
         <v>14.870445537567001</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>15.205537366867</v>
       </c>
       <c r="N11" s="9">
         <f>SUM(K11:M11)/COUNT(K11:M11)</f>
         <v>14.946233948071667</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>24.769616905848</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <v>28.885481532415</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>25.009295527140001</v>
       </c>
       <c r="R11" s="9">
@@ -12309,56 +12280,57 @@
         <v>26.22146465513433</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>15.370904922485</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>15.254776477814</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>15.431421518325999</v>
       </c>
       <c r="F12" s="9">
         <f>SUM(C12:E12)/COUNT(C12:E12)</f>
         <v>15.352367639541667</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>69.287546443938993</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>66.875515508652001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>65.654521226883006</v>
       </c>
       <c r="J12" s="9">
         <f>SUM(G12:I12)/COUNT(G12:I12)</f>
         <v>67.272527726491333</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>130.80681226253</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>128.61427559853001</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>125.05584299564001</v>
       </c>
       <c r="N12" s="9">
         <f>SUM(K12:M12)/COUNT(K12:M12)</f>
         <v>128.15897695223336</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>193.20526623725999</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>205.94690306980999</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="5">
         <v>198.56210192045</v>
       </c>
       <c r="R12" s="9">
@@ -12366,116 +12338,119 @@
         <v>199.23809040917331</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>195.56456232071</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>196.48565506935</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>198.20795392989999</v>
       </c>
       <c r="F13" s="9">
         <f>SUM(C13:E13)/COUNT(C13:E13)</f>
         <v>196.75272377331999</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>931.96770839690998</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>905.40265221595996</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>894.88267107009995</v>
       </c>
       <c r="J13" s="9">
         <f>SUM(G13:I13)/COUNT(G13:I13)</f>
         <v>910.75101056098993</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" spans="1:18" ht="15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>3.2727241516112997E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>3.1890869140625E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>3.7386178970336997E-2</v>
       </c>
       <c r="F15" s="9">
         <f>SUM(C15:E15)/COUNT(C15:E15)</f>
         <v>3.4001429875691665E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>0.13658704757689999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>0.11401352882385</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>0.11075291633606001</v>
       </c>
       <c r="J15" s="9">
         <f>SUM(G15:I15)/COUNT(G15:I15)</f>
         <v>0.12045116424560333</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>0.30851745605469</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="5">
         <v>0.28822541236876997</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5">
         <v>0.26513741016387998</v>
       </c>
       <c r="N15" s="9">
         <f>SUM(K15:M15)/COUNT(K15:M15)</f>
         <v>0.28729342619577997</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5">
         <v>0.39857196807861001</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <v>0.41030114491781</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="5">
         <v>0.37422685623169</v>
       </c>
       <c r="R15" s="9">
@@ -12483,59 +12458,59 @@
         <v>0.39436665640936996</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.12589430809020999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>0.12672090530395999</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>0.13520407676696999</v>
       </c>
       <c r="F16" s="9">
         <f>SUM(C16:E16)/COUNT(C16:E16)</f>
         <v>0.12927309672037998</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>0.54835891723633001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>0.54039592742919995</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>0.51532573699951001</v>
       </c>
       <c r="J16" s="9">
         <f>SUM(G16:I16)/COUNT(G16:I16)</f>
         <v>0.53469352722167995</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>0.97069473266602002</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>0.98386168479919001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>0.93950624465943</v>
       </c>
       <c r="N16" s="9">
         <f>SUM(K16:M16)/COUNT(K16:M16)</f>
         <v>0.96468755404154682</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>1.4117265224457001</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>1.7298299948374001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>1.5073355515797999</v>
       </c>
       <c r="R16" s="9">
@@ -12543,56 +12518,57 @@
         <v>1.5496306896209668</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:18" ht="15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>1.4214231967926001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>1.3713011741637999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>1.4402480125427</v>
       </c>
       <c r="F17" s="9">
         <f>SUM(C17:E17)/COUNT(C17:E17)</f>
         <v>1.4109907944997</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>5.3187494277954004</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>5.3768250465392997</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>5.3217649936675997</v>
       </c>
       <c r="J17" s="9">
         <f>SUM(G17:I17)/COUNT(G17:I17)</f>
         <v>5.3391131560007663</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>10.450013399124</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="5">
         <v>10.882764530182</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>9.8695289611816008</v>
       </c>
       <c r="N17" s="9">
         <f>SUM(K17:M17)/COUNT(K17:M17)</f>
         <v>10.400768963495866</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5">
         <v>15.817006460826001</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <v>15.915767717361</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <v>16.103174018859999</v>
       </c>
       <c r="R17" s="9">
@@ -12600,56 +12576,57 @@
         <v>15.945316065682334</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:18" ht="15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>10.950034856796</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>10.913181781769</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>10.785562992096001</v>
       </c>
       <c r="F18" s="9">
         <f>SUM(C18:E18)/COUNT(C18:E18)</f>
         <v>10.882926543553666</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>46.800014781952001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>45.957205438613997</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>46.403504848479997</v>
       </c>
       <c r="J18" s="9">
         <f>SUM(G18:I18)/COUNT(G18:I18)</f>
         <v>46.38690835634867</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>91.284906315803994</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>92.998723292351002</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>86.177547216414993</v>
       </c>
       <c r="N18" s="9">
         <f>SUM(K18:M18)/COUNT(K18:M18)</f>
         <v>90.153725608189987</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <v>135.44783905347001</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>140.50495861370999</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>134.80778133074</v>
       </c>
       <c r="R18" s="9">
@@ -12657,116 +12634,119 @@
         <v>136.92019299930666</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:18" ht="15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>233.57017326355</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>192.74201917648</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>193.23396205902</v>
       </c>
       <c r="F19" s="9">
         <f>SUM(C19:E19)/COUNT(C19:E19)</f>
         <v>206.51538483301667</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>881.28284893036005</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>906.91340737343</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>905.74307975769</v>
       </c>
       <c r="J19" s="9">
         <f>SUM(G19:I19)/COUNT(G19:I19)</f>
         <v>897.97977868715998</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:18" ht="15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:18" ht="15">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>3.4827709197997998E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>4.5763969421387003E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>3.9298057556151997E-2</v>
       </c>
       <c r="F21" s="9">
         <f>SUM(C21:E21)/COUNT(C21:E21)</f>
         <v>3.9963245391845668E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>0.11435122489929</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>0.10916013717651001</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>0.14424304962157999</v>
       </c>
       <c r="J21" s="9">
         <f>SUM(G21:I21)/COUNT(G21:I21)</f>
         <v>0.12258480389912667</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>0.23364479541777999</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="5">
         <v>0.26391272544861</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5">
         <v>0.23537578582763999</v>
       </c>
       <c r="N21" s="9">
         <f>SUM(K21:M21)/COUNT(K21:M21)</f>
         <v>0.24431110223134334</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5">
         <v>0.38920879364013999</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="5">
         <v>0.36519387563069999</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="5">
         <v>0.34661262830098999</v>
       </c>
       <c r="R21" s="9">
@@ -12774,59 +12754,59 @@
         <v>0.36700509919060997</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" ht="15">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>0.12095522880553999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>0.13157486915587999</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>0.13007688522339</v>
       </c>
       <c r="F22" s="9">
         <f>SUM(C22:E22)/COUNT(C22:E22)</f>
         <v>0.12753566106160333</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>0.55779356956481996</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>0.52617654800415004</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>0.62872161865234999</v>
       </c>
       <c r="J22" s="9">
         <f>SUM(G22:I22)/COUNT(G22:I22)</f>
         <v>0.57089724540710662</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <v>1.1194035291672</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="5">
         <v>1.3130526065826</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="5">
         <v>0.95534794330596995</v>
       </c>
       <c r="N22" s="9">
         <f>SUM(K22:M22)/COUNT(K22:M22)</f>
         <v>1.1292680263519232</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5">
         <v>1.4501003106435</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="5">
         <v>1.4939517021179001</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="5">
         <v>1.6103527069092001</v>
       </c>
       <c r="R22" s="9">
@@ -12834,56 +12814,57 @@
         <v>1.5181349065568668</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:18" ht="15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>1.5578911304473999</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>1.6588618755341</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>1.7421162128448</v>
       </c>
       <c r="F23" s="9">
         <f>SUM(C23:E23)/COUNT(C23:E23)</f>
         <v>1.6529564062754334</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>5.8492838382721004</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>5.8538415431975999</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>6.0874616146087996</v>
       </c>
       <c r="J23" s="9">
         <f>SUM(G23:I23)/COUNT(G23:I23)</f>
         <v>5.9301956653594994</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>12.277629518509</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="5">
         <v>11.016053986549</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>10.938139867782001</v>
       </c>
       <c r="N23" s="9">
         <f>SUM(K23:M23)/COUNT(K23:M23)</f>
         <v>11.410607790946665</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5">
         <v>15.035275586446</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="5">
         <v>15.753695090612</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="5">
         <v>16.977189922333</v>
       </c>
       <c r="R23" s="9">
@@ -12891,56 +12872,57 @@
         <v>15.922053533130333</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:18" ht="15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>11.130517959595</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>11.453063011169</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>11.054625988007</v>
       </c>
       <c r="F24" s="9">
         <f>SUM(C24:E24)/COUNT(C24:E24)</f>
         <v>11.212735652923667</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>45.480020284653001</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>45.713670063019002</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>45.78912062645</v>
       </c>
       <c r="J24" s="9">
         <f>SUM(G24:I24)/COUNT(G24:I24)</f>
         <v>45.660936991374001</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>93.388878607750001</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="5">
         <v>91.499022126198</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5">
         <v>91.713697361946004</v>
       </c>
       <c r="N24" s="9">
         <f>SUM(K24:M24)/COUNT(K24:M24)</f>
         <v>92.200532698631335</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5">
         <v>152.30679596265</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="5">
         <v>136.96475927034999</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="5">
         <v>131.08897911707999</v>
       </c>
       <c r="R24" s="9">
@@ -12961,7 +12943,7 @@
       <c r="E25" s="3">
         <v>192.23809790611</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <f>SUM(C25:E25)/COUNT(C25:E25)</f>
         <v>195.02278296152667</v>
       </c>
@@ -12974,45 +12956,18 @@
       <c r="I25" s="3">
         <v>879.46423802376</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <f>SUM(G25:I25)/COUNT(G25:I25)</f>
         <v>895.42207113901998</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
